--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="216">
   <si>
     <t>idDirector</t>
   </si>
@@ -289,13 +289,385 @@
     <t>liz</t>
   </si>
   <si>
-    <t>Florence</t>
-  </si>
-  <si>
     <t>garel-schoeman</t>
   </si>
   <si>
     <t>segundo violin</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>andriy</t>
+  </si>
+  <si>
+    <t>viytivych</t>
+  </si>
+  <si>
+    <t>konstantin</t>
+  </si>
+  <si>
+    <t>boyarsky</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>peake</t>
+  </si>
+  <si>
+    <t>andrew</t>
+  </si>
+  <si>
+    <t>staples</t>
+  </si>
+  <si>
+    <t>pugh</t>
+  </si>
+  <si>
+    <t>christopher</t>
+  </si>
+  <si>
+    <t>goldscheider</t>
+  </si>
+  <si>
+    <t>lucy</t>
+  </si>
+  <si>
+    <t>yendole</t>
+  </si>
+  <si>
+    <t>nigel</t>
+  </si>
+  <si>
+    <t>bielby</t>
+  </si>
+  <si>
+    <t>haxell</t>
+  </si>
+  <si>
+    <t>angela</t>
+  </si>
+  <si>
+    <t>bonetti</t>
+  </si>
+  <si>
+    <t>rebecca</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>viola</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>ives</t>
+  </si>
+  <si>
+    <t>vanderspar</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>mundy</t>
+  </si>
+  <si>
+    <t>rhydian</t>
+  </si>
+  <si>
+    <t>shaxson</t>
+  </si>
+  <si>
+    <t>naomi</t>
+  </si>
+  <si>
+    <t>walker</t>
+  </si>
+  <si>
+    <t>timothy</t>
+  </si>
+  <si>
+    <t>hewitt-jones</t>
+  </si>
+  <si>
+    <t>bethel</t>
+  </si>
+  <si>
+    <t>philip</t>
+  </si>
+  <si>
+    <t>johnston</t>
+  </si>
+  <si>
+    <t>chelo</t>
+  </si>
+  <si>
+    <t>tony</t>
+  </si>
+  <si>
+    <t>hougham</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>kimber</t>
+  </si>
+  <si>
+    <t>keith</t>
+  </si>
+  <si>
+    <t>peller</t>
+  </si>
+  <si>
+    <t>hetherington</t>
+  </si>
+  <si>
+    <t>hallet</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>vigay</t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>eyres</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>sarah</t>
+  </si>
+  <si>
+    <t>brooke</t>
+  </si>
+  <si>
+    <t>margaret</t>
+  </si>
+  <si>
+    <t>campbell</t>
+  </si>
+  <si>
+    <t>constable</t>
+  </si>
+  <si>
+    <t>rowson</t>
+  </si>
+  <si>
+    <t>flauta</t>
+  </si>
+  <si>
+    <t>flautin</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>girdwood</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>presly</t>
+  </si>
+  <si>
+    <t>tindale</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>garner</t>
+  </si>
+  <si>
+    <t>oboes</t>
+  </si>
+  <si>
+    <t>corno ingles</t>
+  </si>
+  <si>
+    <t>payne</t>
+  </si>
+  <si>
+    <t>nicholas</t>
+  </si>
+  <si>
+    <t>rodwell</t>
+  </si>
+  <si>
+    <t>fergus</t>
+  </si>
+  <si>
+    <t>morrison</t>
+  </si>
+  <si>
+    <t>marina</t>
+  </si>
+  <si>
+    <t>finnamore</t>
+  </si>
+  <si>
+    <t>clarinete</t>
+  </si>
+  <si>
+    <t>clarinete bajo</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>de flammineis</t>
+  </si>
+  <si>
+    <t>miriam</t>
+  </si>
+  <si>
+    <t>gussek</t>
+  </si>
+  <si>
+    <t>stowell</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>fagot</t>
+  </si>
+  <si>
+    <t>contrafagot</t>
+  </si>
+  <si>
+    <t>bissill</t>
+  </si>
+  <si>
+    <t>rayner</t>
+  </si>
+  <si>
+    <t>huw</t>
+  </si>
+  <si>
+    <t>evans</t>
+  </si>
+  <si>
+    <t>roger</t>
+  </si>
+  <si>
+    <t>montgomery</t>
+  </si>
+  <si>
+    <t>davies</t>
+  </si>
+  <si>
+    <t>kennedy</t>
+  </si>
+  <si>
+    <t>trompa</t>
+  </si>
+  <si>
+    <t>balmain</t>
+  </si>
+  <si>
+    <t>carstairs</t>
+  </si>
+  <si>
+    <t>shaddock</t>
+  </si>
+  <si>
+    <t>hardy</t>
+  </si>
+  <si>
+    <t>trompeta</t>
+  </si>
+  <si>
+    <t>erick</t>
+  </si>
+  <si>
+    <t>crees</t>
+  </si>
+  <si>
+    <t>lindsay</t>
+  </si>
+  <si>
+    <t>shilling</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>hext</t>
+  </si>
+  <si>
+    <t>winthorpe</t>
+  </si>
+  <si>
+    <t>trombon</t>
+  </si>
+  <si>
+    <t>patrick</t>
+  </si>
+  <si>
+    <t>jackman</t>
+  </si>
+  <si>
+    <t>mcnicoll</t>
+  </si>
+  <si>
+    <t>trombon bajo, contratrombon bajo</t>
+  </si>
+  <si>
+    <t>rusell</t>
+  </si>
+  <si>
+    <t>jordan</t>
+  </si>
+  <si>
+    <t>ridley</t>
+  </si>
+  <si>
+    <t>archer</t>
+  </si>
+  <si>
+    <t>timbal</t>
+  </si>
+  <si>
+    <t>rachel</t>
+  </si>
+  <si>
+    <t>gledhill</t>
+  </si>
+  <si>
+    <t>charman</t>
+  </si>
+  <si>
+    <t>ormrod</t>
+  </si>
+  <si>
+    <t>percusion</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>granger</t>
+  </si>
+  <si>
+    <t>wakeford</t>
+  </si>
+  <si>
+    <t>arpa</t>
   </si>
 </sst>
 </file>
@@ -305,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +712,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -379,7 +763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,14 +773,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -415,19 +809,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -437,6 +846,31 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -542,8 +976,8 @@
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
     <tableColumn id="11" name="sexo"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="8"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="9"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="11"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="12"/>
     <tableColumn id="14" name="foto"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
@@ -553,13 +987,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:R30" totalsRowShown="0">
-  <autoFilter ref="C3:R30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:R104" totalsRowShown="0">
+  <autoFilter ref="C3:R104"/>
   <tableColumns count="16">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="4"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="3"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="2"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="7"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="6"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="5"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
@@ -1187,12 +1621,12 @@
     <mergeCell ref="C2:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1211,17 +1645,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R30"/>
+  <dimension ref="A2:S113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
@@ -1252,13 +1687,13 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
@@ -1299,398 +1734,1473 @@
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="3"/>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="3"/>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="3"/>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="3"/>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="11" t="s">
-        <v>91</v>
+      <c r="B18" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="11"/>
+      <c r="B19" s="13"/>
       <c r="C19">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="11"/>
+      <c r="B22" s="13"/>
       <c r="C22">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="11"/>
+      <c r="B23" s="13"/>
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="11"/>
+      <c r="B24" s="13"/>
       <c r="C24">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="11"/>
+      <c r="B25" s="13"/>
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26">
         <v>23</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27">
         <v>24</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28">
         <v>25</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29">
         <v>26</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30">
         <v>27</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="4"/>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="4"/>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="4"/>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="4"/>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="4"/>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="4"/>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="4"/>
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="4"/>
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="4"/>
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="4"/>
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="4"/>
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="14"/>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="14"/>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="14"/>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="14"/>
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="14"/>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="B49" s="14"/>
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="B50" s="14"/>
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="B51" s="14"/>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="B52" s="14"/>
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="B54" s="4"/>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="B55" s="4"/>
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="B56" s="4"/>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="B57" s="4"/>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="B58" s="4"/>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="B59" s="4"/>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="B60" s="4"/>
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="B61" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61">
+        <v>58</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="B62" s="14"/>
+      <c r="C62">
+        <v>59</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="B63" s="14"/>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="3"/>
+      <c r="B65" s="14"/>
+      <c r="C65">
+        <v>62</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="B66" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="B67" s="4"/>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="B68" s="4"/>
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="B69" s="4"/>
+      <c r="C69">
+        <v>66</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70">
+        <v>67</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="B71" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71">
+        <v>68</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" s="14"/>
+      <c r="C72">
+        <v>69</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="B73" s="14"/>
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74">
+        <v>71</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="B75" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75">
+        <v>72</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="B76" s="4"/>
+      <c r="C76">
+        <v>73</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="B77" s="4"/>
+      <c r="C77">
+        <v>74</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="B79" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79">
+        <v>76</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="B80" s="14"/>
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18">
+      <c r="B81" s="14"/>
+      <c r="C81">
+        <v>78</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18">
+      <c r="B82" s="14"/>
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18">
+      <c r="B83" s="14"/>
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18">
+      <c r="B84" s="14"/>
+      <c r="C84">
+        <v>81</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18">
+      <c r="B85" s="14"/>
+      <c r="C85">
+        <v>82</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18">
+      <c r="B86" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86">
+        <v>83</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+    </row>
+    <row r="87" spans="2:18">
+      <c r="B87" s="4"/>
+      <c r="C87">
+        <v>84</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18">
+      <c r="B88" s="4"/>
+      <c r="C88">
+        <v>85</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18">
+      <c r="B89" s="4"/>
+      <c r="C89">
+        <v>86</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18">
+      <c r="B90" s="4"/>
+      <c r="C90">
+        <v>87</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+    </row>
+    <row r="91" spans="2:18">
+      <c r="B91" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91">
+        <v>88</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18">
+      <c r="B92" s="14"/>
+      <c r="C92">
+        <v>89</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18">
+      <c r="B93" s="14"/>
+      <c r="C93">
         <v>90</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="D93" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18">
+      <c r="B94" s="14"/>
+      <c r="C94">
+        <v>91</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18">
+      <c r="B95" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95">
+        <v>92</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18">
+      <c r="B96" s="18"/>
+      <c r="C96">
+        <v>93</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="B97" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97">
+        <v>94</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="B98" s="14"/>
+      <c r="C98">
+        <v>95</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99">
+        <v>96</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="B100" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100">
+        <v>97</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="B101" s="4"/>
+      <c r="C101">
+        <v>98</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="B102" s="4"/>
+      <c r="C102">
+        <v>99</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="B103" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="B104" s="14"/>
+      <c r="C104">
+        <v>101</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="4:19">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
     <mergeCell ref="C2:R2"/>
     <mergeCell ref="B4:B17"/>
     <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B53:B60"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:O3">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D104">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
     <sheet name="Musico" sheetId="2" r:id="rId2"/>
+    <sheet name="Orquesta" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="280">
   <si>
     <t>idDirector</t>
   </si>
@@ -103,9 +104,6 @@
     <t>21/09/1912</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>colin</t>
   </si>
   <si>
@@ -671,6 +669,198 @@
   </si>
   <si>
     <t>DIRECTOR MUSICAL</t>
+  </si>
+  <si>
+    <t>royal opera house</t>
+  </si>
+  <si>
+    <t>roberto</t>
+  </si>
+  <si>
+    <t>abbado</t>
+  </si>
+  <si>
+    <t>italia milan</t>
+  </si>
+  <si>
+    <t>metropolitan opera tristan e isolda</t>
+  </si>
+  <si>
+    <t>15/11/1942</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>barenboim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argentino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Israelí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Español</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palestino</t>
+  </si>
+  <si>
+    <t>buenos aires argentina</t>
+  </si>
+  <si>
+    <t>spano</t>
+  </si>
+  <si>
+    <t>conneaut ohaio usa</t>
+  </si>
+  <si>
+    <t>orquesta sinfonica de atlanta</t>
+  </si>
+  <si>
+    <t>fruhbeck</t>
+  </si>
+  <si>
+    <t>de burgos</t>
+  </si>
+  <si>
+    <t>15/09/1933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Academia de Bellas Artes de San Fernando</t>
+  </si>
+  <si>
+    <t>espana</t>
+  </si>
+  <si>
+    <t>zinman</t>
+  </si>
+  <si>
+    <t>new york usa</t>
+  </si>
+  <si>
+    <t>Tonhalle</t>
+  </si>
+  <si>
+    <t>orquesta de filadelfia</t>
+  </si>
+  <si>
+    <t>yannick</t>
+  </si>
+  <si>
+    <t>nezet-seguin</t>
+  </si>
+  <si>
+    <t>montreal canada</t>
+  </si>
+  <si>
+    <t>Orquesta de Cámara de Lausana</t>
+  </si>
+  <si>
+    <t>Jamshedpur, India,</t>
+  </si>
+  <si>
+    <t>christian</t>
+  </si>
+  <si>
+    <t>zacharias</t>
+  </si>
+  <si>
+    <t>27/04/1950</t>
+  </si>
+  <si>
+    <t>Konzerthausorchester Berlin</t>
+  </si>
+  <si>
+    <t>20/01/1951</t>
+  </si>
+  <si>
+    <t>fischer</t>
+  </si>
+  <si>
+    <t>ivan</t>
+  </si>
+  <si>
+    <t>hardin</t>
+  </si>
+  <si>
+    <t>oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orquesta Sinfónica de la Radio Sueca</t>
+  </si>
+  <si>
+    <t>31/08/1975</t>
+  </si>
+  <si>
+    <t>mariss</t>
+  </si>
+  <si>
+    <t>jansons</t>
+  </si>
+  <si>
+    <t>14/01/1943</t>
+  </si>
+  <si>
+    <t>riga</t>
+  </si>
+  <si>
+    <t>Orquesta Real del Concertgebouw</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>01/010/1898</t>
+  </si>
+  <si>
+    <t>spco</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>ORQUESTA</t>
+  </si>
+  <si>
+    <t>scpo</t>
+  </si>
+  <si>
+    <t>metropolitan opera</t>
+  </si>
+  <si>
+    <t>tonhalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> real academia de bellas artes de san fernando</t>
+  </si>
+  <si>
+    <t>orquesta de camara de lausana</t>
+  </si>
+  <si>
+    <t>konzerthausorchester berlin</t>
+  </si>
+  <si>
+    <t>orquesta sinfonica de la radio sueca</t>
+  </si>
+  <si>
+    <t>orquesta real del concertgebouw</t>
+  </si>
+  <si>
+    <t>360 saint peter street</t>
+  </si>
+  <si>
+    <t>2880 broadway</t>
+  </si>
+  <si>
+    <t>848 peachtree street northeast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carrera de san jeronimo, 16, 28014 </t>
   </si>
 </sst>
 </file>
@@ -757,7 +947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -765,8 +955,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -788,8 +1015,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,17 +1093,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -828,14 +1108,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="77">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -846,6 +1144,34 @@
     <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -856,31 +1182,37 @@
     <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -912,29 +1244,33 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -972,89 +1308,30 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:R9" totalsRowShown="0">
-  <autoFilter ref="C3:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:R19" totalsRowShown="0">
+  <autoFilter ref="C3:R19"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="8"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="7"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido"/>
+    <tableColumn id="5" name="segundo apellido" dataDxfId="6"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="0"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="1"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="17"/>
-    <tableColumn id="14" name="foto"/>
-    <tableColumn id="15" name="fkLugar"/>
+    <tableColumn id="11" name="sexo" dataDxfId="10"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="9"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="5"/>
+    <tableColumn id="14" name="foto" dataDxfId="3"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="4"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1066,21 +1343,32 @@
   <autoFilter ref="C3:R104"/>
   <tableColumns count="16">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="12"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="11"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="10"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="14"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="13"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="12"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo"/>
+    <tableColumn id="11" name="sexo" dataDxfId="11"/>
     <tableColumn id="12" name="fechaNac"/>
     <tableColumn id="13" name="fallecimiento"/>
     <tableColumn id="14" name="foto"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C3:D13" totalsRowShown="0">
+  <autoFilter ref="C3:D13"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="nombre"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1408,61 +1696,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:U9"/>
+  <dimension ref="A2:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="12" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" style="12" customWidth="1"/>
     <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="18" customWidth="1"/>
+    <col min="13" max="13" width="13" style="12" customWidth="1"/>
     <col min="14" max="14" width="13" style="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="1" customWidth="1"/>
-    <col min="16" max="18" width="13" customWidth="1"/>
+    <col min="16" max="17" width="13" style="12" customWidth="1"/>
+    <col min="18" max="18" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21">
-      <c r="C2" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="3:21">
-      <c r="C3" t="s">
+    <row r="2" spans="1:21">
+      <c r="C2" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
@@ -1480,7 +1770,7 @@
       <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1489,40 +1779,49 @@
       <c r="O3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
-      <c r="C4">
+    <row r="4" spans="1:21">
+      <c r="B4" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="G4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>263</v>
+      </c>
+      <c r="O4" s="1">
+        <v>24996</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>187</v>
       </c>
       <c r="T4">
         <v>1946</v>
@@ -1531,23 +1830,24 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
-      <c r="C5">
+    <row r="5" spans="1:21">
+      <c r="B5" s="21"/>
+      <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="18" t="s">
+      <c r="G5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -1556,6 +1856,12 @@
       <c r="O5" s="1">
         <v>35376</v>
       </c>
+      <c r="P5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>187</v>
+      </c>
       <c r="T5">
         <v>1955</v>
       </c>
@@ -1563,23 +1869,24 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="6" spans="3:21">
-      <c r="C6">
+    <row r="6" spans="1:21">
+      <c r="B6" s="21"/>
+      <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="18" t="s">
+      <c r="G6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -1588,6 +1895,12 @@
       <c r="O6" s="1">
         <v>35559</v>
       </c>
+      <c r="P6" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>187</v>
+      </c>
       <c r="T6">
         <v>1961</v>
       </c>
@@ -1595,30 +1908,37 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="7" spans="3:21">
-      <c r="C7">
+    <row r="7" spans="1:21">
+      <c r="B7" s="21"/>
+      <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="O7" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>187</v>
       </c>
       <c r="T7">
         <v>1971</v>
@@ -1627,23 +1947,24 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="8" spans="3:21">
-      <c r="C8">
+    <row r="8" spans="1:21">
+      <c r="B8" s="21"/>
+      <c r="C8" s="12">
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="1">
@@ -1652,6 +1973,12 @@
       <c r="O8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="P8" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>187</v>
+      </c>
       <c r="T8">
         <v>1987</v>
       </c>
@@ -1659,30 +1986,37 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="9" spans="3:21">
-      <c r="C9">
+    <row r="9" spans="1:21">
+      <c r="B9" s="21"/>
+      <c r="C9" s="12">
         <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="O9" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>187</v>
       </c>
       <c r="T9">
         <v>2002</v>
@@ -1691,21 +2025,413 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>219</v>
+      </c>
+      <c r="R10" t="s">
+        <v>276</v>
+      </c>
+      <c r="T10">
+        <v>2010</v>
+      </c>
+      <c r="U10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="45">
+      <c r="A11" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>207</v>
+      </c>
+      <c r="R11" t="s">
+        <v>277</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1">
+        <v>22467</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>203</v>
+      </c>
+      <c r="R12" t="s">
+        <v>278</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="45">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>221</v>
+      </c>
+      <c r="R13" t="s">
+        <v>279</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="12">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="1">
+        <v>13400</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="12">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="1">
+        <v>27548</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="30">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="12">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="12">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="12">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="20">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1722,7 +2448,7 @@
   <dimension ref="A2:S113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1734,28 +2460,29 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
-    <col min="13" max="18" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13" style="12" customWidth="1"/>
+    <col min="14" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="C2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="2:18">
       <c r="C3" t="s">
@@ -1788,7 +2515,7 @@
       <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -1808,338 +2535,338 @@
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="16" t="s">
-        <v>66</v>
+      <c r="B4" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>215</v>
+      <c r="M4" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="O5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="O6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="O7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="O8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="O9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="O10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="O12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="O13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="O15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="O16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="O17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="17" t="s">
-        <v>89</v>
+      <c r="B18" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="O19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="16"/>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="O19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="17"/>
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="O20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="O22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="17"/>
+      <c r="B25" s="16"/>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2147,7 +2874,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s">
         <v>17</v>
@@ -2157,46 +2884,46 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="O26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="O27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2204,7 +2931,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="20"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s">
         <v>17</v>
@@ -2214,16 +2941,16 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2231,7 +2958,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="M29" s="20"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s">
         <v>17</v>
@@ -2241,16 +2968,16 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2258,7 +2985,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="M30" s="20"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s">
         <v>17</v>
@@ -2269,16 +2996,16 @@
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O31" t="s">
         <v>17</v>
@@ -2290,10 +3017,10 @@
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="O32" t="s">
         <v>17</v>
@@ -2305,10 +3032,10 @@
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="O33" t="s">
         <v>17</v>
@@ -2320,10 +3047,10 @@
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="O34" t="s">
         <v>17</v>
@@ -2335,10 +3062,10 @@
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="O35" t="s">
         <v>17</v>
@@ -2350,10 +3077,10 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O36" t="s">
         <v>17</v>
@@ -2365,10 +3092,10 @@
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="O37" t="s">
         <v>17</v>
@@ -2380,10 +3107,10 @@
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="O38" t="s">
         <v>17</v>
@@ -2395,10 +3122,10 @@
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="O39" t="s">
         <v>17</v>
@@ -2410,10 +3137,10 @@
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O40" t="s">
         <v>17</v>
@@ -2425,10 +3152,10 @@
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="O41" t="s">
         <v>17</v>
@@ -2440,163 +3167,163 @@
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="O42" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="13" t="s">
-        <v>127</v>
+      <c r="B43" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="C43">
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="O43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="13"/>
+      <c r="B44" s="17"/>
       <c r="C44">
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="13"/>
+      <c r="B45" s="17"/>
       <c r="C45">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O45" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="13"/>
+      <c r="B46" s="17"/>
       <c r="C46">
         <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="O46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="13"/>
+      <c r="B47" s="17"/>
       <c r="C47">
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="O47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="13"/>
+      <c r="B48" s="17"/>
       <c r="C48">
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="B49" s="13"/>
+      <c r="B49" s="17"/>
       <c r="C49">
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O49" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="B50" s="13"/>
+      <c r="B50" s="17"/>
       <c r="C50">
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="O50" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="B51" s="13"/>
+      <c r="B51" s="17"/>
       <c r="C51">
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="B52" s="13"/>
+      <c r="B52" s="17"/>
       <c r="C52">
         <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2604,7 +3331,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s">
         <v>17</v>
@@ -2615,16 +3342,16 @@
     </row>
     <row r="53" spans="1:18">
       <c r="B53" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53">
         <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="O53" t="s">
         <v>17</v>
@@ -2636,10 +3363,10 @@
         <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="O54" t="s">
         <v>17</v>
@@ -2651,10 +3378,10 @@
         <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O55" t="s">
         <v>17</v>
@@ -2666,10 +3393,10 @@
         <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O56" t="s">
         <v>17</v>
@@ -2681,10 +3408,10 @@
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O57" t="s">
         <v>17</v>
@@ -2696,10 +3423,10 @@
         <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O58" t="s">
         <v>17</v>
@@ -2711,10 +3438,10 @@
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="O59" t="s">
         <v>17</v>
@@ -2726,92 +3453,92 @@
         <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="O60" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="B61" s="13" t="s">
-        <v>147</v>
+      <c r="B61" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="C61">
         <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="O61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="B62" s="13"/>
+      <c r="B62" s="17"/>
       <c r="C62">
         <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="O62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="B63" s="13"/>
+      <c r="B63" s="17"/>
       <c r="C63">
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O63" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="13"/>
+      <c r="A64" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="17"/>
       <c r="C64">
         <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="15"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="17"/>
       <c r="C65">
         <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2819,7 +3546,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="M65" s="20"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s">
         <v>17</v>
@@ -2830,16 +3557,16 @@
     </row>
     <row r="66" spans="1:18">
       <c r="B66" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66">
         <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="O66" t="s">
         <v>17</v>
@@ -2851,10 +3578,10 @@
         <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O67" t="s">
         <v>17</v>
@@ -2866,11 +3593,11 @@
         <v>65</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2878,7 +3605,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="M68" s="20"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s">
         <v>17</v>
@@ -2893,10 +3620,10 @@
         <v>66</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O69" t="s">
         <v>17</v>
@@ -2904,65 +3631,65 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70">
         <v>67</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="O70" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="B71" s="13" t="s">
-        <v>165</v>
+      <c r="B71" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C71">
         <v>68</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="B72" s="13"/>
+      <c r="B72" s="17"/>
       <c r="C72">
         <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="O72" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="B73" s="13"/>
+      <c r="B73" s="17"/>
       <c r="C73">
         <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -2970,7 +3697,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="M73" s="20"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s">
         <v>17</v>
@@ -2981,17 +3708,17 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="13"/>
+        <v>165</v>
+      </c>
+      <c r="B74" s="17"/>
       <c r="C74">
         <v>71</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="O74" t="s">
         <v>17</v>
@@ -2999,16 +3726,16 @@
     </row>
     <row r="75" spans="1:18">
       <c r="B75" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C75">
         <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -3020,10 +3747,10 @@
         <v>73</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="O76" t="s">
         <v>17</v>
@@ -3035,10 +3762,10 @@
         <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O77" t="s">
         <v>17</v>
@@ -3046,18 +3773,18 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78">
         <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -3065,7 +3792,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="M78" s="20"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s">
         <v>17</v>
@@ -3075,107 +3802,107 @@
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="13" t="s">
-        <v>183</v>
+      <c r="B79" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="C79">
         <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O79" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="13"/>
+      <c r="B80" s="17"/>
       <c r="C80">
         <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O80" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="13"/>
+      <c r="B81" s="17"/>
       <c r="C81">
         <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="O81" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:18">
-      <c r="B82" s="13"/>
+      <c r="B82" s="17"/>
       <c r="C82">
         <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="O82" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="2:18">
-      <c r="B83" s="13"/>
+      <c r="B83" s="17"/>
       <c r="C83">
         <v>80</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O83" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="13"/>
+      <c r="B84" s="17"/>
       <c r="C84">
         <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O84" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="13"/>
+      <c r="B85" s="17"/>
       <c r="C85">
         <v>82</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
@@ -3183,17 +3910,17 @@
     </row>
     <row r="86" spans="2:18">
       <c r="B86" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C86">
         <v>83</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -3201,7 +3928,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="M86" s="20"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s">
         <v>17</v>
@@ -3216,10 +3943,10 @@
         <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O87" t="s">
         <v>17</v>
@@ -3231,10 +3958,10 @@
         <v>85</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O88" t="s">
         <v>17</v>
@@ -3246,10 +3973,10 @@
         <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O89" t="s">
         <v>17</v>
@@ -3261,11 +3988,11 @@
         <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3273,7 +4000,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="M90" s="20"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s">
         <v>17</v>
@@ -3283,62 +4010,62 @@
       <c r="R90" s="2"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="13" t="s">
-        <v>196</v>
+      <c r="B91" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="C91">
         <v>88</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="O91" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="13"/>
+      <c r="B92" s="17"/>
       <c r="C92">
         <v>89</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="O92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="2:18">
-      <c r="B93" s="13"/>
+      <c r="B93" s="17"/>
       <c r="C93">
         <v>90</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="O93" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="94" spans="2:18">
-      <c r="B94" s="13"/>
+      <c r="B94" s="17"/>
       <c r="C94">
         <v>91</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O94" t="s">
         <v>17</v>
@@ -3346,16 +4073,16 @@
     </row>
     <row r="95" spans="2:18">
       <c r="B95" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C95">
         <v>92</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="O95" t="s">
         <v>17</v>
@@ -3367,42 +4094,42 @@
         <v>93</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="B97" s="13" t="s">
-        <v>205</v>
+      <c r="B97" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="C97">
         <v>94</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="O97" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="B98" s="13"/>
+      <c r="B98" s="17"/>
       <c r="C98">
         <v>95</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O98" t="s">
         <v>17</v>
@@ -3410,17 +4137,17 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" s="13"/>
+        <v>209</v>
+      </c>
+      <c r="B99" s="17"/>
       <c r="C99">
         <v>96</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
@@ -3428,16 +4155,16 @@
     </row>
     <row r="100" spans="1:18">
       <c r="B100" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C100">
         <v>97</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="O100" t="s">
         <v>17</v>
@@ -3449,10 +4176,10 @@
         <v>98</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O101" t="s">
         <v>17</v>
@@ -3464,28 +4191,28 @@
         <v>99</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O102" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="B103" s="13" t="s">
-        <v>214</v>
+      <c r="B103" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="C103">
         <v>100</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -3493,7 +4220,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="M103" s="20"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s">
         <v>17</v>
@@ -3503,15 +4230,15 @@
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="B104" s="13"/>
+      <c r="B104" s="17"/>
       <c r="C104">
         <v>101</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O104" t="s">
         <v>17</v>
@@ -3527,7 +4254,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
+      <c r="M113" s="20"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -3537,17 +4264,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -3555,9 +4271,20 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:O3">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3571,4 +4298,129 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
     <sheet name="Musico" sheetId="2" r:id="rId2"/>
     <sheet name="Orquesta" sheetId="3" r:id="rId3"/>
+    <sheet name="MusicoOrq" sheetId="4" r:id="rId4"/>
+    <sheet name="Director" sheetId="5" r:id="rId5"/>
+    <sheet name="Escenografo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="323">
   <si>
     <t>idDirector</t>
   </si>
@@ -861,6 +864,135 @@
   </si>
   <si>
     <t xml:space="preserve">carrera de san jeronimo, 16, 28014 </t>
+  </si>
+  <si>
+    <t>pkOrquesta</t>
+  </si>
+  <si>
+    <t>pkDirectorMusical</t>
+  </si>
+  <si>
+    <t>ORQUESTA_DIRECTOR</t>
+  </si>
+  <si>
+    <t>la boheme</t>
+  </si>
+  <si>
+    <t>El elixir de amor</t>
+  </si>
+  <si>
+    <t>laurent</t>
+  </si>
+  <si>
+    <t>pelly</t>
+  </si>
+  <si>
+    <t>chantal</t>
+  </si>
+  <si>
+    <t>copley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john </t>
+  </si>
+  <si>
+    <t>trevelyan</t>
+  </si>
+  <si>
+    <t>oma</t>
+  </si>
+  <si>
+    <t>hamish</t>
+  </si>
+  <si>
+    <t>pirie</t>
+  </si>
+  <si>
+    <t>langridge</t>
+  </si>
+  <si>
+    <t>kasper</t>
+  </si>
+  <si>
+    <t>holten</t>
+  </si>
+  <si>
+    <t>joel</t>
+  </si>
+  <si>
+    <t>alijah</t>
+  </si>
+  <si>
+    <t>moshinsky</t>
+  </si>
+  <si>
+    <t>fulljames</t>
+  </si>
+  <si>
+    <t>hytner</t>
+  </si>
+  <si>
+    <t>ezio</t>
+  </si>
+  <si>
+    <t>frigerio</t>
+  </si>
+  <si>
+    <t>yeargan</t>
+  </si>
+  <si>
+    <t>dick</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>macfarlane</t>
+  </si>
+  <si>
+    <t>alison</t>
+  </si>
+  <si>
+    <t>chitty</t>
+  </si>
+  <si>
+    <t>castillo</t>
+  </si>
+  <si>
+    <t>natalie</t>
+  </si>
+  <si>
+    <t>hokanson</t>
+  </si>
+  <si>
+    <t>gianni</t>
+  </si>
+  <si>
+    <t>quaranta</t>
+  </si>
+  <si>
+    <t>formato mal!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Birmingham, West Midlands,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Copenhagen </t>
+  </si>
+  <si>
+    <t>shangai china</t>
+  </si>
+  <si>
+    <t>londres</t>
+  </si>
+  <si>
+    <t>23/08/1976</t>
+  </si>
+  <si>
+    <t>manchester</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1125,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1071,8 +1203,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1096,32 +1298,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,8 +1310,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="147">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1172,6 +1378,41 @@
     <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1210,9 +1451,89 @@
     <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="35">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1244,29 +1565,91 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -1308,6 +1691,32 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -1317,21 +1726,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:R19" totalsRowShown="0">
   <autoFilter ref="C3:R19"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="8"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="34"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="7"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="33"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido" dataDxfId="6"/>
+    <tableColumn id="5" name="segundo apellido" dataDxfId="32"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="10"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="9"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="5"/>
-    <tableColumn id="14" name="foto" dataDxfId="3"/>
-    <tableColumn id="15" name="fkLugar" dataDxfId="4"/>
+    <tableColumn id="11" name="sexo" dataDxfId="31"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="30"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="29"/>
+    <tableColumn id="14" name="foto" dataDxfId="28"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="27"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1343,16 +1752,16 @@
   <autoFilter ref="C3:R104"/>
   <tableColumns count="16">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="14"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="13"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="12"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="26"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="25"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="24"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="11"/>
+    <tableColumn id="11" name="sexo" dataDxfId="23"/>
     <tableColumn id="12" name="fechaNac"/>
     <tableColumn id="13" name="fallecimiento"/>
     <tableColumn id="14" name="foto"/>
@@ -1369,6 +1778,71 @@
   <tableColumns count="2">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="nombre"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C3:D11" totalsRowShown="0">
+  <autoFilter ref="C3:D11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="pkOrquesta" dataDxfId="21">
+      <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="22">
+      <calculatedColumnFormula>(DirectorOquesta!C10)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:R13" totalsRowShown="0">
+  <autoFilter ref="C3:R13"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="idDirector" dataDxfId="8"/>
+    <tableColumn id="2" name="primer nombre"/>
+    <tableColumn id="3" name="segundo nombre"/>
+    <tableColumn id="4" name="primer apellido"/>
+    <tableColumn id="5" name="segundo apellido"/>
+    <tableColumn id="6" name="telf1"/>
+    <tableColumn id="7" name="telf2"/>
+    <tableColumn id="8" name="telf3"/>
+    <tableColumn id="9" name="telf4"/>
+    <tableColumn id="10" name="telf5"/>
+    <tableColumn id="11" name="sexo" dataDxfId="7"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="6"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="5"/>
+    <tableColumn id="14" name="foto" dataDxfId="4"/>
+    <tableColumn id="15" name="fkLugar"/>
+    <tableColumn id="16" name="detalleDireccion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
+  <autoFilter ref="C3:R13"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="idDirector" dataDxfId="0"/>
+    <tableColumn id="2" name="primer nombre"/>
+    <tableColumn id="3" name="segundo nombre"/>
+    <tableColumn id="4" name="primer apellido"/>
+    <tableColumn id="5" name="segundo apellido"/>
+    <tableColumn id="6" name="telf1"/>
+    <tableColumn id="7" name="telf2"/>
+    <tableColumn id="8" name="telf3"/>
+    <tableColumn id="9" name="telf4"/>
+    <tableColumn id="10" name="telf5"/>
+    <tableColumn id="11" name="sexo" dataDxfId="9"/>
+    <tableColumn id="12" name="fechaNac"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="1"/>
+    <tableColumn id="14" name="foto"/>
+    <tableColumn id="15" name="fkLugar"/>
+    <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1699,7 +2173,7 @@
   <dimension ref="A2:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1720,24 +2194,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:21">
       <c r="C3" s="12" t="s">
@@ -1790,7 +2264,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="12">
@@ -1831,7 +2305,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="21"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -1870,7 +2344,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -1909,7 +2383,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -1948,7 +2422,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -1987,7 +2461,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -2067,10 +2541,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="45">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="12">
@@ -2106,7 +2580,7 @@
       <c r="R11" t="s">
         <v>277</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="16" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2150,7 +2624,7 @@
       <c r="R12" t="s">
         <v>278</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="17" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2158,7 +2632,7 @@
       <c r="A13" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>235</v>
       </c>
       <c r="C13" s="12">
@@ -2194,7 +2668,7 @@
       <c r="R13" t="s">
         <v>279</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="17" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2232,7 +2706,7 @@
       <c r="P14" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="T14" s="26" t="s">
+      <c r="T14" s="18" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2240,7 +2714,7 @@
       <c r="A15" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>240</v>
       </c>
       <c r="C15" s="12">
@@ -2275,7 +2749,7 @@
       <c r="A16" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="15" t="s">
         <v>244</v>
       </c>
       <c r="C16" s="12">
@@ -2380,19 +2854,19 @@
       <c r="B19" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="13">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="2"/>
@@ -2400,19 +2874,19 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="O19" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="20" t="s">
+      <c r="O19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="Q19" s="20"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="2"/>
     </row>
   </sheetData>
@@ -2421,12 +2895,12 @@
     <mergeCell ref="B4:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2447,7 +2921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -2465,24 +2939,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="2:18">
       <c r="C3" t="s">
@@ -2535,7 +3009,7 @@
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C4">
@@ -2555,7 +3029,7 @@
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="15"/>
+      <c r="B5" s="25"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -2570,7 +3044,7 @@
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="15"/>
+      <c r="B6" s="25"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -2585,7 +3059,7 @@
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="15"/>
+      <c r="B7" s="25"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -2600,7 +3074,7 @@
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="15"/>
+      <c r="B8" s="25"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -2615,7 +3089,7 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="15"/>
+      <c r="B9" s="25"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -2630,7 +3104,7 @@
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="15"/>
+      <c r="B10" s="25"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -2645,7 +3119,7 @@
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="15"/>
+      <c r="B11" s="25"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -2660,7 +3134,7 @@
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="15"/>
+      <c r="B12" s="25"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -2675,7 +3149,7 @@
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="15"/>
+      <c r="B13" s="25"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -2690,7 +3164,7 @@
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="15"/>
+      <c r="B14" s="25"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -2705,7 +3179,7 @@
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="15"/>
+      <c r="B15" s="25"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -2720,7 +3194,7 @@
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="15"/>
+      <c r="B16" s="25"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -2735,7 +3209,7 @@
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="15"/>
+      <c r="B17" s="25"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -2750,7 +3224,7 @@
       </c>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C18">
@@ -2767,7 +3241,7 @@
       </c>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="16"/>
+      <c r="B19" s="26"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -2782,7 +3256,7 @@
       </c>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="16"/>
+      <c r="B20" s="26"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -2797,7 +3271,7 @@
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="16"/>
+      <c r="B21" s="26"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -2812,7 +3286,7 @@
       </c>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="16"/>
+      <c r="B22" s="26"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -2827,7 +3301,7 @@
       </c>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="16"/>
+      <c r="B23" s="26"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -2842,7 +3316,7 @@
       </c>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="16"/>
+      <c r="B24" s="26"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -2857,7 +3331,7 @@
       </c>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="16"/>
+      <c r="B25" s="26"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -2874,7 +3348,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="20"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s">
         <v>17</v>
@@ -2884,7 +3358,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="16"/>
+      <c r="B26" s="26"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -2899,7 +3373,7 @@
       </c>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="16"/>
+      <c r="B27" s="26"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -2914,7 +3388,7 @@
       </c>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="16"/>
+      <c r="B28" s="26"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -2931,7 +3405,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="20"/>
+      <c r="M28" s="13"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s">
         <v>17</v>
@@ -2941,7 +3415,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="16"/>
+      <c r="B29" s="26"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -2958,7 +3432,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="20"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s">
         <v>17</v>
@@ -2968,7 +3442,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="16"/>
+      <c r="B30" s="26"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -2985,7 +3459,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="20"/>
+      <c r="M30" s="13"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s">
         <v>17</v>
@@ -2995,7 +3469,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C31">
@@ -3012,7 +3486,7 @@
       </c>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="14"/>
+      <c r="B32" s="22"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -3027,7 +3501,7 @@
       </c>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="14"/>
+      <c r="B33" s="22"/>
       <c r="C33">
         <v>30</v>
       </c>
@@ -3042,7 +3516,7 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="14"/>
+      <c r="B34" s="22"/>
       <c r="C34">
         <v>31</v>
       </c>
@@ -3057,7 +3531,7 @@
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="14"/>
+      <c r="B35" s="22"/>
       <c r="C35">
         <v>32</v>
       </c>
@@ -3072,7 +3546,7 @@
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="14"/>
+      <c r="B36" s="22"/>
       <c r="C36">
         <v>33</v>
       </c>
@@ -3087,7 +3561,7 @@
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="14"/>
+      <c r="B37" s="22"/>
       <c r="C37">
         <v>34</v>
       </c>
@@ -3102,7 +3576,7 @@
       </c>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="14"/>
+      <c r="B38" s="22"/>
       <c r="C38">
         <v>35</v>
       </c>
@@ -3117,7 +3591,7 @@
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="14"/>
+      <c r="B39" s="22"/>
       <c r="C39">
         <v>36</v>
       </c>
@@ -3132,7 +3606,7 @@
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="14"/>
+      <c r="B40" s="22"/>
       <c r="C40">
         <v>37</v>
       </c>
@@ -3147,7 +3621,7 @@
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="14"/>
+      <c r="B41" s="22"/>
       <c r="C41">
         <v>38</v>
       </c>
@@ -3162,7 +3636,7 @@
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="14"/>
+      <c r="B42" s="22"/>
       <c r="C42">
         <v>39</v>
       </c>
@@ -3177,7 +3651,7 @@
       </c>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="21" t="s">
         <v>126</v>
       </c>
       <c r="C43">
@@ -3194,7 +3668,7 @@
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="17"/>
+      <c r="B44" s="21"/>
       <c r="C44">
         <v>41</v>
       </c>
@@ -3209,7 +3683,7 @@
       </c>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="17"/>
+      <c r="B45" s="21"/>
       <c r="C45">
         <v>42</v>
       </c>
@@ -3224,7 +3698,7 @@
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="17"/>
+      <c r="B46" s="21"/>
       <c r="C46">
         <v>43</v>
       </c>
@@ -3239,7 +3713,7 @@
       </c>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="17"/>
+      <c r="B47" s="21"/>
       <c r="C47">
         <v>44</v>
       </c>
@@ -3254,7 +3728,7 @@
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="17"/>
+      <c r="B48" s="21"/>
       <c r="C48">
         <v>45</v>
       </c>
@@ -3269,7 +3743,7 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="B49" s="17"/>
+      <c r="B49" s="21"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -3284,7 +3758,7 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="B50" s="17"/>
+      <c r="B50" s="21"/>
       <c r="C50">
         <v>47</v>
       </c>
@@ -3299,7 +3773,7 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="B51" s="17"/>
+      <c r="B51" s="21"/>
       <c r="C51">
         <v>48</v>
       </c>
@@ -3314,7 +3788,7 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="B52" s="17"/>
+      <c r="B52" s="21"/>
       <c r="C52">
         <v>49</v>
       </c>
@@ -3331,7 +3805,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="20"/>
+      <c r="M52" s="13"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s">
         <v>17</v>
@@ -3341,7 +3815,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="22" t="s">
         <v>139</v>
       </c>
       <c r="C53">
@@ -3358,7 +3832,7 @@
       </c>
     </row>
     <row r="54" spans="1:18">
-      <c r="B54" s="14"/>
+      <c r="B54" s="22"/>
       <c r="C54">
         <v>51</v>
       </c>
@@ -3373,7 +3847,7 @@
       </c>
     </row>
     <row r="55" spans="1:18">
-      <c r="B55" s="14"/>
+      <c r="B55" s="22"/>
       <c r="C55">
         <v>52</v>
       </c>
@@ -3388,7 +3862,7 @@
       </c>
     </row>
     <row r="56" spans="1:18">
-      <c r="B56" s="14"/>
+      <c r="B56" s="22"/>
       <c r="C56">
         <v>53</v>
       </c>
@@ -3403,7 +3877,7 @@
       </c>
     </row>
     <row r="57" spans="1:18">
-      <c r="B57" s="14"/>
+      <c r="B57" s="22"/>
       <c r="C57">
         <v>54</v>
       </c>
@@ -3418,7 +3892,7 @@
       </c>
     </row>
     <row r="58" spans="1:18">
-      <c r="B58" s="14"/>
+      <c r="B58" s="22"/>
       <c r="C58">
         <v>55</v>
       </c>
@@ -3433,7 +3907,7 @@
       </c>
     </row>
     <row r="59" spans="1:18">
-      <c r="B59" s="14"/>
+      <c r="B59" s="22"/>
       <c r="C59">
         <v>56</v>
       </c>
@@ -3448,7 +3922,7 @@
       </c>
     </row>
     <row r="60" spans="1:18">
-      <c r="B60" s="14"/>
+      <c r="B60" s="22"/>
       <c r="C60">
         <v>57</v>
       </c>
@@ -3463,7 +3937,7 @@
       </c>
     </row>
     <row r="61" spans="1:18">
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="21" t="s">
         <v>146</v>
       </c>
       <c r="C61">
@@ -3480,7 +3954,7 @@
       </c>
     </row>
     <row r="62" spans="1:18">
-      <c r="B62" s="17"/>
+      <c r="B62" s="21"/>
       <c r="C62">
         <v>59</v>
       </c>
@@ -3495,7 +3969,7 @@
       </c>
     </row>
     <row r="63" spans="1:18">
-      <c r="B63" s="17"/>
+      <c r="B63" s="21"/>
       <c r="C63">
         <v>60</v>
       </c>
@@ -3510,10 +3984,10 @@
       </c>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="21"/>
       <c r="C64">
         <v>61</v>
       </c>
@@ -3528,8 +4002,8 @@
       </c>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="18"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="21"/>
       <c r="C65">
         <v>62</v>
       </c>
@@ -3546,7 +4020,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="20"/>
+      <c r="M65" s="13"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s">
         <v>17</v>
@@ -3556,7 +4030,7 @@
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C66">
@@ -3573,7 +4047,7 @@
       </c>
     </row>
     <row r="67" spans="1:18">
-      <c r="B67" s="14"/>
+      <c r="B67" s="22"/>
       <c r="C67">
         <v>64</v>
       </c>
@@ -3588,7 +4062,7 @@
       </c>
     </row>
     <row r="68" spans="1:18">
-      <c r="B68" s="14"/>
+      <c r="B68" s="22"/>
       <c r="C68">
         <v>65</v>
       </c>
@@ -3605,7 +4079,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="20"/>
+      <c r="M68" s="13"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s">
         <v>17</v>
@@ -3615,7 +4089,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="B69" s="14"/>
+      <c r="B69" s="22"/>
       <c r="C69">
         <v>66</v>
       </c>
@@ -3633,7 +4107,7 @@
       <c r="A70" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="14"/>
+      <c r="B70" s="22"/>
       <c r="C70">
         <v>67</v>
       </c>
@@ -3648,7 +4122,7 @@
       </c>
     </row>
     <row r="71" spans="1:18">
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C71">
@@ -3665,7 +4139,7 @@
       </c>
     </row>
     <row r="72" spans="1:18">
-      <c r="B72" s="17"/>
+      <c r="B72" s="21"/>
       <c r="C72">
         <v>69</v>
       </c>
@@ -3680,7 +4154,7 @@
       </c>
     </row>
     <row r="73" spans="1:18">
-      <c r="B73" s="17"/>
+      <c r="B73" s="21"/>
       <c r="C73">
         <v>70</v>
       </c>
@@ -3697,7 +4171,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="20"/>
+      <c r="M73" s="13"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s">
         <v>17</v>
@@ -3710,7 +4184,7 @@
       <c r="A74" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="17"/>
+      <c r="B74" s="21"/>
       <c r="C74">
         <v>71</v>
       </c>
@@ -3725,7 +4199,7 @@
       </c>
     </row>
     <row r="75" spans="1:18">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="22" t="s">
         <v>172</v>
       </c>
       <c r="C75">
@@ -3742,7 +4216,7 @@
       </c>
     </row>
     <row r="76" spans="1:18">
-      <c r="B76" s="14"/>
+      <c r="B76" s="22"/>
       <c r="C76">
         <v>73</v>
       </c>
@@ -3757,7 +4231,7 @@
       </c>
     </row>
     <row r="77" spans="1:18">
-      <c r="B77" s="14"/>
+      <c r="B77" s="22"/>
       <c r="C77">
         <v>74</v>
       </c>
@@ -3775,7 +4249,7 @@
       <c r="A78" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="14"/>
+      <c r="B78" s="22"/>
       <c r="C78">
         <v>75</v>
       </c>
@@ -3792,7 +4266,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="20"/>
+      <c r="M78" s="13"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s">
         <v>17</v>
@@ -3802,7 +4276,7 @@
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="21" t="s">
         <v>182</v>
       </c>
       <c r="C79">
@@ -3819,7 +4293,7 @@
       </c>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="17"/>
+      <c r="B80" s="21"/>
       <c r="C80">
         <v>77</v>
       </c>
@@ -3834,7 +4308,7 @@
       </c>
     </row>
     <row r="81" spans="2:18">
-      <c r="B81" s="17"/>
+      <c r="B81" s="21"/>
       <c r="C81">
         <v>78</v>
       </c>
@@ -3849,7 +4323,7 @@
       </c>
     </row>
     <row r="82" spans="2:18">
-      <c r="B82" s="17"/>
+      <c r="B82" s="21"/>
       <c r="C82">
         <v>79</v>
       </c>
@@ -3864,7 +4338,7 @@
       </c>
     </row>
     <row r="83" spans="2:18">
-      <c r="B83" s="17"/>
+      <c r="B83" s="21"/>
       <c r="C83">
         <v>80</v>
       </c>
@@ -3879,7 +4353,7 @@
       </c>
     </row>
     <row r="84" spans="2:18">
-      <c r="B84" s="17"/>
+      <c r="B84" s="21"/>
       <c r="C84">
         <v>81</v>
       </c>
@@ -3894,7 +4368,7 @@
       </c>
     </row>
     <row r="85" spans="2:18">
-      <c r="B85" s="17"/>
+      <c r="B85" s="21"/>
       <c r="C85">
         <v>82</v>
       </c>
@@ -3909,7 +4383,7 @@
       </c>
     </row>
     <row r="86" spans="2:18">
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="22" t="s">
         <v>187</v>
       </c>
       <c r="C86">
@@ -3928,7 +4402,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="20"/>
+      <c r="M86" s="13"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s">
         <v>17</v>
@@ -3938,7 +4412,7 @@
       <c r="R86" s="2"/>
     </row>
     <row r="87" spans="2:18">
-      <c r="B87" s="14"/>
+      <c r="B87" s="22"/>
       <c r="C87">
         <v>84</v>
       </c>
@@ -3953,7 +4427,7 @@
       </c>
     </row>
     <row r="88" spans="2:18">
-      <c r="B88" s="14"/>
+      <c r="B88" s="22"/>
       <c r="C88">
         <v>85</v>
       </c>
@@ -3968,7 +4442,7 @@
       </c>
     </row>
     <row r="89" spans="2:18">
-      <c r="B89" s="14"/>
+      <c r="B89" s="22"/>
       <c r="C89">
         <v>86</v>
       </c>
@@ -3983,7 +4457,7 @@
       </c>
     </row>
     <row r="90" spans="2:18">
-      <c r="B90" s="14"/>
+      <c r="B90" s="22"/>
       <c r="C90">
         <v>87</v>
       </c>
@@ -4000,7 +4474,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="20"/>
+      <c r="M90" s="13"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s">
         <v>17</v>
@@ -4010,7 +4484,7 @@
       <c r="R90" s="2"/>
     </row>
     <row r="91" spans="2:18">
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="21" t="s">
         <v>195</v>
       </c>
       <c r="C91">
@@ -4027,7 +4501,7 @@
       </c>
     </row>
     <row r="92" spans="2:18">
-      <c r="B92" s="17"/>
+      <c r="B92" s="21"/>
       <c r="C92">
         <v>89</v>
       </c>
@@ -4042,7 +4516,7 @@
       </c>
     </row>
     <row r="93" spans="2:18">
-      <c r="B93" s="17"/>
+      <c r="B93" s="21"/>
       <c r="C93">
         <v>90</v>
       </c>
@@ -4057,7 +4531,7 @@
       </c>
     </row>
     <row r="94" spans="2:18">
-      <c r="B94" s="17"/>
+      <c r="B94" s="21"/>
       <c r="C94">
         <v>91</v>
       </c>
@@ -4072,7 +4546,7 @@
       </c>
     </row>
     <row r="95" spans="2:18">
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="23" t="s">
         <v>199</v>
       </c>
       <c r="C95">
@@ -4089,7 +4563,7 @@
       </c>
     </row>
     <row r="96" spans="2:18">
-      <c r="B96" s="19"/>
+      <c r="B96" s="23"/>
       <c r="C96">
         <v>93</v>
       </c>
@@ -4104,7 +4578,7 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="B97" s="17" t="s">
+      <c r="B97" s="21" t="s">
         <v>204</v>
       </c>
       <c r="C97">
@@ -4121,7 +4595,7 @@
       </c>
     </row>
     <row r="98" spans="1:18">
-      <c r="B98" s="17"/>
+      <c r="B98" s="21"/>
       <c r="C98">
         <v>95</v>
       </c>
@@ -4139,7 +4613,7 @@
       <c r="A99" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="17"/>
+      <c r="B99" s="21"/>
       <c r="C99">
         <v>96</v>
       </c>
@@ -4154,7 +4628,7 @@
       </c>
     </row>
     <row r="100" spans="1:18">
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="22" t="s">
         <v>209</v>
       </c>
       <c r="C100">
@@ -4171,7 +4645,7 @@
       </c>
     </row>
     <row r="101" spans="1:18">
-      <c r="B101" s="14"/>
+      <c r="B101" s="22"/>
       <c r="C101">
         <v>98</v>
       </c>
@@ -4186,7 +4660,7 @@
       </c>
     </row>
     <row r="102" spans="1:18">
-      <c r="B102" s="14"/>
+      <c r="B102" s="22"/>
       <c r="C102">
         <v>99</v>
       </c>
@@ -4201,7 +4675,7 @@
       </c>
     </row>
     <row r="103" spans="1:18">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="21" t="s">
         <v>213</v>
       </c>
       <c r="C103">
@@ -4220,7 +4694,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="20"/>
+      <c r="M103" s="13"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s">
         <v>17</v>
@@ -4230,7 +4704,7 @@
       <c r="R103" s="2"/>
     </row>
     <row r="104" spans="1:18">
-      <c r="B104" s="17"/>
+      <c r="B104" s="21"/>
       <c r="C104">
         <v>101</v>
       </c>
@@ -4254,7 +4728,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="20"/>
+      <c r="M113" s="13"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -4264,6 +4738,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -4271,20 +4756,9 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:O3">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4315,10 +4789,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
@@ -4372,7 +4846,7 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4380,7 +4854,7 @@
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="15" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4406,6 +4880,130 @@
       </c>
       <c r="D13" t="s">
         <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="12">
+        <f>(Orquesta!C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <f>(DirectorOquesta!C10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="12">
+        <f>(Orquesta!C5)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
+        <f>(DirectorOquesta!C11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="12">
+        <f>(Orquesta!C6)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <f>(DirectorOquesta!C12)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="12">
+        <f>(Orquesta!C7)</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="12">
+        <f>(DirectorOquesta!C13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="12">
+        <f>(Orquesta!C8)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <f>(DirectorOquesta!C14)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="12">
+        <f>(Orquesta!C9)</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="12">
+        <f>(DirectorOquesta!C15)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="12">
+        <f>(Orquesta!C10)</f>
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <f>(DirectorOquesta!C16)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="12">
+        <f>(Orquesta!C11)</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <f>(DirectorOquesta!C17)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4423,4 +5021,705 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12" style="12" customWidth="1"/>
+    <col min="4" max="7" width="12" customWidth="1"/>
+    <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="12" customWidth="1"/>
+    <col min="17" max="18" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18">
+      <c r="N2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1">
+        <v>12394</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5" s="27"/>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6" s="28"/>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1">
+        <v>26914</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1">
+        <v>22866</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="1">
+        <v>19512</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="1">
+        <v>17015</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1">
+        <v>19546</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="1">
+        <v>20641</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:R13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" style="12" customWidth="1"/>
+    <col min="4" max="7" width="12" customWidth="1"/>
+    <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="12" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13" style="12" customWidth="1"/>
+    <col min="16" max="18" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18">
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="C8" s="12">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="C11" s="12">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="C12" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="C13" s="12">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" t="s">
+        <v>314</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
     <sheet name="Musico" sheetId="2" r:id="rId2"/>
     <sheet name="Orquesta" sheetId="3" r:id="rId3"/>
-    <sheet name="MusicoOrq" sheetId="4" r:id="rId4"/>
+    <sheet name="DirOrq" sheetId="4" r:id="rId4"/>
     <sheet name="Director" sheetId="5" r:id="rId5"/>
     <sheet name="Escenografo" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="343">
   <si>
     <t>idDirector</t>
   </si>
@@ -671,9 +671,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>DIRECTOR MUSICAL</t>
-  </si>
-  <si>
     <t>royal opera house</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
     <t>pkDirectorMusical</t>
   </si>
   <si>
+    <t>Columna1</t>
+  </si>
+  <si>
     <t>ORQUESTA_DIRECTOR</t>
   </si>
   <si>
@@ -993,6 +993,66 @@
   </si>
   <si>
     <t>manchester</t>
+  </si>
+  <si>
+    <t>se murio</t>
+  </si>
+  <si>
+    <t>paris francia</t>
+  </si>
+  <si>
+    <t>milan italia</t>
+  </si>
+  <si>
+    <t>25/08/1930</t>
+  </si>
+  <si>
+    <t>13/02/1946</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>14/07/1947</t>
+  </si>
+  <si>
+    <t>18/01/1949</t>
+  </si>
+  <si>
+    <t>30/08/1943</t>
+  </si>
+  <si>
+    <t>italia</t>
+  </si>
+  <si>
+    <t>DIRECTOR MUSICAL (ORQUESTA)</t>
+  </si>
+  <si>
+    <t>25/09/1980</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timpania </t>
+  </si>
+  <si>
+    <t>phillip</t>
+  </si>
+  <si>
+    <t>17/04/1965</t>
+  </si>
+  <si>
+    <t>amsterdan</t>
+  </si>
+  <si>
+    <t>25/08/1978</t>
+  </si>
+  <si>
+    <t>españa</t>
+  </si>
+  <si>
+    <t>london</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1185,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1273,8 +1333,160 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,6 +1522,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,12 +1553,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="299">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1413,6 +1628,82 @@
     <cellStyle name="Hipervínculo" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1486,14 +1777,104 @@
     <cellStyle name="Hipervínculo visitado" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="42">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1523,9 +1904,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -1585,34 +1963,20 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1656,6 +2020,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1692,6 +2066,16 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -1717,6 +2101,26 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -1726,21 +2130,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:R19" totalsRowShown="0">
   <autoFilter ref="C3:R19"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="34"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="39"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="33"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="38"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido" dataDxfId="32"/>
+    <tableColumn id="5" name="segundo apellido" dataDxfId="37"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="31"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="30"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="29"/>
-    <tableColumn id="14" name="foto" dataDxfId="28"/>
-    <tableColumn id="15" name="fkLugar" dataDxfId="27"/>
+    <tableColumn id="11" name="sexo" dataDxfId="36"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="35"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="34"/>
+    <tableColumn id="14" name="foto" dataDxfId="33"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="32"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1752,19 +2156,19 @@
   <autoFilter ref="C3:R104"/>
   <tableColumns count="16">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="26"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="25"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="24"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="30"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="29"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="28"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="23"/>
-    <tableColumn id="12" name="fechaNac"/>
-    <tableColumn id="13" name="fallecimiento"/>
-    <tableColumn id="14" name="foto"/>
+    <tableColumn id="11" name="sexo" dataDxfId="27"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="26"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="25"/>
+    <tableColumn id="14" name="foto" dataDxfId="24"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -1787,7 +2191,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C3:D11" totalsRowShown="0">
   <autoFilter ref="C3:D11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="pkOrquesta" dataDxfId="21">
+    <tableColumn id="1" name="pkOrquesta" dataDxfId="23">
       <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="pkDirectorMusical" dataDxfId="22">
@@ -1800,6 +2204,31 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:R13" totalsRowShown="0">
+  <autoFilter ref="C3:R13"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="idDirector" dataDxfId="18"/>
+    <tableColumn id="2" name="primer nombre"/>
+    <tableColumn id="3" name="segundo nombre"/>
+    <tableColumn id="4" name="primer apellido"/>
+    <tableColumn id="5" name="segundo apellido"/>
+    <tableColumn id="6" name="telf1"/>
+    <tableColumn id="7" name="telf2"/>
+    <tableColumn id="8" name="telf3"/>
+    <tableColumn id="9" name="telf4"/>
+    <tableColumn id="10" name="telf5"/>
+    <tableColumn id="11" name="sexo" dataDxfId="17"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="16"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="15"/>
+    <tableColumn id="14" name="foto" dataDxfId="14"/>
+    <tableColumn id="15" name="fkLugar"/>
+    <tableColumn id="16" name="detalleDireccion"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
     <tableColumn id="1" name="idDirector" dataDxfId="8"/>
@@ -1816,31 +2245,6 @@
     <tableColumn id="12" name="fechaNac" dataDxfId="6"/>
     <tableColumn id="13" name="fallecimiento" dataDxfId="5"/>
     <tableColumn id="14" name="foto" dataDxfId="4"/>
-    <tableColumn id="15" name="fkLugar"/>
-    <tableColumn id="16" name="detalleDireccion"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
-  <autoFilter ref="C3:R13"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="0"/>
-    <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre"/>
-    <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido"/>
-    <tableColumn id="6" name="telf1"/>
-    <tableColumn id="7" name="telf2"/>
-    <tableColumn id="8" name="telf3"/>
-    <tableColumn id="9" name="telf4"/>
-    <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="9"/>
-    <tableColumn id="12" name="fechaNac"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="1"/>
-    <tableColumn id="14" name="foto"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2173,7 +2577,7 @@
   <dimension ref="A2:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2194,24 +2598,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21">
-      <c r="C2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="C2" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:21">
       <c r="C3" s="12" t="s">
@@ -2264,8 +2668,8 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="20" t="s">
-        <v>216</v>
+      <c r="B4" s="25" t="s">
+        <v>215</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
@@ -2286,13 +2690,13 @@
         <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O4" s="1">
         <v>24996</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="12">
         <v>187</v>
@@ -2305,7 +2709,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -2331,7 +2735,7 @@
         <v>35376</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="12">
         <v>187</v>
@@ -2344,7 +2748,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="20"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -2370,7 +2774,7 @@
         <v>35559</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="12">
         <v>187</v>
@@ -2383,7 +2787,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="20"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -2409,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="12">
         <v>187</v>
@@ -2422,7 +2826,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="20"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -2448,7 +2852,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="12">
         <v>187</v>
@@ -2461,7 +2865,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="20"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -2487,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="12">
         <v>187</v>
@@ -2501,22 +2905,22 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="12">
         <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>217</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>218</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>17</v>
@@ -2525,13 +2929,13 @@
         <v>19</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="12">
         <v>219</v>
       </c>
       <c r="R10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T10">
         <v>2010</v>
@@ -2542,22 +2946,22 @@
     </row>
     <row r="11" spans="1:21" ht="45">
       <c r="A11" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="12">
         <v>8</v>
       </c>
       <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>222</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>223</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>17</v>
@@ -2566,30 +2970,30 @@
         <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="12">
         <v>207</v>
       </c>
       <c r="R11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
         <v>230</v>
-      </c>
-      <c r="B12" t="s">
-        <v>231</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
@@ -2601,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>17</v>
@@ -2616,24 +3020,24 @@
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="12">
         <v>203</v>
       </c>
       <c r="R12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="45">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="12">
         <v>10</v>
@@ -2645,39 +3049,39 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="12">
         <v>221</v>
       </c>
       <c r="R13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
         <v>238</v>
-      </c>
-      <c r="B14" t="s">
-        <v>239</v>
       </c>
       <c r="C14" s="12">
         <v>11</v>
@@ -2689,7 +3093,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>17</v>
@@ -2704,30 +3108,30 @@
         <v>17</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="12">
         <v>12</v>
       </c>
       <c r="D15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>241</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>242</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>17</v>
@@ -2742,27 +3146,27 @@
         <v>17</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="30">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="12">
         <v>13</v>
       </c>
       <c r="D16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>246</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>247</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>17</v>
@@ -2771,30 +3175,30 @@
         <v>19</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="B17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="12">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>17</v>
@@ -2803,33 +3207,33 @@
         <v>19</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" t="s">
         <v>254</v>
-      </c>
-      <c r="B18" t="s">
-        <v>255</v>
       </c>
       <c r="C18" s="12">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>17</v>
@@ -2838,33 +3242,33 @@
         <v>19</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
         <v>260</v>
-      </c>
-      <c r="B19" t="s">
-        <v>261</v>
       </c>
       <c r="C19" s="13">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>17</v>
@@ -2878,13 +3282,13 @@
         <v>19</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="2"/>
@@ -2895,17 +3299,16 @@
     <mergeCell ref="B4:B9"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2921,44 +3324,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="18" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13" style="21" customWidth="1"/>
+    <col min="15" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="2:19">
+      <c r="C2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-    </row>
-    <row r="3" spans="2:18">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="2:19">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -3007,9 +3409,12 @@
       <c r="R3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="25" t="s">
+      <c r="S3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C4">
@@ -3024,12 +3429,14 @@
       <c r="M4" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="25"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="30"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -3039,12 +3446,14 @@
       <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="25"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="30"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -3054,12 +3463,14 @@
       <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="25"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="30"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -3069,12 +3480,14 @@
       <c r="F7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="25"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="30"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -3084,12 +3497,14 @@
       <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="25"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="30"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -3099,12 +3514,14 @@
       <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="25"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="30"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -3114,12 +3531,14 @@
       <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="30"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -3129,12 +3548,14 @@
       <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="30"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -3144,12 +3565,14 @@
       <c r="F12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="30"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -3159,12 +3582,14 @@
       <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="30"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -3174,12 +3599,14 @@
       <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="30"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -3189,12 +3616,14 @@
       <c r="F15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="30"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -3204,12 +3633,14 @@
       <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O16" t="s">
-        <v>17</v>
-      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="25"/>
+      <c r="B17" s="30"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -3219,12 +3650,14 @@
       <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O17" t="s">
-        <v>17</v>
-      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="31" t="s">
         <v>88</v>
       </c>
       <c r="C18">
@@ -3236,12 +3669,14 @@
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O18" t="s">
-        <v>17</v>
-      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="26"/>
+      <c r="B19" s="31"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -3251,12 +3686,14 @@
       <c r="F19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O19" t="s">
-        <v>17</v>
-      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="26"/>
+      <c r="B20" s="31"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -3266,12 +3703,14 @@
       <c r="F20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O20" t="s">
-        <v>17</v>
-      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="26"/>
+      <c r="B21" s="31"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -3281,12 +3720,14 @@
       <c r="F21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O21" t="s">
-        <v>17</v>
-      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="26"/>
+      <c r="B22" s="31"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -3296,12 +3737,14 @@
       <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O22" t="s">
-        <v>17</v>
-      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="26"/>
+      <c r="B23" s="31"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -3311,12 +3754,14 @@
       <c r="F23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O23" t="s">
-        <v>17</v>
-      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="26"/>
+      <c r="B24" s="31"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -3326,12 +3771,14 @@
       <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O24" t="s">
-        <v>17</v>
-      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="26"/>
+      <c r="B25" s="31"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -3349,16 +3796,16 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="2"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="13"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="26"/>
+      <c r="B26" s="31"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -3368,12 +3815,14 @@
       <c r="F26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O26" t="s">
-        <v>17</v>
-      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="12"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="26"/>
+      <c r="B27" s="31"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -3383,12 +3832,14 @@
       <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O27" t="s">
-        <v>17</v>
-      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="26"/>
+      <c r="B28" s="31"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -3406,16 +3857,16 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="13"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="2"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="13"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="26"/>
+      <c r="B29" s="31"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -3433,16 +3884,16 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="2"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="13"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="26"/>
+      <c r="B30" s="31"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -3460,16 +3911,16 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="13"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="2"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="13"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C31">
@@ -3481,12 +3932,14 @@
       <c r="F31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O31" t="s">
-        <v>17</v>
-      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="22"/>
+      <c r="B32" s="27"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -3496,12 +3949,14 @@
       <c r="F32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="22"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="27"/>
       <c r="C33">
         <v>30</v>
       </c>
@@ -3511,12 +3966,14 @@
       <c r="F33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="O33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="22"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="27"/>
       <c r="C34">
         <v>31</v>
       </c>
@@ -3526,12 +3983,14 @@
       <c r="F34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="22"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="27"/>
       <c r="C35">
         <v>32</v>
       </c>
@@ -3541,12 +4000,14 @@
       <c r="F35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="22"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="27"/>
       <c r="C36">
         <v>33</v>
       </c>
@@ -3556,12 +4017,14 @@
       <c r="F36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="22"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="27"/>
       <c r="C37">
         <v>34</v>
       </c>
@@ -3571,12 +4034,14 @@
       <c r="F37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="22"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="27"/>
       <c r="C38">
         <v>35</v>
       </c>
@@ -3586,12 +4051,14 @@
       <c r="F38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="O38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="22"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="27"/>
       <c r="C39">
         <v>36</v>
       </c>
@@ -3601,12 +4068,14 @@
       <c r="F39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="O39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="22"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="27"/>
       <c r="C40">
         <v>37</v>
       </c>
@@ -3616,12 +4085,14 @@
       <c r="F40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="22"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="27"/>
       <c r="C41">
         <v>38</v>
       </c>
@@ -3631,12 +4102,14 @@
       <c r="F41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="22"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="27"/>
       <c r="C42">
         <v>39</v>
       </c>
@@ -3646,12 +4119,14 @@
       <c r="F42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="21" t="s">
+      <c r="N42" s="1"/>
+      <c r="O42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C43">
@@ -3663,12 +4138,14 @@
       <c r="F43" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="21"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="26"/>
       <c r="C44">
         <v>41</v>
       </c>
@@ -3678,12 +4155,14 @@
       <c r="F44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="21"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="26"/>
       <c r="C45">
         <v>42</v>
       </c>
@@ -3693,12 +4172,14 @@
       <c r="F45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="21"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="26"/>
       <c r="C46">
         <v>43</v>
       </c>
@@ -3708,12 +4189,14 @@
       <c r="F46" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="O46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="21"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="12"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="26"/>
       <c r="C47">
         <v>44</v>
       </c>
@@ -3723,12 +4206,14 @@
       <c r="F47" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="21"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="12"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="26"/>
       <c r="C48">
         <v>45</v>
       </c>
@@ -3738,12 +4223,14 @@
       <c r="F48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O48" t="s">
-        <v>17</v>
-      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P48" s="12"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="B49" s="21"/>
+      <c r="B49" s="26"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -3753,12 +4240,14 @@
       <c r="F49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O49" t="s">
-        <v>17</v>
-      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="12"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="B50" s="21"/>
+      <c r="B50" s="26"/>
       <c r="C50">
         <v>47</v>
       </c>
@@ -3768,12 +4257,14 @@
       <c r="F50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O50" t="s">
-        <v>17</v>
-      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" s="12"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="B51" s="21"/>
+      <c r="B51" s="26"/>
       <c r="C51">
         <v>48</v>
       </c>
@@ -3783,12 +4274,14 @@
       <c r="F51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O51" t="s">
-        <v>17</v>
-      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="B52" s="21"/>
+      <c r="B52" s="26"/>
       <c r="C52">
         <v>49</v>
       </c>
@@ -3806,16 +4299,16 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="13"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s">
-        <v>17</v>
-      </c>
-      <c r="P52" s="2"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="13"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="27" t="s">
         <v>139</v>
       </c>
       <c r="C53">
@@ -3827,12 +4320,14 @@
       <c r="F53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O53" t="s">
-        <v>17</v>
-      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="12"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="B54" s="22"/>
+      <c r="B54" s="27"/>
       <c r="C54">
         <v>51</v>
       </c>
@@ -3842,12 +4337,14 @@
       <c r="F54" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="O54" t="s">
-        <v>17</v>
-      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="12"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="B55" s="22"/>
+      <c r="B55" s="27"/>
       <c r="C55">
         <v>52</v>
       </c>
@@ -3857,12 +4354,14 @@
       <c r="F55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O55" t="s">
-        <v>17</v>
-      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="12"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="B56" s="22"/>
+      <c r="B56" s="27"/>
       <c r="C56">
         <v>53</v>
       </c>
@@ -3872,12 +4371,14 @@
       <c r="F56" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O56" t="s">
-        <v>17</v>
-      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" s="12"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="B57" s="22"/>
+      <c r="B57" s="27"/>
       <c r="C57">
         <v>54</v>
       </c>
@@ -3887,12 +4388,14 @@
       <c r="F57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O57" t="s">
-        <v>17</v>
-      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" s="12"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="B58" s="22"/>
+      <c r="B58" s="27"/>
       <c r="C58">
         <v>55</v>
       </c>
@@ -3902,12 +4405,14 @@
       <c r="F58" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O58" t="s">
-        <v>17</v>
-      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P58" s="12"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="B59" s="22"/>
+      <c r="B59" s="27"/>
       <c r="C59">
         <v>56</v>
       </c>
@@ -3917,12 +4422,14 @@
       <c r="F59" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O59" t="s">
-        <v>17</v>
-      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P59" s="12"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="B60" s="22"/>
+      <c r="B60" s="27"/>
       <c r="C60">
         <v>57</v>
       </c>
@@ -3932,12 +4439,14 @@
       <c r="F60" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O60" t="s">
-        <v>17</v>
-      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" s="12"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="26" t="s">
         <v>146</v>
       </c>
       <c r="C61">
@@ -3949,12 +4458,14 @@
       <c r="F61" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O61" t="s">
-        <v>17</v>
-      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" s="12"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="B62" s="21"/>
+      <c r="B62" s="26"/>
       <c r="C62">
         <v>59</v>
       </c>
@@ -3964,12 +4475,14 @@
       <c r="F62" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O62" t="s">
-        <v>17</v>
-      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62" s="12"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="B63" s="21"/>
+      <c r="B63" s="26"/>
       <c r="C63">
         <v>60</v>
       </c>
@@ -3979,15 +4492,17 @@
       <c r="F63" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O63" t="s">
-        <v>17</v>
-      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P63" s="12"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="26"/>
       <c r="C64">
         <v>61</v>
       </c>
@@ -3997,13 +4512,15 @@
       <c r="F64" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O64" t="s">
-        <v>17</v>
-      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P64" s="12"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="24"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="26"/>
       <c r="C65">
         <v>62</v>
       </c>
@@ -4021,16 +4538,16 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="13"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s">
-        <v>17</v>
-      </c>
-      <c r="P65" s="2"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P65" s="13"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C66">
@@ -4042,12 +4559,14 @@
       <c r="F66" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O66" t="s">
-        <v>17</v>
-      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P66" s="12"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="B67" s="22"/>
+      <c r="B67" s="27"/>
       <c r="C67">
         <v>64</v>
       </c>
@@ -4057,12 +4576,14 @@
       <c r="F67" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O67" t="s">
-        <v>17</v>
-      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="12"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="B68" s="22"/>
+      <c r="B68" s="27"/>
       <c r="C68">
         <v>65</v>
       </c>
@@ -4080,16 +4601,16 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="13"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s">
-        <v>17</v>
-      </c>
-      <c r="P68" s="2"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68" s="13"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="B69" s="22"/>
+      <c r="B69" s="27"/>
       <c r="C69">
         <v>66</v>
       </c>
@@ -4099,15 +4620,17 @@
       <c r="F69" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O69" t="s">
-        <v>17</v>
-      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P69" s="12"/>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="22"/>
+      <c r="B70" s="27"/>
       <c r="C70">
         <v>67</v>
       </c>
@@ -4117,12 +4640,14 @@
       <c r="F70" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="O70" t="s">
-        <v>17</v>
-      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P70" s="12"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="26" t="s">
         <v>164</v>
       </c>
       <c r="C71">
@@ -4134,12 +4659,14 @@
       <c r="F71" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O71" t="s">
-        <v>17</v>
-      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P71" s="12"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="B72" s="21"/>
+      <c r="B72" s="26"/>
       <c r="C72">
         <v>69</v>
       </c>
@@ -4149,12 +4676,14 @@
       <c r="F72" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O72" t="s">
-        <v>17</v>
-      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P72" s="12"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="B73" s="21"/>
+      <c r="B73" s="26"/>
       <c r="C73">
         <v>70</v>
       </c>
@@ -4172,11 +4701,11 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="13"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s">
-        <v>17</v>
-      </c>
-      <c r="P73" s="2"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P73" s="13"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
@@ -4184,7 +4713,7 @@
       <c r="A74" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="21"/>
+      <c r="B74" s="26"/>
       <c r="C74">
         <v>71</v>
       </c>
@@ -4194,12 +4723,14 @@
       <c r="F74" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="O74" t="s">
-        <v>17</v>
-      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" s="12"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="27" t="s">
         <v>172</v>
       </c>
       <c r="C75">
@@ -4211,12 +4742,14 @@
       <c r="F75" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="O75" t="s">
-        <v>17</v>
-      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P75" s="12"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="B76" s="22"/>
+      <c r="B76" s="27"/>
       <c r="C76">
         <v>73</v>
       </c>
@@ -4226,12 +4759,14 @@
       <c r="F76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="O76" t="s">
-        <v>17</v>
-      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P76" s="12"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="B77" s="22"/>
+      <c r="B77" s="27"/>
       <c r="C77">
         <v>74</v>
       </c>
@@ -4241,15 +4776,17 @@
       <c r="F77" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O77" t="s">
-        <v>17</v>
-      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" s="12"/>
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="22"/>
+      <c r="B78" s="27"/>
       <c r="C78">
         <v>75</v>
       </c>
@@ -4267,16 +4804,16 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="13"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s">
-        <v>17</v>
-      </c>
-      <c r="P78" s="2"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P78" s="13"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="26" t="s">
         <v>182</v>
       </c>
       <c r="C79">
@@ -4288,12 +4825,14 @@
       <c r="F79" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="O79" t="s">
-        <v>17</v>
-      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P79" s="12"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="21"/>
+      <c r="B80" s="26"/>
       <c r="C80">
         <v>77</v>
       </c>
@@ -4303,12 +4842,14 @@
       <c r="F80" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="2:18">
-      <c r="B81" s="21"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P80" s="12"/>
+    </row>
+    <row r="81" spans="2:19">
+      <c r="B81" s="26"/>
       <c r="C81">
         <v>78</v>
       </c>
@@ -4318,12 +4859,14 @@
       <c r="F81" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:18">
-      <c r="B82" s="21"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P81" s="12"/>
+    </row>
+    <row r="82" spans="2:19">
+      <c r="B82" s="26"/>
       <c r="C82">
         <v>79</v>
       </c>
@@ -4333,12 +4876,14 @@
       <c r="F82" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="O82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="2:18">
-      <c r="B83" s="21"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P82" s="12"/>
+    </row>
+    <row r="83" spans="2:19">
+      <c r="B83" s="26"/>
       <c r="C83">
         <v>80</v>
       </c>
@@ -4348,12 +4893,14 @@
       <c r="F83" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="O83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18">
-      <c r="B84" s="21"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83" s="12"/>
+    </row>
+    <row r="84" spans="2:19">
+      <c r="B84" s="26"/>
       <c r="C84">
         <v>81</v>
       </c>
@@ -4363,12 +4910,14 @@
       <c r="F84" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="2:18">
-      <c r="B85" s="21"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P84" s="12"/>
+    </row>
+    <row r="85" spans="2:19">
+      <c r="B85" s="26"/>
       <c r="C85">
         <v>82</v>
       </c>
@@ -4378,12 +4927,14 @@
       <c r="F85" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="2:18">
-      <c r="B86" s="22" t="s">
+      <c r="N85" s="1"/>
+      <c r="O85" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P85" s="12"/>
+    </row>
+    <row r="86" spans="2:19">
+      <c r="B86" s="27" t="s">
         <v>187</v>
       </c>
       <c r="C86">
@@ -4403,16 +4954,16 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="13"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s">
-        <v>17</v>
-      </c>
-      <c r="P86" s="2"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P86" s="13"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
     </row>
-    <row r="87" spans="2:18">
-      <c r="B87" s="22"/>
+    <row r="87" spans="2:19">
+      <c r="B87" s="27"/>
       <c r="C87">
         <v>84</v>
       </c>
@@ -4422,12 +4973,14 @@
       <c r="F87" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="2:18">
-      <c r="B88" s="22"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P87" s="12"/>
+    </row>
+    <row r="88" spans="2:19">
+      <c r="B88" s="27"/>
       <c r="C88">
         <v>85</v>
       </c>
@@ -4437,12 +4990,14 @@
       <c r="F88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="O88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="2:18">
-      <c r="B89" s="22"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88" s="12"/>
+    </row>
+    <row r="89" spans="2:19">
+      <c r="B89" s="27"/>
       <c r="C89">
         <v>86</v>
       </c>
@@ -4452,12 +5007,21 @@
       <c r="F89" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="O89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="2:18">
-      <c r="B90" s="22"/>
+      <c r="M89" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19">
+      <c r="B90" s="27"/>
       <c r="C90">
         <v>87</v>
       </c>
@@ -4474,17 +5038,23 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s">
-        <v>17</v>
-      </c>
-      <c r="P90" s="2"/>
+      <c r="M90" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N90" s="14">
+        <v>27343</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
-    <row r="91" spans="2:18">
-      <c r="B91" s="21" t="s">
+    <row r="91" spans="2:19">
+      <c r="B91" s="26" t="s">
         <v>195</v>
       </c>
       <c r="C91">
@@ -4496,12 +5066,24 @@
       <c r="F91" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="O91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="2:18">
-      <c r="B92" s="21"/>
+      <c r="M91" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="1">
+        <v>19244</v>
+      </c>
+      <c r="O91" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P91" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="S91" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19">
+      <c r="B92" s="26"/>
       <c r="C92">
         <v>89</v>
       </c>
@@ -4511,12 +5093,24 @@
       <c r="F92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="O92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="2:18">
-      <c r="B93" s="21"/>
+      <c r="M92" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="1">
+        <v>21891</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P92" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="S92" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19">
+      <c r="B93" s="26"/>
       <c r="C93">
         <v>90</v>
       </c>
@@ -4526,12 +5120,21 @@
       <c r="F93" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="O93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18">
-      <c r="B94" s="21"/>
+      <c r="M93" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O93" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19">
+      <c r="B94" s="26"/>
       <c r="C94">
         <v>91</v>
       </c>
@@ -4541,12 +5144,21 @@
       <c r="F94" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="2:18">
-      <c r="B95" s="23" t="s">
+      <c r="M94" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O94" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P94" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19">
+      <c r="B95" s="28" t="s">
         <v>199</v>
       </c>
       <c r="C95">
@@ -4558,12 +5170,24 @@
       <c r="F95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="2:18">
-      <c r="B96" s="23"/>
+      <c r="M95" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O95" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P95" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="S95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19">
+      <c r="B96" s="28"/>
       <c r="C96">
         <v>93</v>
       </c>
@@ -4573,12 +5197,21 @@
       <c r="F96" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="B97" s="21" t="s">
+      <c r="M96" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P96" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="B97" s="26" t="s">
         <v>204</v>
       </c>
       <c r="C97">
@@ -4590,12 +5223,21 @@
       <c r="F97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="B98" s="21"/>
+      <c r="M97" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O97" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P97" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="B98" s="26"/>
       <c r="C98">
         <v>95</v>
       </c>
@@ -4605,15 +5247,24 @@
       <c r="F98" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="O98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="M98" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P98" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="21"/>
+      <c r="B99" s="26"/>
       <c r="C99">
         <v>96</v>
       </c>
@@ -4623,12 +5274,21 @@
       <c r="F99" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="O99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="B100" s="22" t="s">
+      <c r="M99" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O99" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P99" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="B100" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C100">
@@ -4640,27 +5300,51 @@
       <c r="F100" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="O100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
-      <c r="B101" s="22"/>
+      <c r="M100" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P100" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="B101" s="27"/>
       <c r="C101">
         <v>98</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="E101" s="3" t="s">
+        <v>337</v>
+      </c>
       <c r="F101" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="B102" s="22"/>
+      <c r="M101" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O101" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B102" s="27"/>
       <c r="C102">
         <v>99</v>
       </c>
@@ -4670,12 +5354,24 @@
       <c r="F102" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="O102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="B103" s="21" t="s">
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O102" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P102" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="B103" s="26" t="s">
         <v>213</v>
       </c>
       <c r="C103">
@@ -4688,23 +5384,34 @@
       <c r="F103" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s">
-        <v>17</v>
-      </c>
-      <c r="P103" s="2"/>
+      <c r="M103" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N103" s="14">
+        <v>26911</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P103" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="B104" s="21"/>
+      <c r="S103" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="B104" s="26"/>
       <c r="C104">
         <v>101</v>
       </c>
@@ -4714,8 +5421,20 @@
       <c r="F104" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="O104" t="s">
-        <v>17</v>
+      <c r="G104" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O104" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="4:19">
@@ -4729,7 +5448,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="13"/>
-      <c r="N113" s="2"/>
+      <c r="N113" s="23"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -4758,11 +5477,22 @@
     <mergeCell ref="B100:B102"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:O3">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P104">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N104">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4789,17 +5519,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="C2" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
         <v>265</v>
-      </c>
-      <c r="D3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -4807,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -4815,7 +5545,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="3:4">
@@ -4823,7 +5553,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -4831,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -4839,7 +5569,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -4847,7 +5577,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="3:4">
@@ -4855,7 +5585,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -4863,7 +5593,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -4871,7 +5601,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -4879,7 +5609,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4903,7 +5633,7 @@
   <dimension ref="C2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4913,17 +5643,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="3:4">
@@ -5028,7 +5758,7 @@
   <dimension ref="A2:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="P4" sqref="P4:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5131,11 +5861,11 @@
         <v>17</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="27"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -5161,11 +5891,11 @@
         <v>17</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -5191,14 +5921,14 @@
         <v>17</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>318</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -5224,11 +5954,11 @@
         <v>17</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>284</v>
       </c>
       <c r="C8" s="12">
@@ -5256,7 +5986,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -5285,7 +6015,7 @@
         <v>17</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5317,7 +6047,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -5349,7 +6079,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -5381,7 +6111,7 @@
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5410,27 +6140,26 @@
         <v>17</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -5444,10 +6173,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R13"/>
+  <dimension ref="A3:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5457,12 +6186,12 @@
     <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13" style="12" customWidth="1"/>
-    <col min="16" max="18" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="12" customWidth="1"/>
+    <col min="17" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18">
+    <row r="3" spans="1:18">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -5512,8 +6241,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>284</v>
       </c>
       <c r="C4" s="12">
@@ -5534,185 +6266,319 @@
       <c r="M4" s="12" t="s">
         <v>214</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="O4" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:18">
+      <c r="P4" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
       <c r="B5" t="s">
         <v>283</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="22" t="s">
         <v>291</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>214</v>
       </c>
+      <c r="N5" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="P5" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>325</v>
+      </c>
       <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>302</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" t="s">
         <v>303</v>
       </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
       <c r="M6" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="O6" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="P6" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
       </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" t="s">
         <v>304</v>
       </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="M7" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="O7" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="P7" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="C8" s="12">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>305</v>
       </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" t="s">
         <v>306</v>
       </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
       <c r="M8" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="O8" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="P8" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
       <c r="C9" s="12">
         <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
       </c>
+      <c r="E9" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" t="s">
         <v>307</v>
       </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="M9" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="O9" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="P9" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="C10" s="12">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>308</v>
       </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" t="s">
         <v>309</v>
       </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
       <c r="M10" s="12" t="s">
         <v>214</v>
       </c>
+      <c r="N10" s="1">
+        <v>17594</v>
+      </c>
       <c r="O10" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="P10" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="C11" s="12">
         <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>196</v>
       </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" t="s">
         <v>310</v>
       </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
       <c r="M11" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="O11" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="P11" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="C12" s="12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>311</v>
       </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" t="s">
         <v>312</v>
       </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
       <c r="M12" s="12" t="s">
         <v>214</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="P12" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
       <c r="C13" s="12">
         <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>313</v>
       </c>
+      <c r="E13" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" t="s">
         <v>314</v>
       </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="M13" s="12" t="s">
-        <v>19</v>
+        <v>214</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="P13" s="12" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+  <conditionalFormatting sqref="O3 N9:N1048576 N7">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N6">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
-    <sheet name="Musico" sheetId="2" r:id="rId2"/>
-    <sheet name="Orquesta" sheetId="3" r:id="rId3"/>
+    <sheet name="Orquesta" sheetId="3" r:id="rId2"/>
+    <sheet name="Musico" sheetId="2" r:id="rId3"/>
     <sheet name="DirOrq" sheetId="4" r:id="rId4"/>
     <sheet name="Director" sheetId="5" r:id="rId5"/>
     <sheet name="Escenografo" sheetId="6" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="382">
   <si>
     <t>idDirector</t>
   </si>
@@ -695,18 +695,6 @@
     <t>barenboim</t>
   </si>
   <si>
-    <t xml:space="preserve"> Argentino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Israelí</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Español</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Palestino</t>
-  </si>
-  <si>
     <t>buenos aires argentina</t>
   </si>
   <si>
@@ -872,9 +860,6 @@
     <t>Columna1</t>
   </si>
   <si>
-    <t>ORQUESTA_DIRECTOR</t>
-  </si>
-  <si>
     <t>la boheme</t>
   </si>
   <si>
@@ -1053,6 +1038,138 @@
   </si>
   <si>
     <t>london</t>
+  </si>
+  <si>
+    <t>227 south 18th street</t>
+  </si>
+  <si>
+    <t>hauptstrasse 67, 4415</t>
+  </si>
+  <si>
+    <t>stresemannstrabe 76, 10963</t>
+  </si>
+  <si>
+    <t>stresemannstrabe 8 40210</t>
+  </si>
+  <si>
+    <t>stureplan 2, 114 46</t>
+  </si>
+  <si>
+    <t>keizersgracht 312, 1016</t>
+  </si>
+  <si>
+    <t>20 mercer street</t>
+  </si>
+  <si>
+    <t>160 piccadilly</t>
+  </si>
+  <si>
+    <t>26 saint john street</t>
+  </si>
+  <si>
+    <t>21 new globe walk, bankside</t>
+  </si>
+  <si>
+    <t>12 saint george street</t>
+  </si>
+  <si>
+    <t>35 maiden lane</t>
+  </si>
+  <si>
+    <t>NACIONALIDAD DIR ORQUESTA</t>
+  </si>
+  <si>
+    <t>pkNacionalidad</t>
+  </si>
+  <si>
+    <t>pkDirOrq</t>
+  </si>
+  <si>
+    <t>invitado</t>
+  </si>
+  <si>
+    <t>30/12/1954</t>
+  </si>
+  <si>
+    <t>fecha inicio</t>
+  </si>
+  <si>
+    <t>fecha fin</t>
+  </si>
+  <si>
+    <t>25/12/2012</t>
+  </si>
+  <si>
+    <t>DM_ORQUESTA</t>
+  </si>
+  <si>
+    <t>14/07/2005</t>
+  </si>
+  <si>
+    <t>sinfónica de pittsburgh</t>
+  </si>
+  <si>
+    <t>formato mal</t>
+  </si>
+  <si>
+    <t>orquesta filarmónica de oslo</t>
+  </si>
+  <si>
+    <t>deutsche kammerphilharmonie bremen</t>
+  </si>
+  <si>
+    <t>13/05/2006</t>
+  </si>
+  <si>
+    <t>orquesta de la age of enlightenment</t>
+  </si>
+  <si>
+    <t>orquesta filarmónica de roterdam</t>
+  </si>
+  <si>
+    <t>23/09/2006</t>
+  </si>
+  <si>
+    <t>orquesta sinfónica de baltimore</t>
+  </si>
+  <si>
+    <t>orchestra sinfonica nazionale della rai</t>
+  </si>
+  <si>
+    <t>13/07/2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rundfunk-sinfonieorchester </t>
+  </si>
+  <si>
+    <t>23/09/1994</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>orquesta filarmónica de brooklyn</t>
+  </si>
+  <si>
+    <t>20/09/1996</t>
+  </si>
+  <si>
+    <t>orquesta de paris</t>
+  </si>
+  <si>
+    <t>orquesta sinfonica de chicago</t>
+  </si>
+  <si>
+    <t>20/11/1991</t>
+  </si>
+  <si>
+    <t>17/06/2006</t>
+  </si>
+  <si>
+    <t>new york city opera</t>
+  </si>
+  <si>
+    <t>orquesta de la academia de santa cecilia romana</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1112,6 +1229,27 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF6FCF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1149,43 +1287,43 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="299">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1485,8 +1623,156 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,9 +1805,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1553,8 +1836,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="299">
+  <cellStyles count="447">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1704,6 +2028,80 @@
     <cellStyle name="Hipervínculo" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1853,9 +2251,83 @@
     <cellStyle name="Hipervínculo visitado" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="52">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1865,52 +2337,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1963,20 +2389,14 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2009,11 +2429,146 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -2066,16 +2621,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -2095,90 +2640,68 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:R19" totalsRowShown="0">
-  <autoFilter ref="C3:R19"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:Q19" totalsRowShown="0">
+  <autoFilter ref="C3:Q19"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="idDirector" dataDxfId="51"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="38"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="50"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido" dataDxfId="37"/>
-    <tableColumn id="6" name="telf1"/>
-    <tableColumn id="7" name="telf2"/>
-    <tableColumn id="8" name="telf3"/>
-    <tableColumn id="9" name="telf4"/>
-    <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="36"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="35"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="34"/>
-    <tableColumn id="14" name="foto" dataDxfId="33"/>
-    <tableColumn id="15" name="fkLugar" dataDxfId="32"/>
+    <tableColumn id="5" name="segundo apellido" dataDxfId="26"/>
+    <tableColumn id="6" name="telf1" dataDxfId="25">
+      <calculatedColumnFormula>RANDBETWEEN(1111111111,9999999999)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="telf2" dataDxfId="24"/>
+    <tableColumn id="8" name="telf3" dataDxfId="22"/>
+    <tableColumn id="11" name="sexo" dataDxfId="23"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="49"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="48"/>
+    <tableColumn id="14" name="foto" dataDxfId="47"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="46"/>
     <tableColumn id="16" name="detalleDireccion"/>
+    <tableColumn id="9" name="invitado" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:R104" totalsRowShown="0">
-  <autoFilter ref="C3:R104"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="30"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="29"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="28"/>
-    <tableColumn id="5" name="segundo apellido"/>
-    <tableColumn id="6" name="telf1"/>
-    <tableColumn id="7" name="telf2"/>
-    <tableColumn id="8" name="telf3"/>
-    <tableColumn id="9" name="telf4"/>
-    <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="27"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="26"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="25"/>
-    <tableColumn id="14" name="foto" dataDxfId="24"/>
-    <tableColumn id="15" name="fkLugar"/>
-    <tableColumn id="16" name="detalleDireccion"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C24:D42" totalsRowShown="0">
+  <autoFilter ref="C24:D42"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="pkNacionalidad" dataDxfId="28"/>
+    <tableColumn id="2" name="pkDirOrq" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C3:D13" totalsRowShown="0">
-  <autoFilter ref="C3:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C49:F74" totalsRowShown="0">
+  <autoFilter ref="C49:F74"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="pkOrquesta" dataDxfId="20">
+      <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="19">
+      <calculatedColumnFormula>(DirectorOquesta!C10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="fecha inicio" dataDxfId="17"/>
+    <tableColumn id="4" name="fecha fin" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C3:D29" totalsRowShown="0">
+  <autoFilter ref="C3:D29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="nombre"/>
@@ -2187,26 +2710,36 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C3:D11" totalsRowShown="0">
-  <autoFilter ref="C3:D11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="pkOrquesta" dataDxfId="23">
-      <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="22">
-      <calculatedColumnFormula>(DirectorOquesta!C10)</calculatedColumnFormula>
-    </tableColumn>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:R104" totalsRowShown="0">
+  <autoFilter ref="C3:R104"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="idDirector"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="45"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="44"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="43"/>
+    <tableColumn id="5" name="segundo apellido"/>
+    <tableColumn id="6" name="telf1"/>
+    <tableColumn id="7" name="telf2"/>
+    <tableColumn id="8" name="telf3"/>
+    <tableColumn id="9" name="telf4"/>
+    <tableColumn id="10" name="telf5"/>
+    <tableColumn id="11" name="sexo" dataDxfId="42"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="41"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="40"/>
+    <tableColumn id="14" name="foto" dataDxfId="39"/>
+    <tableColumn id="15" name="fkLugar"/>
+    <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="18"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="38"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2216,10 +2749,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="17"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="16"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="15"/>
-    <tableColumn id="14" name="foto" dataDxfId="14"/>
+    <tableColumn id="11" name="sexo" dataDxfId="37"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="36"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="35"/>
+    <tableColumn id="14" name="foto" dataDxfId="34"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2227,11 +2760,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="8"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="33"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2241,10 +2774,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="7"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="6"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="5"/>
-    <tableColumn id="14" name="foto" dataDxfId="4"/>
+    <tableColumn id="11" name="sexo" dataDxfId="32"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="31"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="30"/>
+    <tableColumn id="14" name="foto" dataDxfId="29"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2574,50 +3107,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U19"/>
+  <dimension ref="A2:S74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="12" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="15" style="12" customWidth="1"/>
-    <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="1" customWidth="1"/>
-    <col min="16" max="17" width="13" style="12" customWidth="1"/>
-    <col min="18" max="18" width="29.83203125" customWidth="1"/>
+    <col min="8" max="10" width="12" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="15" width="13" style="12" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
-      <c r="C2" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="1:21">
+    <row r="2" spans="1:19">
+      <c r="C2" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -2633,42 +3165,39 @@
       <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
       <c r="Q3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="B4" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="22" t="s">
         <v>215</v>
       </c>
       <c r="C4" s="12">
@@ -2686,30 +3215,45 @@
       <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="H4" s="12">
+        <v>2057707371</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2616582140</v>
+      </c>
+      <c r="J4" s="12">
+        <v>6569806270</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="1">
         <v>24996</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>261</v>
+      <c r="N4" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O4" s="12">
+        <v>187</v>
+      </c>
+      <c r="P4" t="s">
+        <v>349</v>
       </c>
       <c r="Q4" s="12">
-        <v>187</v>
-      </c>
-      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>1946</v>
       </c>
-      <c r="U4">
+      <c r="S4">
         <v>1951</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:19">
+      <c r="B5" s="22"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
@@ -2725,30 +3269,45 @@
       <c r="G5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="H5" s="12">
+        <v>9079300267</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3262833991</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6087096829</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="1">
+      <c r="M5" s="1">
         <v>35376</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>261</v>
+      <c r="N5" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O5" s="12">
+        <v>187</v>
+      </c>
+      <c r="P5" t="s">
+        <v>348</v>
       </c>
       <c r="Q5" s="12">
-        <v>187</v>
-      </c>
-      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>1955</v>
       </c>
-      <c r="U5">
+      <c r="S5">
         <v>1958</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:19">
+      <c r="B6" s="22"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -2764,30 +3323,45 @@
       <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="H6" s="12">
+        <v>5037537644</v>
+      </c>
+      <c r="I6" s="12">
+        <v>8949718432</v>
+      </c>
+      <c r="J6" s="12">
+        <v>5221469215</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="1">
+      <c r="M6" s="1">
         <v>35559</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>261</v>
+      <c r="N6" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O6" s="12">
+        <v>187</v>
+      </c>
+      <c r="P6" t="s">
+        <v>347</v>
       </c>
       <c r="Q6" s="12">
-        <v>187</v>
-      </c>
-      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>1961</v>
       </c>
-      <c r="U6">
+      <c r="S6">
         <v>1971</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:19">
+      <c r="B7" s="22"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -2803,30 +3377,45 @@
       <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="H7" s="12">
+        <v>1762155356</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1829272720</v>
+      </c>
+      <c r="J7" s="12">
+        <v>8830266879</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>261</v>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O7" s="12">
+        <v>187</v>
+      </c>
+      <c r="P7" t="s">
+        <v>346</v>
       </c>
       <c r="Q7" s="12">
-        <v>187</v>
-      </c>
-      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>1971</v>
       </c>
-      <c r="U7">
+      <c r="S7">
         <v>1987</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="B8" s="25"/>
+    <row r="8" spans="1:19">
+      <c r="B8" s="22"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -2842,30 +3431,45 @@
       <c r="G8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="H8" s="12">
+        <v>1736790212</v>
+      </c>
+      <c r="I8" s="12">
+        <v>9100192387</v>
+      </c>
+      <c r="J8" s="12">
+        <v>8421589888</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="1">
+      <c r="L8" s="1">
         <v>10686</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>261</v>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O8" s="12">
+        <v>187</v>
+      </c>
+      <c r="P8" t="s">
+        <v>345</v>
       </c>
       <c r="Q8" s="12">
-        <v>187</v>
-      </c>
-      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>1987</v>
       </c>
-      <c r="U8">
+      <c r="S8">
         <v>2002</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:19">
+      <c r="B9" s="22"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -2881,36 +3485,51 @@
       <c r="G9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="H9" s="12">
+        <v>1478544180</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1834258385</v>
+      </c>
+      <c r="J9" s="12">
+        <v>7312815034</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>261</v>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O9" s="12">
+        <v>187</v>
+      </c>
+      <c r="P9" t="s">
+        <v>344</v>
       </c>
       <c r="Q9" s="12">
-        <v>187</v>
-      </c>
-      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>2002</v>
       </c>
-      <c r="U9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="S9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C10" s="12">
+        <v>259</v>
+      </c>
+      <c r="C10" s="36">
         <v>7</v>
       </c>
       <c r="D10" t="s">
@@ -2925,33 +3544,51 @@
       <c r="G10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="H10" s="12">
+        <v>746864605</v>
+      </c>
+      <c r="I10" s="12">
+        <v>157246682</v>
+      </c>
+      <c r="J10" s="12">
+        <v>277289797</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>261</v>
+      <c r="L10" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O10" s="12">
+        <v>219</v>
+      </c>
+      <c r="P10" t="s">
+        <v>271</v>
       </c>
       <c r="Q10" s="12">
-        <v>219</v>
-      </c>
-      <c r="R10" t="s">
-        <v>275</v>
-      </c>
-      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <v>2010</v>
       </c>
-      <c r="U10">
+      <c r="S10">
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="45">
+    <row r="11" spans="1:19" ht="45">
       <c r="A11" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="36">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -2966,36 +3603,46 @@
       <c r="G11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="H11" s="12">
+        <v>370292784</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>261</v>
+      <c r="M11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O11" s="12">
+        <v>207</v>
+      </c>
+      <c r="P11" t="s">
+        <v>272</v>
       </c>
       <c r="Q11" s="12">
-        <v>207</v>
-      </c>
-      <c r="R11" t="s">
-        <v>276</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="12">
+        <v>226</v>
+      </c>
+      <c r="C12" s="36">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -3005,41 +3652,51 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="H12" s="12">
+        <v>561405696</v>
+      </c>
+      <c r="I12" s="12">
+        <v>932614482</v>
+      </c>
+      <c r="J12" s="12">
+        <v>175725363</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="1">
+      <c r="L12" s="1">
         <v>22467</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>261</v>
+      <c r="M12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O12" s="12">
+        <v>203</v>
+      </c>
+      <c r="P12" t="s">
+        <v>273</v>
       </c>
       <c r="Q12" s="12">
-        <v>203</v>
-      </c>
-      <c r="R12" t="s">
-        <v>277</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="45">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="45">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C13" s="12">
+        <v>230</v>
+      </c>
+      <c r="C13" s="36">
         <v>10</v>
       </c>
       <c r="D13" t="s">
@@ -3049,41 +3706,51 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="M13" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="12">
+        <v>498949670</v>
+      </c>
+      <c r="I13" s="12">
+        <v>147501438</v>
+      </c>
+      <c r="J13" s="12">
+        <v>687448377</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O13" s="12">
+        <v>221</v>
+      </c>
+      <c r="P13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
         <v>233</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>221</v>
-      </c>
-      <c r="R13" t="s">
-        <v>278</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>237</v>
-      </c>
       <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="12">
+        <v>234</v>
+      </c>
+      <c r="C14" s="36">
         <v>11</v>
       </c>
       <c r="D14" t="s">
@@ -3093,137 +3760,207 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="12">
+        <v>729175687</v>
+      </c>
+      <c r="I14" s="12">
+        <v>435814796</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13400</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O14" s="12">
+        <v>240</v>
+      </c>
+      <c r="P14" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="36">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="E15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="12">
+        <v>692577971</v>
+      </c>
+      <c r="I15" s="12">
+        <v>370410006</v>
+      </c>
+      <c r="J15" s="12">
+        <v>982748187</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="1">
-        <v>13400</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
+      <c r="L15" s="1">
+        <v>27548</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O15" s="12">
         <v>242</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="P15" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="12">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C16" s="37">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="E16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="12">
+        <v>793843361</v>
+      </c>
+      <c r="I16" s="12">
+        <v>602975691</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="1">
-        <v>27548</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30">
-      <c r="A16" t="s">
+      <c r="L16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O16" s="12">
         <v>244</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="12">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="P16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="36">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="12">
+        <v>711609718</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="B17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="12">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="M17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O17" s="12">
+        <v>245</v>
+      </c>
+      <c r="P17" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
         <v>250</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="C18" s="36">
         <v>15</v>
       </c>
       <c r="D18" t="s">
@@ -3233,82 +3970,948 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="12">
+        <v>37141335</v>
+      </c>
+      <c r="I18" s="12">
+        <v>49451347</v>
+      </c>
+      <c r="J18" s="12">
+        <v>14546641</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" s="12">
+        <v>247</v>
+      </c>
+      <c r="P18" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="33">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="E19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="13">
+        <v>9701020675</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5820279893</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="L19" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="O19" s="13">
+        <v>249</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1"/>
+    <row r="23" spans="1:17" hidden="1">
+      <c r="C23" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" hidden="1">
+      <c r="C24" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1">
+      <c r="C25" s="12">
+        <v>65</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1">
+      <c r="C26" s="12">
+        <v>112</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1">
+      <c r="C27" s="12">
+        <v>130</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1">
+      <c r="C28" s="12">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1">
+      <c r="C29" s="12">
+        <v>41</v>
+      </c>
+      <c r="D29" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1">
+      <c r="C30" s="12">
+        <v>65</v>
+      </c>
+      <c r="D30" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1">
+      <c r="C31" s="12">
+        <v>10</v>
+      </c>
+      <c r="D31" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1">
+      <c r="C32" s="12">
+        <v>6</v>
+      </c>
+      <c r="D32" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" hidden="1">
+      <c r="C33" s="12">
+        <v>41</v>
+      </c>
+      <c r="D33" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" hidden="1">
+      <c r="C34" s="12">
+        <v>39</v>
+      </c>
+      <c r="D34" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" hidden="1">
+      <c r="C35" s="12">
+        <v>41</v>
+      </c>
+      <c r="D35" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" hidden="1">
+      <c r="C36" s="12">
+        <v>17</v>
+      </c>
+      <c r="D36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" hidden="1">
+      <c r="C37" s="12">
+        <v>128</v>
+      </c>
+      <c r="D37" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" hidden="1">
+      <c r="C38" s="12">
+        <v>65</v>
+      </c>
+      <c r="D38" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" hidden="1">
+      <c r="C39" s="12">
+        <v>65</v>
+      </c>
+      <c r="D39" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" hidden="1">
+      <c r="C40" s="12">
+        <v>78</v>
+      </c>
+      <c r="D40" s="13">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="13" t="s">
+    </row>
+    <row r="41" spans="3:6" hidden="1">
+      <c r="C41" s="12">
+        <v>39</v>
+      </c>
+      <c r="D41" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" hidden="1">
+      <c r="C42" s="12">
+        <v>69</v>
+      </c>
+      <c r="D42" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" hidden="1">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="3:6" hidden="1">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="E47" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F47" s="32"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="C49" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="34"/>
+      <c r="C50" s="12">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <f>(DirectorOquesta!C10)</f>
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>38446</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="34"/>
+      <c r="C51" s="12">
+        <v>2</v>
+      </c>
+      <c r="D51" s="12">
+        <f>(DirectorOquesta!C11)</f>
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>39692</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="34"/>
+      <c r="C52" s="12">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12">
+        <f>(DirectorOquesta!C12)</f>
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>38322</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="34"/>
+      <c r="C53" s="12">
+        <v>4</v>
+      </c>
+      <c r="D53" s="12">
+        <f>(DirectorOquesta!C13)</f>
+        <v>10</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="34"/>
+      <c r="C54" s="12">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12">
+        <f>(DirectorOquesta!C14)</f>
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>36161</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="35"/>
+      <c r="C55" s="12">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12">
+        <f>(DirectorOquesta!C15)</f>
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>40190</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="35"/>
+      <c r="C56" s="29">
+        <v>15</v>
+      </c>
+      <c r="D56" s="29">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="34"/>
+      <c r="C57" s="29">
+        <v>7</v>
+      </c>
+      <c r="D57" s="29">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1">
+        <v>38353</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="38"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="41"/>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="34"/>
+      <c r="C58" s="29">
+        <v>8</v>
+      </c>
+      <c r="D58" s="29">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1">
+        <v>37623</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="41"/>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="34"/>
+      <c r="C59" s="29">
+        <v>9</v>
+      </c>
+      <c r="D59" s="29">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1">
+        <v>37748</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="38"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="41"/>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="34"/>
+      <c r="C60" s="29">
+        <v>10</v>
+      </c>
+      <c r="D60" s="29">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1">
+        <v>37995</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="38"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="C61" s="29">
+        <v>11</v>
+      </c>
+      <c r="D61" s="29">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1">
+        <v>35068</v>
+      </c>
+      <c r="F61" s="1">
+        <v>37991</v>
+      </c>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="42"/>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="C62" s="29">
+        <v>12</v>
+      </c>
+      <c r="D62" s="29">
+        <v>16</v>
+      </c>
+      <c r="E62" s="1">
+        <v>28979</v>
+      </c>
+      <c r="F62" s="1">
+        <v>37320</v>
+      </c>
+      <c r="I62" s="38"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="42"/>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="C63" s="29">
+        <v>13</v>
+      </c>
+      <c r="D63" s="29">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1">
+        <v>35590</v>
+      </c>
+      <c r="F63" s="1">
+        <v>37722</v>
+      </c>
+      <c r="I63" s="38"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="42"/>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="C64" s="12">
+        <v>14</v>
+      </c>
+      <c r="D64" s="30">
+        <v>14</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="F64" s="14">
+        <v>39334</v>
+      </c>
+      <c r="I64" s="38"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="42"/>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="29">
+        <v>16</v>
+      </c>
+      <c r="D65" s="29">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>31354</v>
+      </c>
+      <c r="F65" s="1">
+        <v>36140</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66" s="29">
+        <v>15</v>
+      </c>
+      <c r="D66" s="29">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <v>29076</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30166</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="29">
+        <v>17</v>
+      </c>
+      <c r="D67" s="29">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F67" s="1">
+        <v>38698</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="29">
+        <v>18</v>
+      </c>
+      <c r="D68" s="29">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="29">
         <v>19</v>
       </c>
-      <c r="N19" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="2"/>
+      <c r="D69" s="29">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F69" s="1">
+        <v>38058</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="30">
+        <v>20</v>
+      </c>
+      <c r="D70" s="30">
+        <v>8</v>
+      </c>
+      <c r="E70" s="14">
+        <v>27709</v>
+      </c>
+      <c r="F70" s="14">
+        <v>32852</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="29">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="29">
+        <v>22</v>
+      </c>
+      <c r="D72" s="29">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" s="29">
+        <v>23</v>
+      </c>
+      <c r="D73" s="29">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:R2"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:P2"/>
     <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+  <conditionalFormatting sqref="L1:L56 L65:L1048576">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C42">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="H4:H12 H13:H19 C50:C55 C56:D64 C65:D68 C69:D69 C70:D70 C71:D71 C72:D73" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="31"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="31"/>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="31"/>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="31"/>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="31"/>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="31"/>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="31"/>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="31"/>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="31"/>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="31"/>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="2">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3320,12 +4923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3336,29 +4939,29 @@
     <col min="7" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13" style="21" customWidth="1"/>
+    <col min="14" max="14" width="13" style="18" customWidth="1"/>
     <col min="15" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="2:19">
       <c r="C3" t="s">
@@ -3410,11 +5013,11 @@
         <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C4">
@@ -3436,7 +5039,7 @@
       <c r="P4" s="12"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="30"/>
+      <c r="B5" s="27"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -3453,7 +5056,7 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="30"/>
+      <c r="B6" s="27"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -3470,7 +5073,7 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="30"/>
+      <c r="B7" s="27"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -3487,7 +5090,7 @@
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="30"/>
+      <c r="B8" s="27"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -3504,7 +5107,7 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="30"/>
+      <c r="B9" s="27"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -3521,7 +5124,7 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="30"/>
+      <c r="B10" s="27"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -3538,7 +5141,7 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="30"/>
+      <c r="B11" s="27"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -3555,7 +5158,7 @@
       <c r="P11" s="12"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="30"/>
+      <c r="B12" s="27"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -3572,7 +5175,7 @@
       <c r="P12" s="12"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="30"/>
+      <c r="B13" s="27"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -3589,7 +5192,7 @@
       <c r="P13" s="12"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="30"/>
+      <c r="B14" s="27"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -3606,7 +5209,7 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="30"/>
+      <c r="B15" s="27"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -3623,7 +5226,7 @@
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="30"/>
+      <c r="B16" s="27"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -3640,7 +5243,7 @@
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="30"/>
+      <c r="B17" s="27"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -3657,7 +5260,7 @@
       <c r="P17" s="12"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>88</v>
       </c>
       <c r="C18">
@@ -3676,7 +5279,7 @@
       <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="31"/>
+      <c r="B19" s="28"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -3693,7 +5296,7 @@
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="31"/>
+      <c r="B20" s="28"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -3710,7 +5313,7 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="31"/>
+      <c r="B21" s="28"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -3727,7 +5330,7 @@
       <c r="P21" s="12"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="31"/>
+      <c r="B22" s="28"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -3744,7 +5347,7 @@
       <c r="P22" s="12"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="31"/>
+      <c r="B23" s="28"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -3761,7 +5364,7 @@
       <c r="P23" s="12"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="31"/>
+      <c r="B24" s="28"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -3778,7 +5381,7 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="31"/>
+      <c r="B25" s="28"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -3805,7 +5408,7 @@
       <c r="R25" s="2"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="31"/>
+      <c r="B26" s="28"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -3822,7 +5425,7 @@
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="31"/>
+      <c r="B27" s="28"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -3839,7 +5442,7 @@
       <c r="P27" s="12"/>
     </row>
     <row r="28" spans="2:18">
-      <c r="B28" s="31"/>
+      <c r="B28" s="28"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -3866,7 +5469,7 @@
       <c r="R28" s="2"/>
     </row>
     <row r="29" spans="2:18">
-      <c r="B29" s="31"/>
+      <c r="B29" s="28"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -3893,7 +5496,7 @@
       <c r="R29" s="2"/>
     </row>
     <row r="30" spans="2:18">
-      <c r="B30" s="31"/>
+      <c r="B30" s="28"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -3920,7 +5523,7 @@
       <c r="R30" s="2"/>
     </row>
     <row r="31" spans="2:18">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C31">
@@ -3939,7 +5542,7 @@
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="2:18">
-      <c r="B32" s="27"/>
+      <c r="B32" s="24"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -3956,7 +5559,7 @@
       <c r="P32" s="12"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="27"/>
+      <c r="B33" s="24"/>
       <c r="C33">
         <v>30</v>
       </c>
@@ -3973,7 +5576,7 @@
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="27"/>
+      <c r="B34" s="24"/>
       <c r="C34">
         <v>31</v>
       </c>
@@ -3990,7 +5593,7 @@
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="27"/>
+      <c r="B35" s="24"/>
       <c r="C35">
         <v>32</v>
       </c>
@@ -4007,7 +5610,7 @@
       <c r="P35" s="12"/>
     </row>
     <row r="36" spans="2:16">
-      <c r="B36" s="27"/>
+      <c r="B36" s="24"/>
       <c r="C36">
         <v>33</v>
       </c>
@@ -4024,7 +5627,7 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="2:16">
-      <c r="B37" s="27"/>
+      <c r="B37" s="24"/>
       <c r="C37">
         <v>34</v>
       </c>
@@ -4041,7 +5644,7 @@
       <c r="P37" s="12"/>
     </row>
     <row r="38" spans="2:16">
-      <c r="B38" s="27"/>
+      <c r="B38" s="24"/>
       <c r="C38">
         <v>35</v>
       </c>
@@ -4058,7 +5661,7 @@
       <c r="P38" s="12"/>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="27"/>
+      <c r="B39" s="24"/>
       <c r="C39">
         <v>36</v>
       </c>
@@ -4075,7 +5678,7 @@
       <c r="P39" s="12"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="B40" s="27"/>
+      <c r="B40" s="24"/>
       <c r="C40">
         <v>37</v>
       </c>
@@ -4092,7 +5695,7 @@
       <c r="P40" s="12"/>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="27"/>
+      <c r="B41" s="24"/>
       <c r="C41">
         <v>38</v>
       </c>
@@ -4109,7 +5712,7 @@
       <c r="P41" s="12"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="27"/>
+      <c r="B42" s="24"/>
       <c r="C42">
         <v>39</v>
       </c>
@@ -4126,7 +5729,7 @@
       <c r="P42" s="12"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="23" t="s">
         <v>126</v>
       </c>
       <c r="C43">
@@ -4145,7 +5748,7 @@
       <c r="P43" s="12"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" s="26"/>
+      <c r="B44" s="23"/>
       <c r="C44">
         <v>41</v>
       </c>
@@ -4162,7 +5765,7 @@
       <c r="P44" s="12"/>
     </row>
     <row r="45" spans="2:16">
-      <c r="B45" s="26"/>
+      <c r="B45" s="23"/>
       <c r="C45">
         <v>42</v>
       </c>
@@ -4179,7 +5782,7 @@
       <c r="P45" s="12"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="B46" s="26"/>
+      <c r="B46" s="23"/>
       <c r="C46">
         <v>43</v>
       </c>
@@ -4196,7 +5799,7 @@
       <c r="P46" s="12"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="B47" s="26"/>
+      <c r="B47" s="23"/>
       <c r="C47">
         <v>44</v>
       </c>
@@ -4213,7 +5816,7 @@
       <c r="P47" s="12"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="B48" s="26"/>
+      <c r="B48" s="23"/>
       <c r="C48">
         <v>45</v>
       </c>
@@ -4230,7 +5833,7 @@
       <c r="P48" s="12"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="B49" s="26"/>
+      <c r="B49" s="23"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -4247,7 +5850,7 @@
       <c r="P49" s="12"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="B50" s="26"/>
+      <c r="B50" s="23"/>
       <c r="C50">
         <v>47</v>
       </c>
@@ -4264,7 +5867,7 @@
       <c r="P50" s="12"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="B51" s="26"/>
+      <c r="B51" s="23"/>
       <c r="C51">
         <v>48</v>
       </c>
@@ -4281,7 +5884,7 @@
       <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="B52" s="26"/>
+      <c r="B52" s="23"/>
       <c r="C52">
         <v>49</v>
       </c>
@@ -4308,7 +5911,7 @@
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="24" t="s">
         <v>139</v>
       </c>
       <c r="C53">
@@ -4327,7 +5930,7 @@
       <c r="P53" s="12"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="B54" s="27"/>
+      <c r="B54" s="24"/>
       <c r="C54">
         <v>51</v>
       </c>
@@ -4344,7 +5947,7 @@
       <c r="P54" s="12"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="B55" s="27"/>
+      <c r="B55" s="24"/>
       <c r="C55">
         <v>52</v>
       </c>
@@ -4361,7 +5964,7 @@
       <c r="P55" s="12"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="B56" s="27"/>
+      <c r="B56" s="24"/>
       <c r="C56">
         <v>53</v>
       </c>
@@ -4378,7 +5981,7 @@
       <c r="P56" s="12"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="B57" s="27"/>
+      <c r="B57" s="24"/>
       <c r="C57">
         <v>54</v>
       </c>
@@ -4395,7 +5998,7 @@
       <c r="P57" s="12"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="B58" s="27"/>
+      <c r="B58" s="24"/>
       <c r="C58">
         <v>55</v>
       </c>
@@ -4412,7 +6015,7 @@
       <c r="P58" s="12"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="B59" s="27"/>
+      <c r="B59" s="24"/>
       <c r="C59">
         <v>56</v>
       </c>
@@ -4429,7 +6032,7 @@
       <c r="P59" s="12"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="B60" s="27"/>
+      <c r="B60" s="24"/>
       <c r="C60">
         <v>57</v>
       </c>
@@ -4446,7 +6049,7 @@
       <c r="P60" s="12"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="23" t="s">
         <v>146</v>
       </c>
       <c r="C61">
@@ -4465,7 +6068,7 @@
       <c r="P61" s="12"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="B62" s="26"/>
+      <c r="B62" s="23"/>
       <c r="C62">
         <v>59</v>
       </c>
@@ -4482,7 +6085,7 @@
       <c r="P62" s="12"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="B63" s="26"/>
+      <c r="B63" s="23"/>
       <c r="C63">
         <v>60</v>
       </c>
@@ -4499,10 +6102,10 @@
       <c r="P63" s="12"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="26"/>
+      <c r="B64" s="23"/>
       <c r="C64">
         <v>61</v>
       </c>
@@ -4519,8 +6122,8 @@
       <c r="P64" s="12"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="29"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="23"/>
       <c r="C65">
         <v>62</v>
       </c>
@@ -4547,7 +6150,7 @@
       <c r="R65" s="2"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="24" t="s">
         <v>155</v>
       </c>
       <c r="C66">
@@ -4566,7 +6169,7 @@
       <c r="P66" s="12"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="B67" s="27"/>
+      <c r="B67" s="24"/>
       <c r="C67">
         <v>64</v>
       </c>
@@ -4583,7 +6186,7 @@
       <c r="P67" s="12"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="B68" s="27"/>
+      <c r="B68" s="24"/>
       <c r="C68">
         <v>65</v>
       </c>
@@ -4610,7 +6213,7 @@
       <c r="R68" s="2"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="B69" s="27"/>
+      <c r="B69" s="24"/>
       <c r="C69">
         <v>66</v>
       </c>
@@ -4630,7 +6233,7 @@
       <c r="A70" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="27"/>
+      <c r="B70" s="24"/>
       <c r="C70">
         <v>67</v>
       </c>
@@ -4647,7 +6250,7 @@
       <c r="P70" s="12"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="23" t="s">
         <v>164</v>
       </c>
       <c r="C71">
@@ -4666,7 +6269,7 @@
       <c r="P71" s="12"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="B72" s="26"/>
+      <c r="B72" s="23"/>
       <c r="C72">
         <v>69</v>
       </c>
@@ -4683,7 +6286,7 @@
       <c r="P72" s="12"/>
     </row>
     <row r="73" spans="1:18">
-      <c r="B73" s="26"/>
+      <c r="B73" s="23"/>
       <c r="C73">
         <v>70</v>
       </c>
@@ -4713,7 +6316,7 @@
       <c r="A74" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="26"/>
+      <c r="B74" s="23"/>
       <c r="C74">
         <v>71</v>
       </c>
@@ -4730,7 +6333,7 @@
       <c r="P74" s="12"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="24" t="s">
         <v>172</v>
       </c>
       <c r="C75">
@@ -4749,7 +6352,7 @@
       <c r="P75" s="12"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="B76" s="27"/>
+      <c r="B76" s="24"/>
       <c r="C76">
         <v>73</v>
       </c>
@@ -4766,7 +6369,7 @@
       <c r="P76" s="12"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="B77" s="27"/>
+      <c r="B77" s="24"/>
       <c r="C77">
         <v>74</v>
       </c>
@@ -4786,7 +6389,7 @@
       <c r="A78" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="27"/>
+      <c r="B78" s="24"/>
       <c r="C78">
         <v>75</v>
       </c>
@@ -4813,7 +6416,7 @@
       <c r="R78" s="2"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="23" t="s">
         <v>182</v>
       </c>
       <c r="C79">
@@ -4832,7 +6435,7 @@
       <c r="P79" s="12"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="B80" s="26"/>
+      <c r="B80" s="23"/>
       <c r="C80">
         <v>77</v>
       </c>
@@ -4849,7 +6452,7 @@
       <c r="P80" s="12"/>
     </row>
     <row r="81" spans="2:19">
-      <c r="B81" s="26"/>
+      <c r="B81" s="23"/>
       <c r="C81">
         <v>78</v>
       </c>
@@ -4866,7 +6469,7 @@
       <c r="P81" s="12"/>
     </row>
     <row r="82" spans="2:19">
-      <c r="B82" s="26"/>
+      <c r="B82" s="23"/>
       <c r="C82">
         <v>79</v>
       </c>
@@ -4883,7 +6486,7 @@
       <c r="P82" s="12"/>
     </row>
     <row r="83" spans="2:19">
-      <c r="B83" s="26"/>
+      <c r="B83" s="23"/>
       <c r="C83">
         <v>80</v>
       </c>
@@ -4900,7 +6503,7 @@
       <c r="P83" s="12"/>
     </row>
     <row r="84" spans="2:19">
-      <c r="B84" s="26"/>
+      <c r="B84" s="23"/>
       <c r="C84">
         <v>81</v>
       </c>
@@ -4917,7 +6520,7 @@
       <c r="P84" s="12"/>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" s="26"/>
+      <c r="B85" s="23"/>
       <c r="C85">
         <v>82</v>
       </c>
@@ -4934,7 +6537,7 @@
       <c r="P85" s="12"/>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="24" t="s">
         <v>187</v>
       </c>
       <c r="C86">
@@ -4963,7 +6566,7 @@
       <c r="R86" s="2"/>
     </row>
     <row r="87" spans="2:19">
-      <c r="B87" s="27"/>
+      <c r="B87" s="24"/>
       <c r="C87">
         <v>84</v>
       </c>
@@ -4980,7 +6583,7 @@
       <c r="P87" s="12"/>
     </row>
     <row r="88" spans="2:19">
-      <c r="B88" s="27"/>
+      <c r="B88" s="24"/>
       <c r="C88">
         <v>85</v>
       </c>
@@ -4997,7 +6600,7 @@
       <c r="P88" s="12"/>
     </row>
     <row r="89" spans="2:19">
-      <c r="B89" s="27"/>
+      <c r="B89" s="24"/>
       <c r="C89">
         <v>86</v>
       </c>
@@ -5011,17 +6614,17 @@
         <v>19</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="2:19">
-      <c r="B90" s="27"/>
+      <c r="B90" s="24"/>
       <c r="C90">
         <v>87</v>
       </c>
@@ -5048,13 +6651,13 @@
         <v>17</v>
       </c>
       <c r="P90" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
     </row>
     <row r="91" spans="2:19">
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="23" t="s">
         <v>195</v>
       </c>
       <c r="C91">
@@ -5076,14 +6679,14 @@
         <v>17</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="S91" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="2:19">
-      <c r="B92" s="26"/>
+      <c r="B92" s="23"/>
       <c r="C92">
         <v>89</v>
       </c>
@@ -5103,14 +6706,14 @@
         <v>17</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="S92" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="2:19">
-      <c r="B93" s="26"/>
+      <c r="B93" s="23"/>
       <c r="C93">
         <v>90</v>
       </c>
@@ -5124,17 +6727,17 @@
         <v>19</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O93" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="2:19">
-      <c r="B94" s="26"/>
+      <c r="B94" s="23"/>
       <c r="C94">
         <v>91</v>
       </c>
@@ -5148,17 +6751,17 @@
         <v>19</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O94" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="2:19">
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="25" t="s">
         <v>199</v>
       </c>
       <c r="C95">
@@ -5174,20 +6777,20 @@
         <v>19</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O95" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="S95" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="2:19">
-      <c r="B96" s="28"/>
+      <c r="B96" s="25"/>
       <c r="C96">
         <v>93</v>
       </c>
@@ -5201,17 +6804,17 @@
         <v>19</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O96" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:19">
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C97">
@@ -5227,17 +6830,17 @@
         <v>19</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O97" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="98" spans="1:19">
-      <c r="B98" s="26"/>
+      <c r="B98" s="23"/>
       <c r="C98">
         <v>95</v>
       </c>
@@ -5251,20 +6854,20 @@
         <v>19</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O98" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="26"/>
+      <c r="B99" s="23"/>
       <c r="C99">
         <v>96</v>
       </c>
@@ -5278,17 +6881,17 @@
         <v>19</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O99" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="1:19">
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="24" t="s">
         <v>209</v>
       </c>
       <c r="C100">
@@ -5304,17 +6907,17 @@
         <v>214</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O100" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:19">
-      <c r="B101" s="27"/>
+      <c r="B101" s="24"/>
       <c r="C101">
         <v>98</v>
       </c>
@@ -5322,7 +6925,7 @@
         <v>103</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>207</v>
@@ -5331,20 +6934,20 @@
         <v>19</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B102" s="27"/>
+        <v>331</v>
+      </c>
+      <c r="B102" s="24"/>
       <c r="C102">
         <v>99</v>
       </c>
@@ -5361,17 +6964,17 @@
         <v>19</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O102" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:19">
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="23" t="s">
         <v>213</v>
       </c>
       <c r="C103">
@@ -5402,16 +7005,16 @@
         <v>17</v>
       </c>
       <c r="P103" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:19">
-      <c r="B104" s="26"/>
+      <c r="B104" s="23"/>
       <c r="C104">
         <v>101</v>
       </c>
@@ -5428,13 +7031,13 @@
         <v>214</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="O104" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="4:19">
@@ -5448,7 +7051,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="13"/>
-      <c r="N113" s="23"/>
+      <c r="N113" s="20"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -5477,17 +7080,17 @@
     <mergeCell ref="B100:B102"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:O3">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P104">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N104">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5504,136 +7107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D13"/>
+  <dimension ref="C1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:4">
-      <c r="C2" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D11" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5641,110 +7120,9 @@
     <col min="3" max="3" width="14.33203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="12" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="3:4">
-      <c r="C2" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="12">
-        <f>(Orquesta!C4)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <f>(DirectorOquesta!C10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="12">
-        <f>(Orquesta!C5)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="12">
-        <f>(DirectorOquesta!C11)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="12">
-        <f>(Orquesta!C6)</f>
-        <v>3</v>
-      </c>
-      <c r="D6" s="12">
-        <f>(DirectorOquesta!C12)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="12">
-        <f>(Orquesta!C7)</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="12">
-        <f>(DirectorOquesta!C13)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="12">
-        <f>(Orquesta!C8)</f>
-        <v>5</v>
-      </c>
-      <c r="D8" s="12">
-        <f>(DirectorOquesta!C14)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="12">
-        <f>(Orquesta!C9)</f>
-        <v>6</v>
-      </c>
-      <c r="D9" s="12">
-        <f>(DirectorOquesta!C15)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="12">
-        <f>(Orquesta!C10)</f>
-        <v>7</v>
-      </c>
-      <c r="D10" s="12">
-        <f>(DirectorOquesta!C16)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="12">
-        <f>(Orquesta!C11)</f>
-        <v>8</v>
-      </c>
-      <c r="D11" s="12">
-        <f>(DirectorOquesta!C17)</f>
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5758,7 +7136,7 @@
   <dimension ref="A2:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P13"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5776,7 +7154,7 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="N2" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -5831,22 +7209,22 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -5861,22 +7239,22 @@
         <v>17</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="19"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -5885,17 +7263,17 @@
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
@@ -5906,7 +7284,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -5915,31 +7293,31 @@
         <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="20"/>
+        <v>313</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -5954,24 +7332,24 @@
         <v>17</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="19" t="s">
-        <v>284</v>
+      <c r="B8" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C8" s="12">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -5986,7 +7364,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -6000,7 +7378,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -6015,24 +7393,24 @@
         <v>17</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C10" s="12">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -6047,12 +7425,12 @@
         <v>17</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C11" s="12">
         <v>8</v>
@@ -6079,12 +7457,12 @@
         <v>17</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
@@ -6096,7 +7474,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -6105,13 +7483,13 @@
         <v>19</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -6125,7 +7503,7 @@
         <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -6140,22 +7518,22 @@
         <v>17</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6243,16 +7621,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>284</v>
+        <v>319</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -6267,65 +7645,65 @@
         <v>214</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>291</v>
+      <c r="E5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>214</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -6334,13 +7712,13 @@
         <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -6354,7 +7732,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -6363,13 +7741,13 @@
         <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -6377,13 +7755,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -6392,18 +7770,18 @@
         <v>19</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C9" s="12">
         <v>6</v>
@@ -6411,11 +7789,11 @@
       <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -6424,13 +7802,13 @@
         <v>19</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -6438,13 +7816,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -6459,7 +7837,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -6473,7 +7851,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -6482,13 +7860,13 @@
         <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -6496,13 +7874,13 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -6511,30 +7889,30 @@
         <v>214</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C13" s="12">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>313</v>
-      </c>
-      <c r="E13" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -6543,38 +7921,38 @@
         <v>214</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3 N9:N1048576 N7">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N6">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25220" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
     <sheet name="Orquesta" sheetId="3" r:id="rId2"/>
     <sheet name="Musico" sheetId="2" r:id="rId3"/>
-    <sheet name="DirOrq" sheetId="4" r:id="rId4"/>
-    <sheet name="Director" sheetId="5" r:id="rId5"/>
-    <sheet name="Escenografo" sheetId="6" r:id="rId6"/>
+    <sheet name="Director" sheetId="5" r:id="rId4"/>
+    <sheet name="Escenografo" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="405">
   <si>
     <t>idDirector</t>
   </si>
@@ -131,9 +130,6 @@
     <t>antonio</t>
   </si>
   <si>
-    <t>papano</t>
-  </si>
-  <si>
     <t>30/12/1959</t>
   </si>
   <si>
@@ -791,9 +787,6 @@
     <t>14/01/1943</t>
   </si>
   <si>
-    <t>riga</t>
-  </si>
-  <si>
     <t>Orquesta Real del Concertgebouw</t>
   </si>
   <si>
@@ -1109,12 +1102,6 @@
     <t>sinfónica de pittsburgh</t>
   </si>
   <si>
-    <t>formato mal</t>
-  </si>
-  <si>
-    <t>orquesta filarmónica de oslo</t>
-  </si>
-  <si>
     <t>deutsche kammerphilharmonie bremen</t>
   </si>
   <si>
@@ -1124,15 +1111,9 @@
     <t>orquesta de la age of enlightenment</t>
   </si>
   <si>
-    <t>orquesta filarmónica de roterdam</t>
-  </si>
-  <si>
     <t>23/09/2006</t>
   </si>
   <si>
-    <t>orquesta sinfónica de baltimore</t>
-  </si>
-  <si>
     <t>orchestra sinfonica nazionale della rai</t>
   </si>
   <si>
@@ -1148,9 +1129,6 @@
     <t>15/03/2000</t>
   </si>
   <si>
-    <t>orquesta filarmónica de brooklyn</t>
-  </si>
-  <si>
     <t>20/09/1996</t>
   </si>
   <si>
@@ -1166,10 +1144,100 @@
     <t>17/06/2006</t>
   </si>
   <si>
-    <t>new york city opera</t>
-  </si>
-  <si>
-    <t>orquesta de la academia de santa cecilia romana</t>
+    <t>pappano</t>
+  </si>
+  <si>
+    <t>teatro de la monnaie</t>
+  </si>
+  <si>
+    <t>15/08/2002</t>
+  </si>
+  <si>
+    <t>orquesta de la academia nacional de santa cecilia</t>
+  </si>
+  <si>
+    <t>orquesta de la radio de munich</t>
+  </si>
+  <si>
+    <t>17/02/1991</t>
+  </si>
+  <si>
+    <t>14/02/1992</t>
+  </si>
+  <si>
+    <t>holanda amsnterdam</t>
+  </si>
+  <si>
+    <t>budapest</t>
+  </si>
+  <si>
+    <t>13/11/2010</t>
+  </si>
+  <si>
+    <t>staatskapelle dresden</t>
+  </si>
+  <si>
+    <t>24/04/2004</t>
+  </si>
+  <si>
+    <t>orquesta filarmonica de londres</t>
+  </si>
+  <si>
+    <t>orquesta filarmonica de roterdam</t>
+  </si>
+  <si>
+    <t>orquesta sinfonica de baltimore</t>
+  </si>
+  <si>
+    <t>orquesta filarmonica de brooklyn</t>
+  </si>
+  <si>
+    <t>orquesta filarmonica de oslo</t>
+  </si>
+  <si>
+    <t>17/08/1967</t>
+  </si>
+  <si>
+    <t>13/10/1979</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weybridge, Surrey, Reino Unido</t>
+  </si>
+  <si>
+    <t>orquesta sinfonica de la radio de baviera</t>
+  </si>
+  <si>
+    <t>25/08/1983</t>
+  </si>
+  <si>
+    <t>17/03/1972</t>
+  </si>
+  <si>
+    <t>15/09/1975</t>
+  </si>
+  <si>
+    <t>13/08/1952</t>
+  </si>
+  <si>
+    <t>Býchory rep checha</t>
+  </si>
+  <si>
+    <t>riga letonia</t>
+  </si>
+  <si>
+    <t>24/02/1950</t>
+  </si>
+  <si>
+    <t>23/03/1953</t>
+  </si>
+  <si>
+    <t>inglaterra</t>
+  </si>
+  <si>
+    <t>royal scottish national orchestra</t>
+  </si>
+  <si>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1237,21 +1305,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF6FCF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,6 +1332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="447">
+  <cellStyleXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1771,8 +1836,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1812,30 +1919,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,21 +1926,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1877,8 +1948,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="447">
+  <cellStyles count="489">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -2102,6 +2217,27 @@
     <cellStyle name="Hipervínculo" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2325,9 +2461,30 @@
     <cellStyle name="Hipervínculo visitado" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="50">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2480,64 +2637,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -2621,6 +2735,27 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -2640,68 +2775,81 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C3:Q19" totalsRowShown="0">
-  <autoFilter ref="C3:Q19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D3:R19" totalsRowShown="0">
+  <autoFilter ref="D3:R19"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="idDirector" dataDxfId="51"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="15"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="50"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="49"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido" dataDxfId="26"/>
-    <tableColumn id="6" name="telf1" dataDxfId="25">
+    <tableColumn id="5" name="segundo apellido" dataDxfId="48"/>
+    <tableColumn id="6" name="telf1" dataDxfId="47">
       <calculatedColumnFormula>RANDBETWEEN(1111111111,9999999999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="telf2" dataDxfId="24"/>
-    <tableColumn id="8" name="telf3" dataDxfId="22"/>
-    <tableColumn id="11" name="sexo" dataDxfId="23"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="49"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="48"/>
-    <tableColumn id="14" name="foto" dataDxfId="47"/>
-    <tableColumn id="15" name="fkLugar" dataDxfId="46"/>
+    <tableColumn id="7" name="telf2" dataDxfId="46"/>
+    <tableColumn id="8" name="telf3" dataDxfId="45"/>
+    <tableColumn id="11" name="sexo" dataDxfId="44"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="43"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="42"/>
+    <tableColumn id="14" name="foto" dataDxfId="41"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="40"/>
     <tableColumn id="16" name="detalleDireccion"/>
-    <tableColumn id="9" name="invitado" dataDxfId="21"/>
+    <tableColumn id="9" name="invitado" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="C24:D42" totalsRowShown="0">
-  <autoFilter ref="C24:D42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="D24:E42" totalsRowShown="0">
+  <autoFilter ref="D24:E42"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="pkNacionalidad" dataDxfId="28"/>
-    <tableColumn id="2" name="pkDirOrq" dataDxfId="27"/>
+    <tableColumn id="1" name="pkNacionalidad" dataDxfId="38"/>
+    <tableColumn id="2" name="pkDirOrq" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="C49:F74" totalsRowShown="0">
-  <autoFilter ref="C49:F74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="D47:G81" totalsRowShown="0">
+  <autoFilter ref="D47:G81"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="pkOrquesta" dataDxfId="20">
+    <tableColumn id="1" name="pkOrquesta" dataDxfId="36">
       <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="19">
-      <calculatedColumnFormula>(DirectorOquesta!C10)</calculatedColumnFormula>
+    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="35">
+      <calculatedColumnFormula>(DirectorOquesta!D10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="fecha inicio" dataDxfId="17"/>
-    <tableColumn id="4" name="fecha fin" dataDxfId="18"/>
+    <tableColumn id="3" name="fecha inicio" dataDxfId="34"/>
+    <tableColumn id="4" name="fecha fin" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C3:D29" totalsRowShown="0">
-  <autoFilter ref="C3:D29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C3:D33" totalsRowShown="0">
+  <autoFilter ref="C3:D33"/>
   <tableColumns count="2">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="nombre"/>
@@ -2711,23 +2859,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:R104" totalsRowShown="0">
-  <autoFilter ref="C3:R104"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C3:P104" totalsRowShown="0">
+  <autoFilter ref="C3:P104"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="45"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="44"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="43"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="33"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="32"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="31"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
-    <tableColumn id="9" name="telf4"/>
-    <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="42"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="41"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="40"/>
-    <tableColumn id="14" name="foto" dataDxfId="39"/>
+    <tableColumn id="11" name="sexo" dataDxfId="30"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="29"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="28"/>
+    <tableColumn id="14" name="foto" dataDxfId="27"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2739,7 +2885,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="38"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="26"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2749,10 +2895,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="37"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="36"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="35"/>
-    <tableColumn id="14" name="foto" dataDxfId="34"/>
+    <tableColumn id="11" name="sexo" dataDxfId="25"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="24"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="23"/>
+    <tableColumn id="14" name="foto" dataDxfId="22"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2764,7 +2910,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="33"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="21"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2774,10 +2920,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="32"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="31"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="30"/>
-    <tableColumn id="14" name="foto" dataDxfId="29"/>
+    <tableColumn id="11" name="sexo" dataDxfId="20"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="19"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="18"/>
+    <tableColumn id="14" name="foto" dataDxfId="17"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -3107,1562 +3253,2061 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S74"/>
+  <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15" style="12" customWidth="1"/>
-    <col min="8" max="10" width="12" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13" style="12" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="15" width="13" style="12" customWidth="1"/>
-    <col min="16" max="16" width="29.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15" style="12" customWidth="1"/>
+    <col min="9" max="11" width="12" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13" style="12" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13" style="12" customWidth="1"/>
+    <col min="17" max="17" width="29.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="C2" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="C3" s="12" t="s">
+    <row r="2" spans="1:20">
+      <c r="D2" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="46">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2057707371</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2616582140</v>
+      </c>
+      <c r="K4" s="12">
+        <v>6569806270</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24996</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P4" s="12">
+        <v>187</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>347</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1946</v>
+      </c>
+      <c r="T4">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="46">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12">
+        <v>9079300267</v>
+      </c>
+      <c r="J5" s="12">
+        <v>3262833991</v>
+      </c>
+      <c r="K5" s="12">
+        <v>6087096829</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1">
+        <v>35376</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5" s="12">
+        <v>187</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>346</v>
+      </c>
+      <c r="R5" s="12">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1955</v>
+      </c>
+      <c r="T5">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="46">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5037537644</v>
+      </c>
+      <c r="J6" s="12">
+        <v>8949718432</v>
+      </c>
+      <c r="K6" s="12">
+        <v>5221469215</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1">
+        <v>35559</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="12">
+        <v>187</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>345</v>
+      </c>
+      <c r="R6" s="12">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1961</v>
+      </c>
+      <c r="T6">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="46">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1762155356</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1829272720</v>
+      </c>
+      <c r="K7" s="12">
+        <v>8830266879</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="12">
+        <v>187</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>344</v>
+      </c>
+      <c r="R7" s="12">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1971</v>
+      </c>
+      <c r="T7">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="46">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1736790212</v>
+      </c>
+      <c r="J8" s="12">
+        <v>9100192387</v>
+      </c>
+      <c r="K8" s="12">
+        <v>8421589888</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10686</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="12">
+        <v>187</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>343</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1987</v>
+      </c>
+      <c r="T8">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="46">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1478544180</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1834258385</v>
+      </c>
+      <c r="K9" s="12">
+        <v>7312815034</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9" s="12">
+        <v>187</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>342</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2002</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="46">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12">
+        <v>746864605</v>
+      </c>
+      <c r="J10" s="12">
+        <v>157246682</v>
+      </c>
+      <c r="K10" s="12">
+        <v>277289797</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10" s="12">
+        <v>219</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>269</v>
+      </c>
+      <c r="R10" s="12">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>2010</v>
+      </c>
+      <c r="T10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="45">
+      <c r="A11" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="46">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12">
+        <v>370292784</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11" s="12">
+        <v>207</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>270</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="46">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12">
+        <v>561405696</v>
+      </c>
+      <c r="J12" s="12">
+        <v>932614482</v>
+      </c>
+      <c r="K12" s="12">
+        <v>175725363</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1">
+        <v>22467</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" s="12">
+        <v>203</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="45">
+      <c r="A13" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="46">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="12">
+        <v>498949670</v>
+      </c>
+      <c r="J13" s="12">
+        <v>147501438</v>
+      </c>
+      <c r="K13" s="12">
+        <v>687448377</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13" s="12">
+        <v>221</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>272</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="46">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12">
+        <v>729175687</v>
+      </c>
+      <c r="J14" s="12">
+        <v>435814796</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1">
+        <v>13400</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="12">
+        <v>240</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>339</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="46">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="12">
+        <v>692577971</v>
+      </c>
+      <c r="J15" s="12">
+        <v>370410006</v>
+      </c>
+      <c r="K15" s="12">
+        <v>982748187</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1">
+        <v>27548</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15" s="12">
+        <v>242</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>336</v>
+      </c>
+      <c r="R15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30">
+      <c r="A16" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="46">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="12">
+        <v>793843361</v>
+      </c>
+      <c r="J16" s="12">
+        <v>602975691</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16" s="12">
+        <v>244</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>337</v>
+      </c>
+      <c r="R16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="46">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="12">
+        <v>711609718</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17" s="12">
+        <v>245</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>338</v>
+      </c>
+      <c r="R17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="46">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="12">
+        <v>37141335</v>
+      </c>
+      <c r="J18" s="12">
+        <v>49451347</v>
+      </c>
+      <c r="K18" s="12">
+        <v>14546641</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18" s="12">
+        <v>247</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>340</v>
+      </c>
+      <c r="R18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D19" s="47">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="13">
+        <v>9701020675</v>
+      </c>
+      <c r="J19" s="13">
+        <v>5820279893</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" s="13">
+        <v>249</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="R19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="12">
+        <v>65</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D26" s="12">
+        <v>250</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2</v>
+      </c>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="12">
+        <v>130</v>
+      </c>
+      <c r="E27" s="12">
+        <v>3</v>
+      </c>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28" s="12">
+        <v>65</v>
+      </c>
+      <c r="E28" s="12">
+        <v>4</v>
+      </c>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29" s="12">
+        <v>59</v>
+      </c>
+      <c r="E29" s="12">
+        <v>5</v>
+      </c>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" s="12">
+        <v>65</v>
+      </c>
+      <c r="E30" s="12">
+        <v>6</v>
+      </c>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D31" s="12">
+        <v>70</v>
+      </c>
+      <c r="E31" s="12">
+        <v>7</v>
+      </c>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12">
+        <v>8</v>
+      </c>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D33" s="12">
+        <v>41</v>
+      </c>
+      <c r="E33" s="12">
+        <v>9</v>
+      </c>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="12">
+        <v>39</v>
+      </c>
+      <c r="E34" s="12">
+        <v>10</v>
+      </c>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" s="12">
+        <v>41</v>
+      </c>
+      <c r="E35" s="12">
+        <v>11</v>
+      </c>
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D36" s="12">
+        <v>17</v>
+      </c>
+      <c r="E36" s="12">
+        <v>12</v>
+      </c>
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" s="12">
+        <v>128</v>
+      </c>
+      <c r="E37" s="12">
+        <v>13</v>
+      </c>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D38" s="12">
+        <v>130</v>
+      </c>
+      <c r="E38" s="12">
+        <v>14</v>
+      </c>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D39" s="12">
+        <v>65</v>
+      </c>
+      <c r="E39" s="12">
+        <v>15</v>
+      </c>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" s="12">
+        <v>78</v>
+      </c>
+      <c r="E40" s="13">
+        <v>16</v>
+      </c>
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" s="12">
+        <v>39</v>
+      </c>
+      <c r="E41" s="12">
+        <v>8</v>
+      </c>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D42" s="12">
+        <v>69</v>
+      </c>
+      <c r="E42" s="12">
+        <v>8</v>
+      </c>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="B4" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="G47" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="12">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E48" s="12">
+        <f>(DirectorOquesta!D10)</f>
+        <v>7</v>
+      </c>
+      <c r="F48" s="1">
+        <v>38446</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="12">
+        <v>2</v>
+      </c>
+      <c r="E49" s="12">
+        <f>(DirectorOquesta!D11)</f>
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>39692</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="12">
+        <v>3</v>
+      </c>
+      <c r="E50" s="12">
+        <f>(DirectorOquesta!D12)</f>
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>38322</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="12">
+        <v>4</v>
+      </c>
+      <c r="E51" s="12">
+        <f>(DirectorOquesta!D13)</f>
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="29"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="12">
+        <v>5</v>
+      </c>
+      <c r="E52" s="12">
+        <f>(DirectorOquesta!D14)</f>
+        <v>11</v>
+      </c>
+      <c r="F52" s="1">
+        <v>36161</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="29"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="12">
+        <v>6</v>
+      </c>
+      <c r="E53" s="12">
+        <f>(DirectorOquesta!D15)</f>
+        <v>12</v>
+      </c>
+      <c r="F53" s="1">
+        <v>40190</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="21">
+        <v>15</v>
+      </c>
+      <c r="E54" s="21">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="29"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="21">
+        <v>7</v>
+      </c>
+      <c r="E55" s="21">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1">
+        <v>38353</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="21">
+        <v>8</v>
+      </c>
+      <c r="E56" s="21">
+        <v>14</v>
+      </c>
+      <c r="F56" s="1">
+        <v>37623</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="29"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="21">
+        <v>9</v>
+      </c>
+      <c r="E57" s="21">
+        <v>15</v>
+      </c>
+      <c r="F57" s="1">
+        <v>37748</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="29"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="21">
+        <v>10</v>
+      </c>
+      <c r="E58" s="21">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F58" s="1">
+        <v>37995</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="29"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D59" s="21">
+        <v>11</v>
+      </c>
+      <c r="E59" s="21">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1">
+        <v>35068</v>
+      </c>
+      <c r="G59" s="1">
+        <v>37991</v>
+      </c>
+      <c r="H59" s="30"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="30"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D60" s="21">
+        <v>12</v>
+      </c>
+      <c r="E60" s="21">
+        <v>16</v>
+      </c>
+      <c r="F60" s="1">
+        <v>28979</v>
+      </c>
+      <c r="G60" s="1">
+        <v>37320</v>
+      </c>
+      <c r="H60" s="30"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="30"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61" s="21">
+        <v>13</v>
+      </c>
+      <c r="E61" s="21">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1">
+        <v>35590</v>
+      </c>
+      <c r="G61" s="1">
+        <v>37722</v>
+      </c>
+      <c r="H61" s="30"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="30"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D62" s="12">
+        <v>14</v>
+      </c>
+      <c r="E62" s="22">
+        <v>14</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G62" s="14">
+        <v>39334</v>
+      </c>
+      <c r="H62" s="30"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="30"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="21">
+        <v>16</v>
+      </c>
+      <c r="E63" s="21">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1">
+        <v>31354</v>
+      </c>
+      <c r="G63" s="1">
+        <v>36140</v>
+      </c>
+      <c r="H63" s="30"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="21">
+        <v>15</v>
+      </c>
+      <c r="E64" s="21">
+        <v>11</v>
+      </c>
+      <c r="F64" s="1">
+        <v>29076</v>
+      </c>
+      <c r="G64" s="1">
+        <v>30018</v>
+      </c>
+      <c r="H64" s="30"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D65" s="21">
+        <v>17</v>
+      </c>
+      <c r="E65" s="21">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" s="1">
+        <v>38698</v>
+      </c>
+      <c r="H65" s="30"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D66" s="21">
         <v>18</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="12">
-        <v>2057707371</v>
-      </c>
-      <c r="I4" s="12">
-        <v>2616582140</v>
-      </c>
-      <c r="J4" s="12">
-        <v>6569806270</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="E66" s="21">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="H66" s="30"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D67" s="21">
         <v>19</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M4" s="1">
-        <v>24996</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O4" s="12">
-        <v>187</v>
-      </c>
-      <c r="P4" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1946</v>
-      </c>
-      <c r="S4">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="B5" s="22"/>
-      <c r="C5" s="12">
+      <c r="E67" s="21">
+        <v>9</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G67" s="1">
+        <v>38058</v>
+      </c>
+      <c r="H67" s="30"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" s="22">
+        <v>20</v>
+      </c>
+      <c r="E68" s="22">
+        <v>8</v>
+      </c>
+      <c r="F68" s="14">
+        <v>27709</v>
+      </c>
+      <c r="G68" s="14">
+        <v>32852</v>
+      </c>
+      <c r="H68" s="30"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" s="21">
+        <v>21</v>
+      </c>
+      <c r="E69" s="21">
+        <v>8</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H69" s="30"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D70" s="21">
+        <v>22</v>
+      </c>
+      <c r="E70" s="21">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>37600</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H70" s="30"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D71" s="21">
+        <v>23</v>
+      </c>
+      <c r="E71" s="21">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1">
+        <v>33857</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H71" s="30"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D72" s="22">
+        <v>24</v>
+      </c>
+      <c r="E72" s="22">
+        <v>7</v>
+      </c>
+      <c r="F72" s="14">
+        <v>38659</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="30"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D73" s="22">
+        <v>25</v>
+      </c>
+      <c r="E73" s="22">
+        <v>7</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="H73" s="30"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74" s="21">
+        <v>21</v>
+      </c>
+      <c r="E74" s="21">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>38811</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="H74" s="30"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D75" s="21">
+        <v>26</v>
+      </c>
+      <c r="E75" s="21">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75" s="30"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D76" s="21">
+        <v>27</v>
+      </c>
+      <c r="E76" s="21">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G76" s="1">
+        <v>33946</v>
+      </c>
+      <c r="H76" s="30"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D77" s="21">
+        <v>26</v>
+      </c>
+      <c r="E77" s="21">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1">
+        <v>29099</v>
+      </c>
+      <c r="G77" s="1">
+        <v>30659</v>
+      </c>
+      <c r="H77" s="42"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D78" s="21">
+        <v>20</v>
+      </c>
+      <c r="E78" s="21">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D79" s="22">
+        <v>27</v>
+      </c>
+      <c r="E79" s="22">
+        <v>3</v>
+      </c>
+      <c r="F79" s="14">
+        <v>17137</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D80" s="21">
+        <v>21</v>
+      </c>
+      <c r="E80" s="21">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="12">
-        <v>9079300267</v>
-      </c>
-      <c r="I5" s="12">
-        <v>3262833991</v>
-      </c>
-      <c r="J5" s="12">
-        <v>6087096829</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1">
-        <v>35376</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O5" s="12">
-        <v>187</v>
-      </c>
-      <c r="P5" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1955</v>
-      </c>
-      <c r="S5">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="B6" s="22"/>
-      <c r="C6" s="12">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="12">
-        <v>5037537644</v>
-      </c>
-      <c r="I6" s="12">
-        <v>8949718432</v>
-      </c>
-      <c r="J6" s="12">
-        <v>5221469215</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="1">
-        <v>35559</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O6" s="12">
-        <v>187</v>
-      </c>
-      <c r="P6" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1961</v>
-      </c>
-      <c r="S6">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="B7" s="22"/>
-      <c r="C7" s="12">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F80" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" s="21">
         <v>28</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1762155356</v>
-      </c>
-      <c r="I7" s="12">
-        <v>1829272720</v>
-      </c>
-      <c r="J7" s="12">
-        <v>8830266879</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O7" s="12">
-        <v>187</v>
-      </c>
-      <c r="P7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1971</v>
-      </c>
-      <c r="S7">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="22"/>
-      <c r="C8" s="12">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1736790212</v>
-      </c>
-      <c r="I8" s="12">
-        <v>9100192387</v>
-      </c>
-      <c r="J8" s="12">
-        <v>8421589888</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1">
-        <v>10686</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O8" s="12">
-        <v>187</v>
-      </c>
-      <c r="P8" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1987</v>
-      </c>
-      <c r="S8">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="22"/>
-      <c r="C9" s="12">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1478544180</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1834258385</v>
-      </c>
-      <c r="J9" s="12">
-        <v>7312815034</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O9" s="12">
-        <v>187</v>
-      </c>
-      <c r="P9" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>2002</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="36">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="12">
-        <v>746864605</v>
-      </c>
-      <c r="I10" s="12">
-        <v>157246682</v>
-      </c>
-      <c r="J10" s="12">
-        <v>277289797</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O10" s="12">
-        <v>219</v>
-      </c>
-      <c r="P10" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q10" s="12">
+      <c r="E81" s="21">
         <v>1</v>
       </c>
-      <c r="R10">
-        <v>2010</v>
-      </c>
-      <c r="S10">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="45">
-      <c r="A11" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="36">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="12">
-        <v>370292784</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O11" s="12">
-        <v>207</v>
-      </c>
-      <c r="P11" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="36">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="12">
-        <v>561405696</v>
-      </c>
-      <c r="I12" s="12">
-        <v>932614482</v>
-      </c>
-      <c r="J12" s="12">
-        <v>175725363</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1">
-        <v>22467</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O12" s="12">
-        <v>203</v>
-      </c>
-      <c r="P12" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="45">
-      <c r="A13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="36">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="12">
-        <v>498949670</v>
-      </c>
-      <c r="I13" s="12">
-        <v>147501438</v>
-      </c>
-      <c r="J13" s="12">
-        <v>687448377</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O13" s="12">
-        <v>221</v>
-      </c>
-      <c r="P13" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="36">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="12">
-        <v>729175687</v>
-      </c>
-      <c r="I14" s="12">
-        <v>435814796</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="1">
-        <v>13400</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O14" s="12">
-        <v>240</v>
-      </c>
-      <c r="P14" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="36">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="12">
-        <v>692577971</v>
-      </c>
-      <c r="I15" s="12">
-        <v>370410006</v>
-      </c>
-      <c r="J15" s="12">
-        <v>982748187</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="1">
-        <v>27548</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O15" s="12">
-        <v>242</v>
-      </c>
-      <c r="P15" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="30">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="37">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="12">
-        <v>793843361</v>
-      </c>
-      <c r="I16" s="12">
-        <v>602975691</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O16" s="12">
-        <v>244</v>
-      </c>
-      <c r="P16" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="36">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="12">
-        <v>711609718</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O17" s="12">
-        <v>245</v>
-      </c>
-      <c r="P17" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="36">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="12">
-        <v>37141335</v>
-      </c>
-      <c r="I18" s="12">
-        <v>49451347</v>
-      </c>
-      <c r="J18" s="12">
-        <v>14546641</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="O18" s="12">
-        <v>247</v>
-      </c>
-      <c r="P18" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="33">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="13">
-        <v>9701020675</v>
-      </c>
-      <c r="I19" s="13">
-        <v>5820279893</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="O19" s="13">
-        <v>249</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1"/>
-    <row r="23" spans="1:17" hidden="1">
-      <c r="C23" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" hidden="1">
-      <c r="C24" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1">
-      <c r="C25" s="12">
-        <v>65</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" hidden="1">
-      <c r="C26" s="12">
-        <v>112</v>
-      </c>
-      <c r="D26" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1">
-      <c r="C27" s="12">
-        <v>130</v>
-      </c>
-      <c r="D27" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1">
-      <c r="C28" s="12">
-        <v>65</v>
-      </c>
-      <c r="D28" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1">
-      <c r="C29" s="12">
-        <v>41</v>
-      </c>
-      <c r="D29" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1">
-      <c r="C30" s="12">
-        <v>65</v>
-      </c>
-      <c r="D30" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1">
-      <c r="C31" s="12">
-        <v>10</v>
-      </c>
-      <c r="D31" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1">
-      <c r="C32" s="12">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" hidden="1">
-      <c r="C33" s="12">
-        <v>41</v>
-      </c>
-      <c r="D33" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" hidden="1">
-      <c r="C34" s="12">
-        <v>39</v>
-      </c>
-      <c r="D34" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" hidden="1">
-      <c r="C35" s="12">
-        <v>41</v>
-      </c>
-      <c r="D35" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" hidden="1">
-      <c r="C36" s="12">
-        <v>17</v>
-      </c>
-      <c r="D36" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" hidden="1">
-      <c r="C37" s="12">
-        <v>128</v>
-      </c>
-      <c r="D37" s="12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" hidden="1">
-      <c r="C38" s="12">
-        <v>65</v>
-      </c>
-      <c r="D38" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" hidden="1">
-      <c r="C39" s="12">
-        <v>65</v>
-      </c>
-      <c r="D39" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" hidden="1">
-      <c r="C40" s="12">
-        <v>78</v>
-      </c>
-      <c r="D40" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" hidden="1">
-      <c r="C41" s="12">
-        <v>39</v>
-      </c>
-      <c r="D41" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" hidden="1">
-      <c r="C42" s="12">
-        <v>69</v>
-      </c>
-      <c r="D42" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" hidden="1">
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="3:6" hidden="1">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="E47" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="C49" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="B50" s="34"/>
-      <c r="C50" s="12">
-        <v>1</v>
-      </c>
-      <c r="D50" s="12">
-        <f>(DirectorOquesta!C10)</f>
-        <v>7</v>
-      </c>
-      <c r="E50" s="1">
-        <v>38446</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="34"/>
-      <c r="C51" s="12">
-        <v>2</v>
-      </c>
-      <c r="D51" s="12">
-        <f>(DirectorOquesta!C11)</f>
-        <v>8</v>
-      </c>
-      <c r="E51" s="1">
-        <v>39692</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="34"/>
-      <c r="C52" s="12">
-        <v>3</v>
-      </c>
-      <c r="D52" s="12">
-        <f>(DirectorOquesta!C12)</f>
-        <v>9</v>
-      </c>
-      <c r="E52" s="1">
-        <v>38322</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="34"/>
-      <c r="C53" s="12">
-        <v>4</v>
-      </c>
-      <c r="D53" s="12">
-        <f>(DirectorOquesta!C13)</f>
-        <v>10</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="34"/>
-      <c r="C54" s="12">
-        <v>5</v>
-      </c>
-      <c r="D54" s="12">
-        <f>(DirectorOquesta!C14)</f>
-        <v>11</v>
-      </c>
-      <c r="E54" s="1">
-        <v>36161</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="35"/>
-      <c r="C55" s="12">
-        <v>6</v>
-      </c>
-      <c r="D55" s="12">
-        <f>(DirectorOquesta!C15)</f>
-        <v>12</v>
-      </c>
-      <c r="E55" s="1">
-        <v>40190</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="35"/>
-      <c r="C56" s="29">
-        <v>15</v>
-      </c>
-      <c r="D56" s="29">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F56" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="34"/>
-      <c r="C57" s="29">
-        <v>7</v>
-      </c>
-      <c r="D57" s="29">
-        <v>13</v>
-      </c>
-      <c r="E57" s="1">
-        <v>38353</v>
-      </c>
-      <c r="F57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" s="38"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="34"/>
-      <c r="C58" s="29">
-        <v>8</v>
-      </c>
-      <c r="D58" s="29">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1">
-        <v>37623</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="38"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="34"/>
-      <c r="C59" s="29">
-        <v>9</v>
-      </c>
-      <c r="D59" s="29">
-        <v>15</v>
-      </c>
-      <c r="E59" s="1">
-        <v>37748</v>
-      </c>
-      <c r="F59" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="38"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="41"/>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="34"/>
-      <c r="C60" s="29">
-        <v>10</v>
-      </c>
-      <c r="D60" s="29">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1">
-        <v>37995</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I60" s="38"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="41"/>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="C61" s="29">
-        <v>11</v>
-      </c>
-      <c r="D61" s="29">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1">
-        <v>35068</v>
-      </c>
-      <c r="F61" s="1">
-        <v>37991</v>
-      </c>
-      <c r="I61" s="38"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="42"/>
-    </row>
-    <row r="62" spans="2:12">
-      <c r="C62" s="29">
-        <v>12</v>
-      </c>
-      <c r="D62" s="29">
-        <v>16</v>
-      </c>
-      <c r="E62" s="1">
-        <v>28979</v>
-      </c>
-      <c r="F62" s="1">
-        <v>37320</v>
-      </c>
-      <c r="I62" s="38"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="42"/>
-    </row>
-    <row r="63" spans="2:12">
-      <c r="C63" s="29">
-        <v>13</v>
-      </c>
-      <c r="D63" s="29">
-        <v>15</v>
-      </c>
-      <c r="E63" s="1">
-        <v>35590</v>
-      </c>
-      <c r="F63" s="1">
-        <v>37722</v>
-      </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="42"/>
-    </row>
-    <row r="64" spans="2:12">
-      <c r="C64" s="12">
-        <v>14</v>
-      </c>
-      <c r="D64" s="30">
-        <v>14</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="F64" s="14">
-        <v>39334</v>
-      </c>
-      <c r="I64" s="38"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="42"/>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="29">
-        <v>16</v>
-      </c>
-      <c r="D65" s="29">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1">
-        <v>31354</v>
-      </c>
-      <c r="F65" s="1">
-        <v>36140</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="C66" s="29">
-        <v>15</v>
-      </c>
-      <c r="D66" s="29">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1">
-        <v>29076</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30166</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="29">
-        <v>17</v>
-      </c>
-      <c r="D67" s="29">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F67" s="1">
-        <v>38698</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="29">
-        <v>18</v>
-      </c>
-      <c r="D68" s="29">
-        <v>10</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="29">
-        <v>19</v>
-      </c>
-      <c r="D69" s="29">
-        <v>9</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F69" s="1">
-        <v>38058</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="30">
-        <v>20</v>
-      </c>
-      <c r="D70" s="30">
-        <v>8</v>
-      </c>
-      <c r="E70" s="14">
-        <v>27709</v>
-      </c>
-      <c r="F70" s="14">
-        <v>32852</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="29">
-        <v>21</v>
-      </c>
-      <c r="D71" s="29">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="29">
-        <v>22</v>
-      </c>
-      <c r="D72" s="29">
-        <v>7</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="29">
-        <v>23</v>
-      </c>
-      <c r="D73" s="29">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="30"/>
+      <c r="F81" s="1">
+        <v>21004</v>
+      </c>
+      <c r="G81" s="1">
+        <v>21155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="F45:G45"/>
   </mergeCells>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+  <conditionalFormatting sqref="N1:N1048576 M1:M54">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L56 L65:L1048576">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+  <conditionalFormatting sqref="M63:M1048576">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C42">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+  <conditionalFormatting sqref="D25:D42">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="H4:H12 H13:H19 C50:C55 C56:D64 C65:D68 C69:D69 C70:D70 C71:D71 C72:D73" calculatedColumn="1"/>
+    <ignoredError sqref="I4:I12 I13:I19 D48:D53 D54:E62 D63:E66 D67:E67 D68:E68 D69:E69 D71 E71:E73 D72:D73 D70:E70 D74:E74 D75:E75 D76:E76 D77:E77 D78:E79 D80:E81" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -4679,10 +5324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D29"/>
+  <dimension ref="B2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4692,107 +5337,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="C2" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="21"/>
+      <c r="C2" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="31"/>
+      <c r="B4" s="23"/>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="31"/>
+      <c r="B5" s="23"/>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="31"/>
+      <c r="B6" s="23"/>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="31"/>
+      <c r="B7" s="23"/>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="31"/>
+      <c r="B8" s="23"/>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="31"/>
+      <c r="B9" s="23"/>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="31"/>
+      <c r="B10" s="23"/>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="31"/>
+      <c r="B11" s="23"/>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="31"/>
+      <c r="B12" s="23"/>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="31"/>
+      <c r="B13" s="23"/>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -4800,7 +5445,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -4808,7 +5453,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -4816,102 +5461,143 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="41"/>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="C24" s="2">
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="41"/>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" s="2">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4925,10 +5611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S113"/>
+  <dimension ref="A2:Q113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4936,34 +5622,31 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="12" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13" style="18" customWidth="1"/>
-    <col min="15" max="18" width="13" customWidth="1"/>
+    <col min="7" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13" style="18" customWidth="1"/>
+    <col min="13" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
-      <c r="C2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-    </row>
-    <row r="3" spans="2:19">
+    <row r="2" spans="2:17">
+      <c r="C2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -4988,852 +5671,838 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
       <c r="P3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="27" t="s">
-        <v>65</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="K4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="36"/>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="B6" s="27"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="36"/>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="27"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="36"/>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="27"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="36"/>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="27"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="36"/>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="27"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="36"/>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="27"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="36"/>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="27"/>
+        <v>62</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="36"/>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="27"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="36"/>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="27"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="36"/>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="36"/>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="27"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="36"/>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="27"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="36"/>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="28" t="s">
-        <v>88</v>
+      <c r="L17" s="1"/>
+      <c r="M17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="28"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="37"/>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="L19" s="1"/>
+      <c r="M19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="37"/>
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="28"/>
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="28"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="37"/>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="28"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="37"/>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" spans="2:18">
-      <c r="B23" s="28"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="37"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="2:18">
-      <c r="B24" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="37"/>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="2:18">
-      <c r="B25" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="37"/>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="2:18">
-      <c r="B26" s="28"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="37"/>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="2:18">
-      <c r="B27" s="28"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="37"/>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" s="28"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="37"/>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="28"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="37"/>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="2:18">
-      <c r="B30" s="28"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="37"/>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="B31" s="24" t="s">
-        <v>110</v>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="2:18">
-      <c r="B32" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="35"/>
       <c r="C32">
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="24"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="35"/>
       <c r="C33">
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="24"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="35"/>
       <c r="C34">
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="24"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="35"/>
       <c r="C35">
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="24"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="35"/>
       <c r="C36">
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="35"/>
       <c r="C37">
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="24"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="35"/>
       <c r="C38">
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="24"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="35"/>
       <c r="C39">
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="24"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="35"/>
       <c r="C40">
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="35"/>
       <c r="C41">
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="2:16">
-      <c r="B42" s="24"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="35"/>
       <c r="C42">
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P42" s="12"/>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="23" t="s">
-        <v>126</v>
+      <c r="L42" s="1"/>
+      <c r="M42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="C43">
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P43" s="12"/>
-    </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="23"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="38"/>
       <c r="C44">
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P44" s="12"/>
-    </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="38"/>
       <c r="C45">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P45" s="12"/>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="23"/>
+        <v>113</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="38"/>
       <c r="C46">
         <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="23"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="38"/>
       <c r="C47">
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="12"/>
-    </row>
-    <row r="48" spans="2:16">
-      <c r="B48" s="23"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="38"/>
       <c r="C48">
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P48" s="12"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="B49" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="B49" s="38"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -5841,1151 +6510,1137 @@
         <v>27</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P49" s="12"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="B50" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="B50" s="38"/>
       <c r="C50">
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P50" s="12"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="B51" s="23"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="B51" s="38"/>
       <c r="C51">
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P51" s="12"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="B52" s="23"/>
+        <v>122</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="B52" s="38"/>
       <c r="C52">
         <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="B53" s="24" t="s">
-        <v>139</v>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="13"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="B53" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="C53">
         <v>50</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P53" s="12"/>
-    </row>
-    <row r="54" spans="1:18">
-      <c r="B54" s="24"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="B54" s="35"/>
       <c r="C54">
         <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="12"/>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="B55" s="24"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="B55" s="35"/>
       <c r="C55">
         <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P55" s="12"/>
-    </row>
-    <row r="56" spans="1:18">
-      <c r="B56" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="B56" s="35"/>
       <c r="C56">
         <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P56" s="12"/>
-    </row>
-    <row r="57" spans="1:18">
-      <c r="B57" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="B57" s="35"/>
       <c r="C57">
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P57" s="12"/>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="B58" s="24"/>
+        <v>132</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="B58" s="35"/>
       <c r="C58">
         <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P58" s="12"/>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="B59" s="24"/>
+        <v>133</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="B59" s="35"/>
       <c r="C59">
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P59" s="12"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="B60" s="24"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="B60" s="35"/>
       <c r="C60">
         <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P60" s="12"/>
-    </row>
-    <row r="61" spans="1:18">
-      <c r="B61" s="23" t="s">
-        <v>146</v>
+      <c r="L60" s="1"/>
+      <c r="M60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="B61" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="C61">
         <v>58</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P61" s="12"/>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="B62" s="23"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="B62" s="38"/>
       <c r="C62">
         <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P62" s="12"/>
-    </row>
-    <row r="63" spans="1:18">
-      <c r="B63" s="23"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="B63" s="38"/>
       <c r="C63">
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P63" s="12"/>
-    </row>
-    <row r="64" spans="1:18">
-      <c r="A64" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="38"/>
       <c r="C64">
         <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P64" s="12"/>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="A65" s="26"/>
-      <c r="B65" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="39"/>
+      <c r="B65" s="38"/>
       <c r="C65">
         <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="B66" s="24" t="s">
-        <v>155</v>
+      <c r="K65" s="13"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="13"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="B66" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="C66">
         <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P66" s="12"/>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="B67" s="24"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="B67" s="35"/>
       <c r="C67">
         <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P67" s="12"/>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="B68" s="24"/>
+        <v>149</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="B68" s="35"/>
       <c r="C68">
         <v>65</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="B69" s="24"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="13"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="B69" s="35"/>
       <c r="C69">
         <v>66</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P69" s="12"/>
-    </row>
-    <row r="70" spans="1:18">
+        <v>151</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="12"/>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="24"/>
+        <v>155</v>
+      </c>
+      <c r="B70" s="35"/>
       <c r="C70">
         <v>67</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P70" s="12"/>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="B71" s="23" t="s">
-        <v>164</v>
+      <c r="L70" s="1"/>
+      <c r="M70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="B71" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="C71">
         <v>68</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P71" s="12"/>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="B72" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="12"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="B72" s="38"/>
       <c r="C72">
         <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P72" s="12"/>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="B73" s="23"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="B73" s="38"/>
       <c r="C73">
         <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="K73" s="13"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="13"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B74" s="23"/>
+        <v>164</v>
+      </c>
+      <c r="B74" s="38"/>
       <c r="C74">
         <v>71</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P74" s="12"/>
-    </row>
-    <row r="75" spans="1:18">
-      <c r="B75" s="24" t="s">
-        <v>172</v>
+      <c r="L74" s="1"/>
+      <c r="M74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="12"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="B75" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="C75">
         <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P75" s="12"/>
-    </row>
-    <row r="76" spans="1:18">
-      <c r="B76" s="24"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="12"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="B76" s="35"/>
       <c r="C76">
         <v>73</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P76" s="12"/>
-    </row>
-    <row r="77" spans="1:18">
-      <c r="B77" s="24"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="B77" s="35"/>
       <c r="C77">
         <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P77" s="12"/>
-    </row>
-    <row r="78" spans="1:18">
+        <v>169</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="12"/>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B78" s="24"/>
+        <v>172</v>
+      </c>
+      <c r="B78" s="35"/>
       <c r="C78">
         <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-    </row>
-    <row r="79" spans="1:18">
-      <c r="B79" s="23" t="s">
-        <v>182</v>
+      <c r="K78" s="13"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="13"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="B79" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="C79">
         <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N79" s="1"/>
-      <c r="O79" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P79" s="12"/>
-    </row>
-    <row r="80" spans="1:18">
-      <c r="B80" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="B80" s="38"/>
       <c r="C80">
         <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P80" s="12"/>
-    </row>
-    <row r="81" spans="2:19">
-      <c r="B81" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="12"/>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="38"/>
       <c r="C81">
         <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P81" s="12"/>
-    </row>
-    <row r="82" spans="2:19">
-      <c r="B82" s="23"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" s="38"/>
       <c r="C82">
         <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P82" s="12"/>
-    </row>
-    <row r="83" spans="2:19">
-      <c r="B83" s="23"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="12"/>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="38"/>
       <c r="C83">
         <v>80</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P83" s="12"/>
-    </row>
-    <row r="84" spans="2:19">
-      <c r="B84" s="23"/>
+        <v>179</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="12"/>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="38"/>
       <c r="C84">
         <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P84" s="12"/>
-    </row>
-    <row r="85" spans="2:19">
-      <c r="B85" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" s="12"/>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="38"/>
       <c r="C85">
         <v>82</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P85" s="12"/>
-    </row>
-    <row r="86" spans="2:19">
-      <c r="B86" s="24" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="12"/>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="C86">
         <v>83</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-    </row>
-    <row r="87" spans="2:19">
-      <c r="B87" s="24"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="13"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="35"/>
       <c r="C87">
         <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P87" s="12"/>
-    </row>
-    <row r="88" spans="2:19">
-      <c r="B88" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="12"/>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="35"/>
       <c r="C88">
         <v>85</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P88" s="12"/>
-    </row>
-    <row r="89" spans="2:19">
-      <c r="B89" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="12"/>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="35"/>
       <c r="C89">
         <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O89" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P89" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="90" spans="2:19">
-      <c r="B90" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="35"/>
       <c r="C90">
         <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="13" t="s">
+      <c r="K90" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="14">
+      <c r="L90" s="14">
         <v>27343</v>
       </c>
-      <c r="O90" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P90" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-    </row>
-    <row r="91" spans="2:19">
-      <c r="B91" s="23" t="s">
-        <v>195</v>
+      <c r="M90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="38" t="s">
+        <v>194</v>
       </c>
       <c r="C91">
         <v>88</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>189</v>
+      <c r="K91" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="1">
+        <v>19244</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N91" s="1">
-        <v>19244</v>
-      </c>
-      <c r="O91" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P91" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="S91" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="92" spans="2:19">
-      <c r="B92" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="38"/>
       <c r="C92">
         <v>89</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F92" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>191</v>
+      <c r="K92" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="1">
+        <v>21891</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N92" s="1">
-        <v>21891</v>
-      </c>
-      <c r="O92" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P92" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="S92" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="2:19">
-      <c r="B93" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" s="38"/>
       <c r="C93">
         <v>90</v>
       </c>
       <c r="D93" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>193</v>
+      <c r="K93" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O93" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P93" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="94" spans="2:19">
-      <c r="B94" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="38"/>
       <c r="C94">
         <v>91</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O94" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P94" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="2:19">
-      <c r="B95" s="25" t="s">
-        <v>199</v>
+        <v>17</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="40" t="s">
+        <v>198</v>
       </c>
       <c r="C95">
         <v>92</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>197</v>
+      <c r="K95" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="O95" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P95" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="S95" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="2:19">
-      <c r="B96" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="40"/>
       <c r="C96">
         <v>93</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O96" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P96" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
-      <c r="B97" s="23" t="s">
-        <v>204</v>
+        <v>17</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="B97" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="C97">
         <v>94</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>201</v>
+      <c r="K97" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M97" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O97" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P97" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
-      <c r="B98" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="B98" s="38"/>
       <c r="C98">
         <v>95</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O98" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P98" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>17</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99" s="23"/>
+        <v>208</v>
+      </c>
+      <c r="B99" s="38"/>
       <c r="C99">
         <v>96</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M99" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O99" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P99" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
-      <c r="B100" s="24" t="s">
-        <v>209</v>
+        <v>17</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="B100" s="35" t="s">
+        <v>208</v>
       </c>
       <c r="C100">
         <v>97</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>206</v>
+      <c r="K100" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M100" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O100" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P100" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
-      <c r="B101" s="24"/>
+        <v>17</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="B101" s="35"/>
       <c r="C101">
         <v>98</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="M101" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O101" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P101" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>17</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B102" s="24"/>
+        <v>329</v>
+      </c>
+      <c r="B102" s="35"/>
       <c r="C102">
         <v>99</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G102" t="s">
         <v>17</v>
       </c>
+      <c r="K102" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="M102" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="O102" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P102" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="B103" s="23" t="s">
-        <v>213</v>
+        <v>17</v>
+      </c>
+      <c r="N102" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="B103" s="38" t="s">
+        <v>212</v>
       </c>
       <c r="C103">
         <v>100</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>17</v>
@@ -6993,54 +7648,52 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="N103" s="14">
+      <c r="K103" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L103" s="14">
         <v>26911</v>
       </c>
-      <c r="O103" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P103" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="B104" s="23"/>
+      <c r="M103" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="B104" s="38"/>
       <c r="C104">
         <v>101</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G104" t="s">
         <v>17</v>
       </c>
+      <c r="K104" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="M104" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O104" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P104" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="113" spans="4:19">
+        <v>17</v>
+      </c>
+      <c r="N104" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="4:17">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7048,29 +7701,16 @@
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="20"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -7078,24 +7718,34 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
   </mergeCells>
-  <conditionalFormatting sqref="N2:O3">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P104">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+  <conditionalFormatting sqref="L2:M3">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N104">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L104">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7109,34 +7759,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="C2:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="14.33203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="12" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7154,7 +7780,7 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="N2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7209,22 +7835,22 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -7239,7 +7865,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -7248,13 +7874,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -7263,13 +7889,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -7278,13 +7904,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -7293,31 +7919,31 @@
         <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -7332,24 +7958,24 @@
         <v>17</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="12">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -7364,7 +7990,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -7372,13 +7998,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -7393,24 +8019,24 @@
         <v>17</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C10" s="12">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -7425,24 +8051,24 @@
         <v>17</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" s="12">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -7457,24 +8083,24 @@
         <v>17</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -7483,13 +8109,13 @@
         <v>19</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -7497,13 +8123,13 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -7518,26 +8144,27 @@
         <v>17</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -7549,7 +8176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R13"/>
   <sheetViews>
@@ -7621,89 +8248,89 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" s="12">
         <v>2</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -7712,13 +8339,13 @@
         <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -7726,13 +8353,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -7741,13 +8368,13 @@
         <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7755,13 +8382,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -7770,30 +8397,30 @@
         <v>19</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C9" s="12">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -7802,13 +8429,13 @@
         <v>19</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7816,19 +8443,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N10" s="1">
         <v>17594</v>
@@ -7837,7 +8464,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7845,13 +8472,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -7860,13 +8487,13 @@
         <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7874,85 +8501,85 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C13" s="12">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3 N9:N1048576 N7">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N6">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25220" windowHeight="20260" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25220" windowHeight="20260" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="405">
   <si>
     <t>idDirector</t>
   </si>
@@ -949,9 +949,6 @@
     <t>quaranta</t>
   </si>
   <si>
-    <t>formato mal!!!!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Birmingham, West Midlands,</t>
   </si>
   <si>
@@ -1238,6 +1235,9 @@
   </si>
   <si>
     <t>'</t>
+  </si>
+  <si>
+    <t>DIRECTOR DE OBRA</t>
   </si>
 </sst>
 </file>
@@ -1388,8 +1388,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="489">
+  <cellStyleXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1993,7 +2005,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="489">
+  <cellStyles count="501">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -2238,6 +2250,12 @@
     <cellStyle name="Hipervínculo" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="485" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="499" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2482,6 +2500,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="486" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
@@ -2636,6 +2660,10 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2673,10 +2701,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -2797,7 +2821,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D3:R19" totalsRowShown="0">
   <autoFilter ref="D3:R19"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="idDirector" dataDxfId="15"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="16"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre" dataDxfId="49"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2841,7 +2865,7 @@
       <calculatedColumnFormula>(DirectorOquesta!D10)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="fecha inicio" dataDxfId="34"/>
-    <tableColumn id="4" name="fecha fin" dataDxfId="16"/>
+    <tableColumn id="4" name="fecha fin" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2882,9 +2906,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:R13" totalsRowShown="0">
-  <autoFilter ref="C3:R13"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:P13" totalsRowShown="0">
+  <autoFilter ref="C3:P13"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="idDirector" dataDxfId="26"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
@@ -2893,12 +2917,10 @@
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
-    <tableColumn id="9" name="telf4"/>
-    <tableColumn id="10" name="telf5"/>
     <tableColumn id="11" name="sexo" dataDxfId="25"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="24"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="23"/>
-    <tableColumn id="14" name="foto" dataDxfId="22"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="15"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="24"/>
+    <tableColumn id="14" name="foto" dataDxfId="23"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2910,7 +2932,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="21"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="22"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2920,10 +2942,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="20"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="19"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="18"/>
-    <tableColumn id="14" name="foto" dataDxfId="17"/>
+    <tableColumn id="11" name="sexo" dataDxfId="21"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="20"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="19"/>
+    <tableColumn id="14" name="foto" dataDxfId="18"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -3255,13 +3277,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="12" style="12" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
@@ -3279,7 +3301,7 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="D2" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -3339,15 +3361,15 @@
         <v>15</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>214</v>
@@ -3392,7 +3414,7 @@
         <v>187</v>
       </c>
       <c r="Q4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R4" s="12">
         <v>0</v>
@@ -3406,10 +3428,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="46">
@@ -3452,7 +3474,7 @@
         <v>187</v>
       </c>
       <c r="Q5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R5" s="12">
         <v>0</v>
@@ -3466,10 +3488,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="46">
@@ -3512,7 +3534,7 @@
         <v>187</v>
       </c>
       <c r="Q6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R6" s="12">
         <v>0</v>
@@ -3526,10 +3548,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="46">
@@ -3572,7 +3594,7 @@
         <v>187</v>
       </c>
       <c r="Q7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R7" s="12">
         <v>0</v>
@@ -3586,10 +3608,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="46">
@@ -3632,7 +3654,7 @@
         <v>187</v>
       </c>
       <c r="Q8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R8" s="12">
         <v>0</v>
@@ -3646,10 +3668,10 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="46">
@@ -3662,7 +3684,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>17</v>
@@ -3692,7 +3714,7 @@
         <v>187</v>
       </c>
       <c r="Q9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R9" s="12">
         <v>0</v>
@@ -3706,7 +3728,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>217</v>
@@ -3742,7 +3764,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>17</v>
@@ -3768,7 +3790,7 @@
     </row>
     <row r="11" spans="1:20" ht="45">
       <c r="A11" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>222</v>
@@ -3825,7 +3847,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>224</v>
@@ -3882,7 +3904,7 @@
     </row>
     <row r="13" spans="1:20" ht="45">
       <c r="A13" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
         <v>230</v>
@@ -3939,7 +3961,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
         <v>232</v>
@@ -3987,7 +4009,7 @@
         <v>240</v>
       </c>
       <c r="Q14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R14" s="12">
         <v>1</v>
@@ -3996,7 +4018,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
@@ -4044,7 +4066,7 @@
         <v>242</v>
       </c>
       <c r="Q15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R15" s="12">
         <v>1</v>
@@ -4052,7 +4074,7 @@
     </row>
     <row r="16" spans="1:20" ht="30">
       <c r="A16" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
         <v>239</v>
@@ -4100,7 +4122,7 @@
         <v>244</v>
       </c>
       <c r="Q16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R16" s="12">
         <v>1</v>
@@ -4108,10 +4130,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
         <v>243</v>
@@ -4156,7 +4178,7 @@
         <v>245</v>
       </c>
       <c r="Q17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R17" s="12">
         <v>1</v>
@@ -4164,7 +4186,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B18" t="s">
         <v>248</v>
@@ -4212,7 +4234,7 @@
         <v>247</v>
       </c>
       <c r="Q18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R18" s="12">
         <v>1</v>
@@ -4220,10 +4242,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
         <v>254</v>
@@ -4268,7 +4290,7 @@
         <v>249</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R19" s="12">
         <v>1</v>
@@ -4276,42 +4298,42 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D25" s="12">
         <v>65</v>
@@ -4323,7 +4345,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D26" s="12">
         <v>250</v>
@@ -4335,7 +4357,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D27" s="12">
         <v>130</v>
@@ -4347,7 +4369,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D28" s="12">
         <v>65</v>
@@ -4359,7 +4381,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D29" s="12">
         <v>59</v>
@@ -4371,7 +4393,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D30" s="12">
         <v>65</v>
@@ -4383,7 +4405,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D31" s="12">
         <v>70</v>
@@ -4395,7 +4417,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D32" s="12">
         <v>6</v>
@@ -4407,7 +4429,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D33" s="12">
         <v>41</v>
@@ -4419,7 +4441,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D34" s="12">
         <v>39</v>
@@ -4431,7 +4453,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D35" s="12">
         <v>41</v>
@@ -4443,7 +4465,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D36" s="12">
         <v>17</v>
@@ -4455,7 +4477,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D37" s="12">
         <v>128</v>
@@ -4467,7 +4489,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D38" s="12">
         <v>130</v>
@@ -4479,7 +4501,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D39" s="12">
         <v>65</v>
@@ -4491,7 +4513,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D40" s="12">
         <v>78</v>
@@ -4503,7 +4525,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D41" s="12">
         <v>39</v>
@@ -4515,7 +4537,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D42" s="12">
         <v>69</v>
@@ -4527,31 +4549,31 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="43"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
@@ -4559,7 +4581,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>273</v>
@@ -4568,15 +4590,15 @@
         <v>274</v>
       </c>
       <c r="F47" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>353</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="12">
@@ -4590,13 +4612,13 @@
         <v>38446</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="12">
@@ -4616,7 +4638,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="12">
@@ -4636,7 +4658,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="12">
@@ -4647,7 +4669,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>17</v>
@@ -4656,7 +4678,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="12">
@@ -4676,7 +4698,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="12">
@@ -4696,7 +4718,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="21">
@@ -4706,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>17</v>
@@ -4715,7 +4737,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="21">
@@ -4738,7 +4760,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="21">
@@ -4761,7 +4783,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="21">
@@ -4784,7 +4806,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="21">
@@ -4807,7 +4829,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D59" s="21">
         <v>11</v>
@@ -4829,7 +4851,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D60" s="21">
         <v>12</v>
@@ -4851,7 +4873,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D61" s="21">
         <v>13</v>
@@ -4873,7 +4895,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D62" s="12">
         <v>14</v>
@@ -4882,7 +4904,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G62" s="14">
         <v>39334</v>
@@ -4895,7 +4917,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D63" s="21">
         <v>16</v>
@@ -4913,7 +4935,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D64" s="21">
         <v>15</v>
@@ -4931,7 +4953,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D65" s="21">
         <v>17</v>
@@ -4940,7 +4962,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G65" s="1">
         <v>38698</v>
@@ -4949,7 +4971,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D66" s="21">
         <v>18</v>
@@ -4958,16 +4980,16 @@
         <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>366</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>367</v>
       </c>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D67" s="21">
         <v>19</v>
@@ -4976,7 +4998,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G67" s="1">
         <v>38058</v>
@@ -4985,7 +5007,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D68" s="22">
         <v>20</v>
@@ -5003,7 +5025,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D69" s="21">
         <v>21</v>
@@ -5012,16 +5034,16 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G69" s="21" t="s">
         <v>371</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>372</v>
       </c>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D70" s="21">
         <v>22</v>
@@ -5033,13 +5055,13 @@
         <v>37600</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D71" s="21">
         <v>23</v>
@@ -5051,13 +5073,13 @@
         <v>33857</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D72" s="22">
         <v>24</v>
@@ -5075,7 +5097,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D73" s="22">
         <v>25</v>
@@ -5084,16 +5106,16 @@
         <v>7</v>
       </c>
       <c r="F73" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>378</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>379</v>
       </c>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D74" s="21">
         <v>21</v>
@@ -5105,13 +5127,13 @@
         <v>38811</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D75" s="21">
         <v>26</v>
@@ -5120,16 +5142,16 @@
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G75" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>391</v>
       </c>
       <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D76" s="21">
         <v>27</v>
@@ -5138,7 +5160,7 @@
         <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G76" s="1">
         <v>33946</v>
@@ -5147,7 +5169,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D77" s="21">
         <v>26</v>
@@ -5165,7 +5187,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D78" s="21">
         <v>20</v>
@@ -5174,16 +5196,16 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D79" s="22">
         <v>27</v>
@@ -5195,13 +5217,13 @@
         <v>17137</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D80" s="21">
         <v>21</v>
@@ -5210,15 +5232,15 @@
         <v>2</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D81" s="21">
         <v>28</v>
@@ -5235,7 +5257,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -5244,7 +5266,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -5445,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -5453,7 +5475,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -5461,7 +5483,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -5469,7 +5491,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5478,7 +5500,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -5486,7 +5508,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -5494,7 +5516,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -5502,7 +5524,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -5510,7 +5532,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -5518,7 +5540,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5526,7 +5548,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -5534,7 +5556,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -5542,7 +5564,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -5551,7 +5573,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -5559,7 +5581,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -5567,7 +5589,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -5575,7 +5597,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -5583,7 +5605,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -7271,13 +7293,13 @@
         <v>19</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="2:17">
@@ -7337,7 +7359,7 @@
         <v>255</v>
       </c>
       <c r="Q91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="2:17">
@@ -7364,7 +7386,7 @@
         <v>255</v>
       </c>
       <c r="Q92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="2:17">
@@ -7382,7 +7404,7 @@
         <v>19</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>17</v>
@@ -7406,13 +7428,13 @@
         <v>19</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="2:17">
@@ -7432,7 +7454,7 @@
         <v>19</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M95" s="12" t="s">
         <v>17</v>
@@ -7441,7 +7463,7 @@
         <v>255</v>
       </c>
       <c r="Q95" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="2:17">
@@ -7459,7 +7481,7 @@
         <v>19</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>17</v>
@@ -7485,13 +7507,13 @@
         <v>19</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -7509,13 +7531,13 @@
         <v>19</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M98" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -7536,13 +7558,13 @@
         <v>19</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M99" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -7562,13 +7584,13 @@
         <v>213</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M100" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -7580,7 +7602,7 @@
         <v>102</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>206</v>
@@ -7589,18 +7611,18 @@
         <v>19</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B102" s="35"/>
       <c r="C102">
@@ -7619,7 +7641,7 @@
         <v>19</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>17</v>
@@ -7663,7 +7685,7 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -7684,7 +7706,7 @@
         <v>213</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>17</v>
@@ -7759,31 +7781,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R13"/>
+  <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" customWidth="1"/>
-    <col min="4" max="7" width="12" customWidth="1"/>
-    <col min="8" max="11" width="12" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="16" width="13" style="12" customWidth="1"/>
-    <col min="17" max="18" width="13" customWidth="1"/>
+    <col min="4" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="13" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="12" customWidth="1"/>
+    <col min="15" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
-      <c r="N2" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    <row r="2" spans="1:16">
+      <c r="C2" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -7808,34 +7841,28 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
         <v>276</v>
@@ -7855,20 +7882,20 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
+      <c r="K4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12394</v>
+      </c>
       <c r="M4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1">
-        <v>12394</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16">
       <c r="B5" s="16"/>
       <c r="C5" s="12">
         <v>2</v>
@@ -7885,20 +7912,20 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
+      <c r="K5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="M5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="B6" s="17"/>
       <c r="C6" s="12">
         <v>3</v>
@@ -7915,22 +7942,22 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
+      <c r="K6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="M6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
         <v>310</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>311</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="12">
@@ -7948,20 +7975,20 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
+      <c r="K7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="1">
+        <v>26914</v>
+      </c>
       <c r="M7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1">
-        <v>26914</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:16">
       <c r="B8" s="16" t="s">
         <v>277</v>
       </c>
@@ -7980,20 +8007,20 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
+      <c r="K8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>22866</v>
+      </c>
       <c r="M8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="1">
-        <v>22866</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -8009,22 +8036,22 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
+      <c r="K9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1">
+        <v>19512</v>
+      </c>
       <c r="M9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1">
-        <v>19512</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="12">
         <v>7</v>
@@ -8041,22 +8068,22 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
+      <c r="K10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>17015</v>
+      </c>
       <c r="M10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1">
-        <v>17015</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="12">
         <v>8</v>
@@ -8073,22 +8100,22 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
+      <c r="K11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>19546</v>
+      </c>
       <c r="M11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="1">
-        <v>19546</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C12" s="12">
         <v>9</v>
@@ -8105,20 +8132,20 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
+      <c r="K12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="M12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:16">
       <c r="C13" s="12">
         <v>10</v>
       </c>
@@ -8134,31 +8161,34 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
+      <c r="K13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1">
+        <v>20641</v>
+      </c>
       <c r="M13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="1">
-        <v>20641</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="O3">
+  <mergeCells count="1">
+    <mergeCell ref="C2:P2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M3">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
+  <conditionalFormatting sqref="L3">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="L1 L3:L1048576">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
@@ -8248,7 +8278,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>277</v>
@@ -8272,7 +8302,7 @@
         <v>213</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>17</v>
@@ -8283,7 +8313,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>276</v>
@@ -8307,18 +8337,18 @@
         <v>213</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="12">
         <v>3</v>
@@ -8339,7 +8369,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>17</v>
@@ -8368,7 +8398,7 @@
         <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>17</v>
@@ -8397,7 +8427,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>17</v>
@@ -8408,7 +8438,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="12">
         <v>6</v>
@@ -8429,7 +8459,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>17</v>
@@ -8487,7 +8517,7 @@
         <v>19</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>17</v>
@@ -8516,18 +8546,18 @@
         <v>213</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" s="12">
         <v>10</v>
@@ -8548,7 +8578,7 @@
         <v>213</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>17</v>

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25220" windowHeight="20260" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="405">
   <si>
     <t>idDirector</t>
   </si>
@@ -1960,33 +1960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2003,6 +1976,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="501">
@@ -2510,14 +2510,20 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2570,14 +2576,20 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2608,106 +2620,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
@@ -2757,6 +2669,50 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
@@ -2812,6 +2768,50 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2821,23 +2821,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D3:R19" totalsRowShown="0">
   <autoFilter ref="D3:R19"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="idDirector" dataDxfId="16"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="46"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="49"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="45"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido" dataDxfId="48"/>
-    <tableColumn id="6" name="telf1" dataDxfId="47">
+    <tableColumn id="5" name="segundo apellido" dataDxfId="44"/>
+    <tableColumn id="6" name="telf1" dataDxfId="43">
       <calculatedColumnFormula>RANDBETWEEN(1111111111,9999999999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="telf2" dataDxfId="46"/>
-    <tableColumn id="8" name="telf3" dataDxfId="45"/>
-    <tableColumn id="11" name="sexo" dataDxfId="44"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="43"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="42"/>
-    <tableColumn id="14" name="foto" dataDxfId="41"/>
-    <tableColumn id="15" name="fkLugar" dataDxfId="40"/>
+    <tableColumn id="7" name="telf2" dataDxfId="42"/>
+    <tableColumn id="8" name="telf3" dataDxfId="41"/>
+    <tableColumn id="11" name="sexo" dataDxfId="40"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="39"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="38"/>
+    <tableColumn id="14" name="foto" dataDxfId="37"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="36"/>
     <tableColumn id="16" name="detalleDireccion"/>
-    <tableColumn id="9" name="invitado" dataDxfId="39"/>
+    <tableColumn id="9" name="invitado" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2847,8 +2847,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="D24:E42" totalsRowShown="0">
   <autoFilter ref="D24:E42"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="pkNacionalidad" dataDxfId="38"/>
-    <tableColumn id="2" name="pkDirOrq" dataDxfId="37"/>
+    <tableColumn id="1" name="pkNacionalidad" dataDxfId="34"/>
+    <tableColumn id="2" name="pkDirOrq" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2858,14 +2858,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="D47:G81" totalsRowShown="0">
   <autoFilter ref="D47:G81"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="pkOrquesta" dataDxfId="36">
+    <tableColumn id="1" name="pkOrquesta" dataDxfId="32">
       <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="35">
+    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="31">
       <calculatedColumnFormula>(DirectorOquesta!D10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="fecha inicio" dataDxfId="34"/>
-    <tableColumn id="4" name="fecha fin" dataDxfId="17"/>
+    <tableColumn id="3" name="fecha inicio" dataDxfId="30"/>
+    <tableColumn id="4" name="fecha fin" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2887,17 +2887,17 @@
   <autoFilter ref="C3:P104"/>
   <tableColumns count="14">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="33"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="32"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="31"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="24"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="23"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="22"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
-    <tableColumn id="11" name="sexo" dataDxfId="30"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="29"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="28"/>
-    <tableColumn id="14" name="foto" dataDxfId="27"/>
+    <tableColumn id="11" name="sexo" dataDxfId="21"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="20"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="19"/>
+    <tableColumn id="14" name="foto" dataDxfId="18"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2909,7 +2909,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:P13" totalsRowShown="0">
   <autoFilter ref="C3:P13"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="idDirector" dataDxfId="26"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="14"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2917,10 +2917,10 @@
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
-    <tableColumn id="11" name="sexo" dataDxfId="25"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="15"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="24"/>
-    <tableColumn id="14" name="foto" dataDxfId="23"/>
+    <tableColumn id="11" name="sexo" dataDxfId="13"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="12"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="11"/>
+    <tableColumn id="14" name="foto" dataDxfId="10"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2932,7 +2932,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="22"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="4"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2942,10 +2942,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="21"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="20"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="19"/>
-    <tableColumn id="14" name="foto" dataDxfId="18"/>
+    <tableColumn id="11" name="sexo" dataDxfId="3"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="2"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="1"/>
+    <tableColumn id="14" name="foto" dataDxfId="0"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -3300,22 +3300,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="3" spans="1:20">
       <c r="D3" s="12" t="s">
@@ -3365,16 +3365,16 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -3427,14 +3427,14 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>397</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="46">
+      <c r="C5" s="40"/>
+      <c r="D5" s="37">
         <v>2</v>
       </c>
       <c r="E5" t="s">
@@ -3487,14 +3487,14 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="46">
+      <c r="C6" s="40"/>
+      <c r="D6" s="37">
         <v>3</v>
       </c>
       <c r="E6" t="s">
@@ -3547,14 +3547,14 @@
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>391</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="46">
+      <c r="C7" s="40"/>
+      <c r="D7" s="37">
         <v>4</v>
       </c>
       <c r="E7" t="s">
@@ -3607,14 +3607,14 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="46">
+      <c r="C8" s="40"/>
+      <c r="D8" s="37">
         <v>5</v>
       </c>
       <c r="E8" t="s">
@@ -3667,14 +3667,14 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B9" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="46">
+      <c r="C9" s="40"/>
+      <c r="D9" s="37">
         <v>6</v>
       </c>
       <c r="E9" t="s">
@@ -3722,12 +3722,12 @@
       <c r="S9">
         <v>2002</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B10" t="s">
@@ -3736,7 +3736,7 @@
       <c r="C10" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="37">
         <v>7</v>
       </c>
       <c r="E10" t="s">
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="45">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -3798,7 +3798,7 @@
       <c r="C11" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="37">
         <v>8</v>
       </c>
       <c r="E11" t="s">
@@ -3846,7 +3846,7 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B12" t="s">
@@ -3855,7 +3855,7 @@
       <c r="C12" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="37">
         <v>9</v>
       </c>
       <c r="E12" t="s">
@@ -3903,7 +3903,7 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="45">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B13" t="s">
@@ -3912,7 +3912,7 @@
       <c r="C13" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="37">
         <v>10</v>
       </c>
       <c r="E13" t="s">
@@ -3960,7 +3960,7 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B14" t="s">
@@ -3969,7 +3969,7 @@
       <c r="C14" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="37">
         <v>11</v>
       </c>
       <c r="E14" t="s">
@@ -4017,7 +4017,7 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B15" t="s">
@@ -4026,7 +4026,7 @@
       <c r="C15" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="37">
         <v>12</v>
       </c>
       <c r="E15" t="s">
@@ -4073,7 +4073,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B16" t="s">
@@ -4082,7 +4082,7 @@
       <c r="C16" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="37">
         <v>13</v>
       </c>
       <c r="E16" t="s">
@@ -4129,7 +4129,7 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B17" t="s">
@@ -4138,7 +4138,7 @@
       <c r="C17" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="37">
         <v>14</v>
       </c>
       <c r="E17" t="s">
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B18" t="s">
@@ -4194,7 +4194,7 @@
       <c r="C18" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="37">
         <v>15</v>
       </c>
       <c r="E18" t="s">
@@ -4241,7 +4241,7 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B19" t="s">
@@ -4250,7 +4250,7 @@
       <c r="C19" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="38">
         <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -4297,31 +4297,31 @@
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="35" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="35" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="35" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -4332,7 +4332,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D25" s="12">
@@ -4341,10 +4341,10 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D26" s="12">
@@ -4353,10 +4353,10 @@
       <c r="E26" s="12">
         <v>2</v>
       </c>
-      <c r="F26" s="43"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D27" s="12">
@@ -4365,10 +4365,10 @@
       <c r="E27" s="12">
         <v>3</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D28" s="12">
@@ -4377,10 +4377,10 @@
       <c r="E28" s="12">
         <v>4</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D29" s="12">
@@ -4389,10 +4389,10 @@
       <c r="E29" s="12">
         <v>5</v>
       </c>
-      <c r="F29" s="43"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D30" s="12">
@@ -4401,10 +4401,10 @@
       <c r="E30" s="12">
         <v>6</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D31" s="12">
@@ -4413,10 +4413,10 @@
       <c r="E31" s="12">
         <v>7</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D32" s="12">
@@ -4425,10 +4425,10 @@
       <c r="E32" s="12">
         <v>8</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D33" s="12">
@@ -4437,10 +4437,10 @@
       <c r="E33" s="12">
         <v>9</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D34" s="12">
@@ -4449,10 +4449,10 @@
       <c r="E34" s="12">
         <v>10</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D35" s="12">
@@ -4461,10 +4461,10 @@
       <c r="E35" s="12">
         <v>11</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D36" s="12">
@@ -4473,10 +4473,10 @@
       <c r="E36" s="12">
         <v>12</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="34"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D37" s="12">
@@ -4485,10 +4485,10 @@
       <c r="E37" s="12">
         <v>13</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D38" s="12">
@@ -4497,10 +4497,10 @@
       <c r="E38" s="12">
         <v>14</v>
       </c>
-      <c r="F38" s="43"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D39" s="12">
@@ -4509,10 +4509,10 @@
       <c r="E39" s="12">
         <v>15</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="34"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D40" s="12">
@@ -4521,10 +4521,10 @@
       <c r="E40" s="13">
         <v>16</v>
       </c>
-      <c r="F40" s="43"/>
+      <c r="F40" s="34"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D41" s="12">
@@ -4533,10 +4533,10 @@
       <c r="E41" s="12">
         <v>8</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D42" s="12">
@@ -4545,42 +4545,42 @@
       <c r="E42" s="12">
         <v>8</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="35" t="s">
         <v>403</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="43"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="35" t="s">
         <v>403</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="43"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -4597,7 +4597,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C48" s="24"/>
@@ -4617,7 +4617,7 @@
       <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C49" s="24"/>
@@ -4637,7 +4637,7 @@
       <c r="H49" s="29"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C50" s="24"/>
@@ -4657,7 +4657,7 @@
       <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C51" s="24"/>
@@ -4677,7 +4677,7 @@
       <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C52" s="24"/>
@@ -4697,7 +4697,7 @@
       <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C53" s="25"/>
@@ -4717,7 +4717,7 @@
       <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C54" s="25"/>
@@ -4736,7 +4736,7 @@
       <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C55" s="24"/>
@@ -4759,7 +4759,7 @@
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C56" s="24"/>
@@ -4782,7 +4782,7 @@
       <c r="M56" s="29"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C57" s="24"/>
@@ -4805,7 +4805,7 @@
       <c r="M57" s="29"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="35" t="s">
         <v>403</v>
       </c>
       <c r="C58" s="24"/>
@@ -4828,7 +4828,7 @@
       <c r="M58" s="29"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D59" s="21">
@@ -4850,7 +4850,7 @@
       <c r="M59" s="30"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D60" s="21">
@@ -4872,7 +4872,7 @@
       <c r="M60" s="30"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="44" t="s">
+      <c r="A61" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D61" s="21">
@@ -4894,7 +4894,7 @@
       <c r="M61" s="30"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D62" s="12">
@@ -4916,7 +4916,7 @@
       <c r="M62" s="30"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D63" s="21">
@@ -4934,7 +4934,7 @@
       <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D64" s="21">
@@ -4952,7 +4952,7 @@
       <c r="H64" s="30"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D65" s="21">
@@ -4970,7 +4970,7 @@
       <c r="H65" s="30"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D66" s="21">
@@ -4988,7 +4988,7 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D67" s="21">
@@ -5006,7 +5006,7 @@
       <c r="H67" s="30"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D68" s="22">
@@ -5024,7 +5024,7 @@
       <c r="H68" s="30"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D69" s="21">
@@ -5042,7 +5042,7 @@
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D70" s="21">
@@ -5060,7 +5060,7 @@
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D71" s="21">
@@ -5078,7 +5078,7 @@
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="44" t="s">
+      <c r="A72" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D72" s="22">
@@ -5096,7 +5096,7 @@
       <c r="H72" s="30"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D73" s="22">
@@ -5114,7 +5114,7 @@
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D74" s="21">
@@ -5132,7 +5132,7 @@
       <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D75" s="21">
@@ -5150,7 +5150,7 @@
       <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D76" s="21">
@@ -5168,7 +5168,7 @@
       <c r="H76" s="30"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D77" s="21">
@@ -5183,10 +5183,10 @@
       <c r="G77" s="1">
         <v>30659</v>
       </c>
-      <c r="H77" s="42"/>
+      <c r="H77" s="33"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D78" s="21">
@@ -5204,7 +5204,7 @@
       <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D79" s="22">
@@ -5222,7 +5222,7 @@
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D80" s="21">
@@ -5239,7 +5239,7 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D81" s="21">
@@ -5256,7 +5256,7 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D82" s="21"/>
@@ -5265,7 +5265,7 @@
       <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="35" t="s">
         <v>403</v>
       </c>
       <c r="D83" s="21"/>
@@ -5312,22 +5312,21 @@
     <mergeCell ref="F45:G45"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:N1048576 M1:M54">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M1048576">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D42">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="I4:I12 I13:I19 D48:D53 D54:E62 D63:E66 D67:E67 D68:E68 D69:E69 D71 E71:E73 D72:D73 D70:E70 D74:E74 D75:E75 D76:E76 D77:E77 D78:E79 D80:E81" calculatedColumn="1"/>
   </ignoredErrors>
@@ -5359,10 +5358,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" t="s">
@@ -5495,7 +5494,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="41"/>
+      <c r="B18" s="32"/>
       <c r="C18">
         <v>15</v>
       </c>
@@ -5568,7 +5567,7 @@
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="41"/>
+      <c r="B27" s="32"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -5617,7 +5616,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -5635,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5651,22 +5650,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="2:17">
       <c r="C3" t="s">
@@ -5716,7 +5715,7 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="46" t="s">
         <v>64</v>
       </c>
       <c r="C4">
@@ -5738,7 +5737,7 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="36"/>
+      <c r="B5" s="46"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -5755,7 +5754,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="36"/>
+      <c r="B6" s="46"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -5772,7 +5771,7 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="36"/>
+      <c r="B7" s="46"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -5789,7 +5788,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="36"/>
+      <c r="B8" s="46"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -5806,7 +5805,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="36"/>
+      <c r="B9" s="46"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -5823,7 +5822,7 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="36"/>
+      <c r="B10" s="46"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -5840,7 +5839,7 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="36"/>
+      <c r="B11" s="46"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -5857,7 +5856,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="36"/>
+      <c r="B12" s="46"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -5874,7 +5873,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="36"/>
+      <c r="B13" s="46"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -5891,7 +5890,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="36"/>
+      <c r="B14" s="46"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -5908,7 +5907,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="36"/>
+      <c r="B15" s="46"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -5925,7 +5924,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="36"/>
+      <c r="B16" s="46"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -5942,7 +5941,7 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="36"/>
+      <c r="B17" s="46"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -5959,7 +5958,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C18">
@@ -5978,7 +5977,7 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="37"/>
+      <c r="B19" s="47"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -5995,7 +5994,7 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="37"/>
+      <c r="B20" s="47"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -6012,7 +6011,7 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="37"/>
+      <c r="B21" s="47"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -6029,7 +6028,7 @@
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="37"/>
+      <c r="B22" s="47"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -6046,7 +6045,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="37"/>
+      <c r="B23" s="47"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -6063,7 +6062,7 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="37"/>
+      <c r="B24" s="47"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -6080,7 +6079,7 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="37"/>
+      <c r="B25" s="47"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -6105,7 +6104,7 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="37"/>
+      <c r="B26" s="47"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -6122,7 +6121,7 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="37"/>
+      <c r="B27" s="47"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -6139,7 +6138,7 @@
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="37"/>
+      <c r="B28" s="47"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -6164,7 +6163,7 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="37"/>
+      <c r="B29" s="47"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -6189,7 +6188,7 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="37"/>
+      <c r="B30" s="47"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -6214,7 +6213,7 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C31">
@@ -6233,7 +6232,7 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="35"/>
+      <c r="B32" s="43"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -6250,7 +6249,7 @@
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="35"/>
+      <c r="B33" s="43"/>
       <c r="C33">
         <v>30</v>
       </c>
@@ -6267,7 +6266,7 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="35"/>
+      <c r="B34" s="43"/>
       <c r="C34">
         <v>31</v>
       </c>
@@ -6284,7 +6283,7 @@
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="35"/>
+      <c r="B35" s="43"/>
       <c r="C35">
         <v>32</v>
       </c>
@@ -6301,7 +6300,7 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="35"/>
+      <c r="B36" s="43"/>
       <c r="C36">
         <v>33</v>
       </c>
@@ -6318,7 +6317,7 @@
       <c r="N36" s="12"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="35"/>
+      <c r="B37" s="43"/>
       <c r="C37">
         <v>34</v>
       </c>
@@ -6335,7 +6334,7 @@
       <c r="N37" s="12"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="35"/>
+      <c r="B38" s="43"/>
       <c r="C38">
         <v>35</v>
       </c>
@@ -6352,7 +6351,7 @@
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="35"/>
+      <c r="B39" s="43"/>
       <c r="C39">
         <v>36</v>
       </c>
@@ -6369,7 +6368,7 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="35"/>
+      <c r="B40" s="43"/>
       <c r="C40">
         <v>37</v>
       </c>
@@ -6386,7 +6385,7 @@
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="35"/>
+      <c r="B41" s="43"/>
       <c r="C41">
         <v>38</v>
       </c>
@@ -6403,7 +6402,7 @@
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="35"/>
+      <c r="B42" s="43"/>
       <c r="C42">
         <v>39</v>
       </c>
@@ -6420,7 +6419,7 @@
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C43">
@@ -6439,7 +6438,7 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="38"/>
+      <c r="B44" s="42"/>
       <c r="C44">
         <v>41</v>
       </c>
@@ -6456,7 +6455,7 @@
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="38"/>
+      <c r="B45" s="42"/>
       <c r="C45">
         <v>42</v>
       </c>
@@ -6473,7 +6472,7 @@
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="38"/>
+      <c r="B46" s="42"/>
       <c r="C46">
         <v>43</v>
       </c>
@@ -6490,7 +6489,7 @@
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="38"/>
+      <c r="B47" s="42"/>
       <c r="C47">
         <v>44</v>
       </c>
@@ -6507,7 +6506,7 @@
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="38"/>
+      <c r="B48" s="42"/>
       <c r="C48">
         <v>45</v>
       </c>
@@ -6524,7 +6523,7 @@
       <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="B49" s="38"/>
+      <c r="B49" s="42"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -6541,7 +6540,7 @@
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="B50" s="38"/>
+      <c r="B50" s="42"/>
       <c r="C50">
         <v>47</v>
       </c>
@@ -6558,7 +6557,7 @@
       <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="B51" s="38"/>
+      <c r="B51" s="42"/>
       <c r="C51">
         <v>48</v>
       </c>
@@ -6575,7 +6574,7 @@
       <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="B52" s="38"/>
+      <c r="B52" s="42"/>
       <c r="C52">
         <v>49</v>
       </c>
@@ -6600,7 +6599,7 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="43" t="s">
         <v>138</v>
       </c>
       <c r="C53">
@@ -6619,7 +6618,7 @@
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="B54" s="35"/>
+      <c r="B54" s="43"/>
       <c r="C54">
         <v>51</v>
       </c>
@@ -6636,7 +6635,7 @@
       <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="B55" s="35"/>
+      <c r="B55" s="43"/>
       <c r="C55">
         <v>52</v>
       </c>
@@ -6653,7 +6652,7 @@
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="35"/>
+      <c r="B56" s="43"/>
       <c r="C56">
         <v>53</v>
       </c>
@@ -6670,7 +6669,7 @@
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="B57" s="35"/>
+      <c r="B57" s="43"/>
       <c r="C57">
         <v>54</v>
       </c>
@@ -6687,7 +6686,7 @@
       <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="B58" s="35"/>
+      <c r="B58" s="43"/>
       <c r="C58">
         <v>55</v>
       </c>
@@ -6704,7 +6703,7 @@
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="35"/>
+      <c r="B59" s="43"/>
       <c r="C59">
         <v>56</v>
       </c>
@@ -6721,7 +6720,7 @@
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="B60" s="35"/>
+      <c r="B60" s="43"/>
       <c r="C60">
         <v>57</v>
       </c>
@@ -6738,7 +6737,7 @@
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C61">
@@ -6757,7 +6756,7 @@
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="B62" s="38"/>
+      <c r="B62" s="42"/>
       <c r="C62">
         <v>59</v>
       </c>
@@ -6774,7 +6773,7 @@
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="B63" s="38"/>
+      <c r="B63" s="42"/>
       <c r="C63">
         <v>60</v>
       </c>
@@ -6791,10 +6790,10 @@
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="42"/>
       <c r="C64">
         <v>61</v>
       </c>
@@ -6811,8 +6810,8 @@
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="39"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="42"/>
       <c r="C65">
         <v>62</v>
       </c>
@@ -6837,7 +6836,7 @@
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C66">
@@ -6856,7 +6855,7 @@
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="B67" s="35"/>
+      <c r="B67" s="43"/>
       <c r="C67">
         <v>64</v>
       </c>
@@ -6873,7 +6872,7 @@
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="B68" s="35"/>
+      <c r="B68" s="43"/>
       <c r="C68">
         <v>65</v>
       </c>
@@ -6898,7 +6897,7 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="B69" s="35"/>
+      <c r="B69" s="43"/>
       <c r="C69">
         <v>66</v>
       </c>
@@ -6918,7 +6917,7 @@
       <c r="A70" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="35"/>
+      <c r="B70" s="43"/>
       <c r="C70">
         <v>67</v>
       </c>
@@ -6935,7 +6934,7 @@
       <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C71">
@@ -6954,7 +6953,7 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="B72" s="38"/>
+      <c r="B72" s="42"/>
       <c r="C72">
         <v>69</v>
       </c>
@@ -6971,7 +6970,7 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="B73" s="38"/>
+      <c r="B73" s="42"/>
       <c r="C73">
         <v>70</v>
       </c>
@@ -6999,7 +6998,7 @@
       <c r="A74" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="38"/>
+      <c r="B74" s="42"/>
       <c r="C74">
         <v>71</v>
       </c>
@@ -7016,7 +7015,7 @@
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="43" t="s">
         <v>171</v>
       </c>
       <c r="C75">
@@ -7035,7 +7034,7 @@
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="B76" s="35"/>
+      <c r="B76" s="43"/>
       <c r="C76">
         <v>73</v>
       </c>
@@ -7052,7 +7051,7 @@
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="B77" s="35"/>
+      <c r="B77" s="43"/>
       <c r="C77">
         <v>74</v>
       </c>
@@ -7072,7 +7071,7 @@
       <c r="A78" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="35"/>
+      <c r="B78" s="43"/>
       <c r="C78">
         <v>75</v>
       </c>
@@ -7097,7 +7096,7 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="42" t="s">
         <v>181</v>
       </c>
       <c r="C79">
@@ -7116,7 +7115,7 @@
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="B80" s="38"/>
+      <c r="B80" s="42"/>
       <c r="C80">
         <v>77</v>
       </c>
@@ -7133,7 +7132,7 @@
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="2:17">
-      <c r="B81" s="38"/>
+      <c r="B81" s="42"/>
       <c r="C81">
         <v>78</v>
       </c>
@@ -7150,7 +7149,7 @@
       <c r="N81" s="12"/>
     </row>
     <row r="82" spans="2:17">
-      <c r="B82" s="38"/>
+      <c r="B82" s="42"/>
       <c r="C82">
         <v>79</v>
       </c>
@@ -7167,7 +7166,7 @@
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="2:17">
-      <c r="B83" s="38"/>
+      <c r="B83" s="42"/>
       <c r="C83">
         <v>80</v>
       </c>
@@ -7184,7 +7183,7 @@
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="2:17">
-      <c r="B84" s="38"/>
+      <c r="B84" s="42"/>
       <c r="C84">
         <v>81</v>
       </c>
@@ -7201,7 +7200,7 @@
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="2:17">
-      <c r="B85" s="38"/>
+      <c r="B85" s="42"/>
       <c r="C85">
         <v>82</v>
       </c>
@@ -7218,7 +7217,7 @@
       <c r="N85" s="12"/>
     </row>
     <row r="86" spans="2:17">
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C86">
@@ -7245,7 +7244,7 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:17">
-      <c r="B87" s="35"/>
+      <c r="B87" s="43"/>
       <c r="C87">
         <v>84</v>
       </c>
@@ -7262,7 +7261,7 @@
       <c r="N87" s="12"/>
     </row>
     <row r="88" spans="2:17">
-      <c r="B88" s="35"/>
+      <c r="B88" s="43"/>
       <c r="C88">
         <v>85</v>
       </c>
@@ -7279,16 +7278,22 @@
       <c r="N88" s="12"/>
     </row>
     <row r="89" spans="2:17">
-      <c r="B89" s="35"/>
+      <c r="B89" s="43"/>
       <c r="C89">
         <v>86</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E89" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="K89" s="12" t="s">
         <v>19</v>
       </c>
@@ -7303,18 +7308,22 @@
       </c>
     </row>
     <row r="90" spans="2:17">
-      <c r="B90" s="35"/>
+      <c r="B90" s="43"/>
       <c r="C90">
         <v>87</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F90" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -7334,7 +7343,7 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:17">
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="42" t="s">
         <v>194</v>
       </c>
       <c r="C91">
@@ -7343,9 +7352,15 @@
       <c r="D91" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="E91" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F91" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K91" s="12" t="s">
         <v>19</v>
       </c>
@@ -7363,16 +7378,22 @@
       </c>
     </row>
     <row r="92" spans="2:17">
-      <c r="B92" s="38"/>
+      <c r="B92" s="42"/>
       <c r="C92">
         <v>89</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E92" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F92" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="K92" s="12" t="s">
         <v>19</v>
       </c>
@@ -7390,16 +7411,22 @@
       </c>
     </row>
     <row r="93" spans="2:17">
-      <c r="B93" s="38"/>
+      <c r="B93" s="42"/>
       <c r="C93">
         <v>90</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>191</v>
       </c>
+      <c r="E93" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F93" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
       <c r="K93" s="12" t="s">
         <v>19</v>
       </c>
@@ -7414,16 +7441,22 @@
       </c>
     </row>
     <row r="94" spans="2:17">
-      <c r="B94" s="38"/>
+      <c r="B94" s="42"/>
       <c r="C94">
         <v>91</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="E94" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F94" s="3" t="s">
         <v>193</v>
       </c>
+      <c r="G94" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K94" s="12" t="s">
         <v>19</v>
       </c>
@@ -7438,7 +7471,7 @@
       </c>
     </row>
     <row r="95" spans="2:17">
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="44" t="s">
         <v>198</v>
       </c>
       <c r="C95">
@@ -7447,9 +7480,15 @@
       <c r="D95" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="E95" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F95" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
       <c r="K95" s="12" t="s">
         <v>19</v>
       </c>
@@ -7467,16 +7506,22 @@
       </c>
     </row>
     <row r="96" spans="2:17">
-      <c r="B96" s="40"/>
+      <c r="B96" s="44"/>
       <c r="C96">
         <v>93</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="E96" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F96" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
       <c r="K96" s="12" t="s">
         <v>19</v>
       </c>
@@ -7491,7 +7536,7 @@
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="42" t="s">
         <v>203</v>
       </c>
       <c r="C97">
@@ -7500,9 +7545,15 @@
       <c r="D97" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="E97" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F97" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="G97" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K97" s="12" t="s">
         <v>19</v>
       </c>
@@ -7517,15 +7568,21 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="B98" s="38"/>
+      <c r="B98" s="42"/>
       <c r="C98">
         <v>95</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E98" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F98" s="3" t="s">
         <v>201</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>19</v>
@@ -7544,16 +7601,22 @@
       <c r="A99" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="38"/>
+      <c r="B99" s="42"/>
       <c r="C99">
         <v>96</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="E99" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F99" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
       <c r="K99" s="12" t="s">
         <v>19</v>
       </c>
@@ -7568,7 +7631,7 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="43" t="s">
         <v>208</v>
       </c>
       <c r="C100">
@@ -7577,9 +7640,15 @@
       <c r="D100" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="E100" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F100" s="3" t="s">
         <v>205</v>
       </c>
+      <c r="G100" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K100" s="12" t="s">
         <v>213</v>
       </c>
@@ -7594,7 +7663,7 @@
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="B101" s="35"/>
+      <c r="B101" s="43"/>
       <c r="C101">
         <v>98</v>
       </c>
@@ -7606,6 +7675,9 @@
       </c>
       <c r="F101" s="3" t="s">
         <v>206</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>19</v>
@@ -7624,13 +7696,16 @@
       <c r="A102" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B102" s="35"/>
+      <c r="B102" s="43"/>
       <c r="C102">
         <v>99</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="E102" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F102" s="3" t="s">
         <v>207</v>
       </c>
@@ -7651,7 +7726,7 @@
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="42" t="s">
         <v>212</v>
       </c>
       <c r="C103">
@@ -7660,7 +7735,9 @@
       <c r="D103" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F103" s="4" t="s">
         <v>210</v>
       </c>
@@ -7689,12 +7766,15 @@
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="B104" s="38"/>
+      <c r="B104" s="42"/>
       <c r="C104">
         <v>101</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>100</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>211</v>
@@ -7733,6 +7813,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -7740,30 +7831,19 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:M3">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N104">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L104">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7783,7 +7863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -7799,22 +7879,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16">
       <c r="C3" s="12" t="s">
@@ -8179,22 +8259,21 @@
     <mergeCell ref="C2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1 L3:L1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -8589,27 +8668,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3 N9:N1048576 N7">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
@@ -1986,23 +1986,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="501">
@@ -3277,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5634,7 +5634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
@@ -5715,7 +5715,7 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C4">
@@ -5737,7 +5737,7 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="46"/>
+      <c r="B5" s="43"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="46"/>
+      <c r="B6" s="43"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -5771,7 +5771,7 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="46"/>
+      <c r="B7" s="43"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="46"/>
+      <c r="B8" s="43"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="46"/>
+      <c r="B9" s="43"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="46"/>
+      <c r="B10" s="43"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="46"/>
+      <c r="B11" s="43"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="46"/>
+      <c r="B12" s="43"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="46"/>
+      <c r="B13" s="43"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="46"/>
+      <c r="B14" s="43"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="46"/>
+      <c r="B15" s="43"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="46"/>
+      <c r="B16" s="43"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="46"/>
+      <c r="B17" s="43"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C18">
@@ -5977,7 +5977,7 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="47"/>
+      <c r="B19" s="44"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="47"/>
+      <c r="B21" s="44"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="47"/>
+      <c r="B22" s="44"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="47"/>
+      <c r="B23" s="44"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="47"/>
+      <c r="B24" s="44"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="47"/>
+      <c r="B25" s="44"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="47"/>
+      <c r="B27" s="44"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="47"/>
+      <c r="B28" s="44"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="47"/>
+      <c r="B29" s="44"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="47"/>
+      <c r="B30" s="44"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>109</v>
       </c>
       <c r="C31">
@@ -6232,7 +6232,7 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="43"/>
+      <c r="B32" s="42"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="43"/>
+      <c r="B33" s="42"/>
       <c r="C33">
         <v>30</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="43"/>
+      <c r="B34" s="42"/>
       <c r="C34">
         <v>31</v>
       </c>
@@ -6283,7 +6283,7 @@
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="43"/>
+      <c r="B35" s="42"/>
       <c r="C35">
         <v>32</v>
       </c>
@@ -6300,7 +6300,7 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="43"/>
+      <c r="B36" s="42"/>
       <c r="C36">
         <v>33</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="N36" s="12"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="43"/>
+      <c r="B37" s="42"/>
       <c r="C37">
         <v>34</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="N37" s="12"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="43"/>
+      <c r="B38" s="42"/>
       <c r="C38">
         <v>35</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="43"/>
+      <c r="B39" s="42"/>
       <c r="C39">
         <v>36</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="43"/>
+      <c r="B40" s="42"/>
       <c r="C40">
         <v>37</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="43"/>
+      <c r="B41" s="42"/>
       <c r="C41">
         <v>38</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="43"/>
+      <c r="B42" s="42"/>
       <c r="C42">
         <v>39</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="45" t="s">
         <v>125</v>
       </c>
       <c r="C43">
@@ -6438,7 +6438,7 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="42"/>
+      <c r="B44" s="45"/>
       <c r="C44">
         <v>41</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="42"/>
+      <c r="B45" s="45"/>
       <c r="C45">
         <v>42</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="42"/>
+      <c r="B46" s="45"/>
       <c r="C46">
         <v>43</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="42"/>
+      <c r="B47" s="45"/>
       <c r="C47">
         <v>44</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48">
         <v>45</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="B49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="B50" s="42"/>
+      <c r="B50" s="45"/>
       <c r="C50">
         <v>47</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="B51" s="42"/>
+      <c r="B51" s="45"/>
       <c r="C51">
         <v>48</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="B52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52">
         <v>49</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>138</v>
       </c>
       <c r="C53">
@@ -6618,7 +6618,7 @@
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="B54" s="43"/>
+      <c r="B54" s="42"/>
       <c r="C54">
         <v>51</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="B55" s="43"/>
+      <c r="B55" s="42"/>
       <c r="C55">
         <v>52</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="43"/>
+      <c r="B56" s="42"/>
       <c r="C56">
         <v>53</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="B57" s="43"/>
+      <c r="B57" s="42"/>
       <c r="C57">
         <v>54</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="B58" s="43"/>
+      <c r="B58" s="42"/>
       <c r="C58">
         <v>55</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="43"/>
+      <c r="B59" s="42"/>
       <c r="C59">
         <v>56</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="B60" s="43"/>
+      <c r="B60" s="42"/>
       <c r="C60">
         <v>57</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="45" t="s">
         <v>145</v>
       </c>
       <c r="C61">
@@ -6756,7 +6756,7 @@
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62">
         <v>59</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="B63" s="42"/>
+      <c r="B63" s="45"/>
       <c r="C63">
         <v>60</v>
       </c>
@@ -6790,10 +6790,10 @@
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="45"/>
       <c r="C64">
         <v>61</v>
       </c>
@@ -6810,8 +6810,8 @@
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="45"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="45"/>
       <c r="C65">
         <v>62</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="42" t="s">
         <v>154</v>
       </c>
       <c r="C66">
@@ -6855,7 +6855,7 @@
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="B67" s="43"/>
+      <c r="B67" s="42"/>
       <c r="C67">
         <v>64</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="B68" s="43"/>
+      <c r="B68" s="42"/>
       <c r="C68">
         <v>65</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="B69" s="43"/>
+      <c r="B69" s="42"/>
       <c r="C69">
         <v>66</v>
       </c>
@@ -6917,7 +6917,7 @@
       <c r="A70" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="42"/>
       <c r="C70">
         <v>67</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="45" t="s">
         <v>163</v>
       </c>
       <c r="C71">
@@ -6953,7 +6953,7 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="B72" s="42"/>
+      <c r="B72" s="45"/>
       <c r="C72">
         <v>69</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="B73" s="42"/>
+      <c r="B73" s="45"/>
       <c r="C73">
         <v>70</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="A74" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="45"/>
       <c r="C74">
         <v>71</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="42" t="s">
         <v>171</v>
       </c>
       <c r="C75">
@@ -7034,7 +7034,7 @@
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="B76" s="43"/>
+      <c r="B76" s="42"/>
       <c r="C76">
         <v>73</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="B77" s="43"/>
+      <c r="B77" s="42"/>
       <c r="C77">
         <v>74</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="A78" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="43"/>
+      <c r="B78" s="42"/>
       <c r="C78">
         <v>75</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="45" t="s">
         <v>181</v>
       </c>
       <c r="C79">
@@ -7115,7 +7115,7 @@
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="B80" s="42"/>
+      <c r="B80" s="45"/>
       <c r="C80">
         <v>77</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="2:17">
-      <c r="B81" s="42"/>
+      <c r="B81" s="45"/>
       <c r="C81">
         <v>78</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="N81" s="12"/>
     </row>
     <row r="82" spans="2:17">
-      <c r="B82" s="42"/>
+      <c r="B82" s="45"/>
       <c r="C82">
         <v>79</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="2:17">
-      <c r="B83" s="42"/>
+      <c r="B83" s="45"/>
       <c r="C83">
         <v>80</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="2:17">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84">
         <v>81</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="2:17">
-      <c r="B85" s="42"/>
+      <c r="B85" s="45"/>
       <c r="C85">
         <v>82</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="N85" s="12"/>
     </row>
     <row r="86" spans="2:17">
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="42" t="s">
         <v>186</v>
       </c>
       <c r="C86">
@@ -7244,7 +7244,7 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:17">
-      <c r="B87" s="43"/>
+      <c r="B87" s="42"/>
       <c r="C87">
         <v>84</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="N87" s="12"/>
     </row>
     <row r="88" spans="2:17">
-      <c r="B88" s="43"/>
+      <c r="B88" s="42"/>
       <c r="C88">
         <v>85</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="N88" s="12"/>
     </row>
     <row r="89" spans="2:17">
-      <c r="B89" s="43"/>
+      <c r="B89" s="42"/>
       <c r="C89">
         <v>86</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="90" spans="2:17">
-      <c r="B90" s="43"/>
+      <c r="B90" s="42"/>
       <c r="C90">
         <v>87</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:17">
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="45" t="s">
         <v>194</v>
       </c>
       <c r="C91">
@@ -7378,7 +7378,7 @@
       </c>
     </row>
     <row r="92" spans="2:17">
-      <c r="B92" s="42"/>
+      <c r="B92" s="45"/>
       <c r="C92">
         <v>89</v>
       </c>
@@ -7411,7 +7411,7 @@
       </c>
     </row>
     <row r="93" spans="2:17">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93">
         <v>90</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
     </row>
     <row r="94" spans="2:17">
-      <c r="B94" s="42"/>
+      <c r="B94" s="45"/>
       <c r="C94">
         <v>91</v>
       </c>
@@ -7471,7 +7471,7 @@
       </c>
     </row>
     <row r="95" spans="2:17">
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="47" t="s">
         <v>198</v>
       </c>
       <c r="C95">
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="96" spans="2:17">
-      <c r="B96" s="44"/>
+      <c r="B96" s="47"/>
       <c r="C96">
         <v>93</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="45" t="s">
         <v>203</v>
       </c>
       <c r="C97">
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="B98" s="42"/>
+      <c r="B98" s="45"/>
       <c r="C98">
         <v>95</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="A99" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99">
         <v>96</v>
       </c>
@@ -7631,7 +7631,7 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="42" t="s">
         <v>208</v>
       </c>
       <c r="C100">
@@ -7663,7 +7663,7 @@
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="B101" s="43"/>
+      <c r="B101" s="42"/>
       <c r="C101">
         <v>98</v>
       </c>
@@ -7696,7 +7696,7 @@
       <c r="A102" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B102" s="43"/>
+      <c r="B102" s="42"/>
       <c r="C102">
         <v>99</v>
       </c>
@@ -7726,7 +7726,7 @@
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="45" t="s">
         <v>212</v>
       </c>
       <c r="C103">
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="B104" s="42"/>
+      <c r="B104" s="45"/>
       <c r="C104">
         <v>101</v>
       </c>
@@ -7813,17 +7813,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -7831,6 +7820,17 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:M3">
     <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
@@ -1986,23 +1986,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="501">
@@ -5715,7 +5715,7 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>64</v>
       </c>
       <c r="C4">
@@ -5737,7 +5737,7 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="43"/>
+      <c r="B5" s="46"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="43"/>
+      <c r="B6" s="46"/>
       <c r="C6">
         <v>3</v>
       </c>
@@ -5771,7 +5771,7 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="43"/>
+      <c r="B7" s="46"/>
       <c r="C7">
         <v>4</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8">
         <v>5</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9">
         <v>6</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="43"/>
+      <c r="B10" s="46"/>
       <c r="C10">
         <v>7</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="43"/>
+      <c r="B11" s="46"/>
       <c r="C11">
         <v>8</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12">
         <v>9</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="43"/>
+      <c r="B13" s="46"/>
       <c r="C13">
         <v>10</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="43"/>
+      <c r="B14" s="46"/>
       <c r="C14">
         <v>11</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15">
         <v>12</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="43"/>
+      <c r="B16" s="46"/>
       <c r="C16">
         <v>13</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="43"/>
+      <c r="B17" s="46"/>
       <c r="C17">
         <v>14</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="47" t="s">
         <v>87</v>
       </c>
       <c r="C18">
@@ -5977,7 +5977,7 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="44"/>
+      <c r="B19" s="47"/>
       <c r="C19">
         <v>16</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="44"/>
+      <c r="B20" s="47"/>
       <c r="C20">
         <v>17</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="44"/>
+      <c r="B21" s="47"/>
       <c r="C21">
         <v>18</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="44"/>
+      <c r="B22" s="47"/>
       <c r="C22">
         <v>19</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="44"/>
+      <c r="B23" s="47"/>
       <c r="C23">
         <v>20</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="44"/>
+      <c r="B24" s="47"/>
       <c r="C24">
         <v>21</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="44"/>
+      <c r="B25" s="47"/>
       <c r="C25">
         <v>22</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="44"/>
+      <c r="B26" s="47"/>
       <c r="C26">
         <v>23</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="N26" s="12"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="44"/>
+      <c r="B27" s="47"/>
       <c r="C27">
         <v>24</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="44"/>
+      <c r="B28" s="47"/>
       <c r="C28">
         <v>25</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="44"/>
+      <c r="B29" s="47"/>
       <c r="C29">
         <v>26</v>
       </c>
@@ -6188,7 +6188,7 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="44"/>
+      <c r="B30" s="47"/>
       <c r="C30">
         <v>27</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="43" t="s">
         <v>109</v>
       </c>
       <c r="C31">
@@ -6232,7 +6232,7 @@
       <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="42"/>
+      <c r="B32" s="43"/>
       <c r="C32">
         <v>29</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="N32" s="12"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="42"/>
+      <c r="B33" s="43"/>
       <c r="C33">
         <v>30</v>
       </c>
@@ -6266,7 +6266,7 @@
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="42"/>
+      <c r="B34" s="43"/>
       <c r="C34">
         <v>31</v>
       </c>
@@ -6283,7 +6283,7 @@
       <c r="N34" s="12"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="42"/>
+      <c r="B35" s="43"/>
       <c r="C35">
         <v>32</v>
       </c>
@@ -6300,7 +6300,7 @@
       <c r="N35" s="12"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="42"/>
+      <c r="B36" s="43"/>
       <c r="C36">
         <v>33</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="N36" s="12"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="42"/>
+      <c r="B37" s="43"/>
       <c r="C37">
         <v>34</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="N37" s="12"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="42"/>
+      <c r="B38" s="43"/>
       <c r="C38">
         <v>35</v>
       </c>
@@ -6351,7 +6351,7 @@
       <c r="N38" s="12"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="42"/>
+      <c r="B39" s="43"/>
       <c r="C39">
         <v>36</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="42"/>
+      <c r="B40" s="43"/>
       <c r="C40">
         <v>37</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="N40" s="12"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="42"/>
+      <c r="B41" s="43"/>
       <c r="C41">
         <v>38</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="N41" s="12"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="42"/>
+      <c r="B42" s="43"/>
       <c r="C42">
         <v>39</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="N42" s="12"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C43">
@@ -6438,7 +6438,7 @@
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="45"/>
+      <c r="B44" s="42"/>
       <c r="C44">
         <v>41</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="N44" s="12"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="45"/>
+      <c r="B45" s="42"/>
       <c r="C45">
         <v>42</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="N45" s="12"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="45"/>
+      <c r="B46" s="42"/>
       <c r="C46">
         <v>43</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="N46" s="12"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="45"/>
+      <c r="B47" s="42"/>
       <c r="C47">
         <v>44</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="45"/>
+      <c r="B48" s="42"/>
       <c r="C48">
         <v>45</v>
       </c>
@@ -6523,7 +6523,7 @@
       <c r="N48" s="12"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="B49" s="45"/>
+      <c r="B49" s="42"/>
       <c r="C49">
         <v>46</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="N49" s="12"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="B50" s="45"/>
+      <c r="B50" s="42"/>
       <c r="C50">
         <v>47</v>
       </c>
@@ -6557,7 +6557,7 @@
       <c r="N50" s="12"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="B51" s="45"/>
+      <c r="B51" s="42"/>
       <c r="C51">
         <v>48</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="N51" s="12"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="B52" s="45"/>
+      <c r="B52" s="42"/>
       <c r="C52">
         <v>49</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="43" t="s">
         <v>138</v>
       </c>
       <c r="C53">
@@ -6618,7 +6618,7 @@
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="B54" s="42"/>
+      <c r="B54" s="43"/>
       <c r="C54">
         <v>51</v>
       </c>
@@ -6635,7 +6635,7 @@
       <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="B55" s="42"/>
+      <c r="B55" s="43"/>
       <c r="C55">
         <v>52</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="42"/>
+      <c r="B56" s="43"/>
       <c r="C56">
         <v>53</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="B57" s="42"/>
+      <c r="B57" s="43"/>
       <c r="C57">
         <v>54</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="N57" s="12"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="B58" s="42"/>
+      <c r="B58" s="43"/>
       <c r="C58">
         <v>55</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="42"/>
+      <c r="B59" s="43"/>
       <c r="C59">
         <v>56</v>
       </c>
@@ -6720,7 +6720,7 @@
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="B60" s="42"/>
+      <c r="B60" s="43"/>
       <c r="C60">
         <v>57</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="B61" s="45" t="s">
+      <c r="B61" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C61">
@@ -6756,7 +6756,7 @@
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="B62" s="45"/>
+      <c r="B62" s="42"/>
       <c r="C62">
         <v>59</v>
       </c>
@@ -6773,7 +6773,7 @@
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="B63" s="45"/>
+      <c r="B63" s="42"/>
       <c r="C63">
         <v>60</v>
       </c>
@@ -6790,10 +6790,10 @@
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="45"/>
+      <c r="B64" s="42"/>
       <c r="C64">
         <v>61</v>
       </c>
@@ -6810,8 +6810,8 @@
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="46"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="42"/>
       <c r="C65">
         <v>62</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="P65" s="2"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="43" t="s">
         <v>154</v>
       </c>
       <c r="C66">
@@ -6855,7 +6855,7 @@
       <c r="N66" s="12"/>
     </row>
     <row r="67" spans="1:16">
-      <c r="B67" s="42"/>
+      <c r="B67" s="43"/>
       <c r="C67">
         <v>64</v>
       </c>
@@ -6872,7 +6872,7 @@
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:16">
-      <c r="B68" s="42"/>
+      <c r="B68" s="43"/>
       <c r="C68">
         <v>65</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="1:16">
-      <c r="B69" s="42"/>
+      <c r="B69" s="43"/>
       <c r="C69">
         <v>66</v>
       </c>
@@ -6917,7 +6917,7 @@
       <c r="A70" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="42"/>
+      <c r="B70" s="43"/>
       <c r="C70">
         <v>67</v>
       </c>
@@ -6934,7 +6934,7 @@
       <c r="N70" s="12"/>
     </row>
     <row r="71" spans="1:16">
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C71">
@@ -6953,7 +6953,7 @@
       <c r="N71" s="12"/>
     </row>
     <row r="72" spans="1:16">
-      <c r="B72" s="45"/>
+      <c r="B72" s="42"/>
       <c r="C72">
         <v>69</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="N72" s="12"/>
     </row>
     <row r="73" spans="1:16">
-      <c r="B73" s="45"/>
+      <c r="B73" s="42"/>
       <c r="C73">
         <v>70</v>
       </c>
@@ -6998,7 +6998,7 @@
       <c r="A74" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="45"/>
+      <c r="B74" s="42"/>
       <c r="C74">
         <v>71</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:16">
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="43" t="s">
         <v>171</v>
       </c>
       <c r="C75">
@@ -7034,7 +7034,7 @@
       <c r="N75" s="12"/>
     </row>
     <row r="76" spans="1:16">
-      <c r="B76" s="42"/>
+      <c r="B76" s="43"/>
       <c r="C76">
         <v>73</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:16">
-      <c r="B77" s="42"/>
+      <c r="B77" s="43"/>
       <c r="C77">
         <v>74</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="A78" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="42"/>
+      <c r="B78" s="43"/>
       <c r="C78">
         <v>75</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="B79" s="45" t="s">
+      <c r="B79" s="42" t="s">
         <v>181</v>
       </c>
       <c r="C79">
@@ -7115,7 +7115,7 @@
       <c r="N79" s="12"/>
     </row>
     <row r="80" spans="1:16">
-      <c r="B80" s="45"/>
+      <c r="B80" s="42"/>
       <c r="C80">
         <v>77</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="2:17">
-      <c r="B81" s="45"/>
+      <c r="B81" s="42"/>
       <c r="C81">
         <v>78</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="N81" s="12"/>
     </row>
     <row r="82" spans="2:17">
-      <c r="B82" s="45"/>
+      <c r="B82" s="42"/>
       <c r="C82">
         <v>79</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="2:17">
-      <c r="B83" s="45"/>
+      <c r="B83" s="42"/>
       <c r="C83">
         <v>80</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="2:17">
-      <c r="B84" s="45"/>
+      <c r="B84" s="42"/>
       <c r="C84">
         <v>81</v>
       </c>
@@ -7200,7 +7200,7 @@
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="2:17">
-      <c r="B85" s="45"/>
+      <c r="B85" s="42"/>
       <c r="C85">
         <v>82</v>
       </c>
@@ -7217,7 +7217,7 @@
       <c r="N85" s="12"/>
     </row>
     <row r="86" spans="2:17">
-      <c r="B86" s="42" t="s">
+      <c r="B86" s="43" t="s">
         <v>186</v>
       </c>
       <c r="C86">
@@ -7244,7 +7244,7 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:17">
-      <c r="B87" s="42"/>
+      <c r="B87" s="43"/>
       <c r="C87">
         <v>84</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="N87" s="12"/>
     </row>
     <row r="88" spans="2:17">
-      <c r="B88" s="42"/>
+      <c r="B88" s="43"/>
       <c r="C88">
         <v>85</v>
       </c>
@@ -7278,7 +7278,7 @@
       <c r="N88" s="12"/>
     </row>
     <row r="89" spans="2:17">
-      <c r="B89" s="42"/>
+      <c r="B89" s="43"/>
       <c r="C89">
         <v>86</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="90" spans="2:17">
-      <c r="B90" s="42"/>
+      <c r="B90" s="43"/>
       <c r="C90">
         <v>87</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:17">
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="42" t="s">
         <v>194</v>
       </c>
       <c r="C91">
@@ -7378,7 +7378,7 @@
       </c>
     </row>
     <row r="92" spans="2:17">
-      <c r="B92" s="45"/>
+      <c r="B92" s="42"/>
       <c r="C92">
         <v>89</v>
       </c>
@@ -7411,7 +7411,7 @@
       </c>
     </row>
     <row r="93" spans="2:17">
-      <c r="B93" s="45"/>
+      <c r="B93" s="42"/>
       <c r="C93">
         <v>90</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
     </row>
     <row r="94" spans="2:17">
-      <c r="B94" s="45"/>
+      <c r="B94" s="42"/>
       <c r="C94">
         <v>91</v>
       </c>
@@ -7471,7 +7471,7 @@
       </c>
     </row>
     <row r="95" spans="2:17">
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="44" t="s">
         <v>198</v>
       </c>
       <c r="C95">
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="96" spans="2:17">
-      <c r="B96" s="47"/>
+      <c r="B96" s="44"/>
       <c r="C96">
         <v>93</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="97" spans="1:17">
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="42" t="s">
         <v>203</v>
       </c>
       <c r="C97">
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="B98" s="45"/>
+      <c r="B98" s="42"/>
       <c r="C98">
         <v>95</v>
       </c>
@@ -7601,7 +7601,7 @@
       <c r="A99" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="42"/>
       <c r="C99">
         <v>96</v>
       </c>
@@ -7631,7 +7631,7 @@
       </c>
     </row>
     <row r="100" spans="1:17">
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="43" t="s">
         <v>208</v>
       </c>
       <c r="C100">
@@ -7663,7 +7663,7 @@
       </c>
     </row>
     <row r="101" spans="1:17">
-      <c r="B101" s="42"/>
+      <c r="B101" s="43"/>
       <c r="C101">
         <v>98</v>
       </c>
@@ -7696,7 +7696,7 @@
       <c r="A102" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B102" s="42"/>
+      <c r="B102" s="43"/>
       <c r="C102">
         <v>99</v>
       </c>
@@ -7726,7 +7726,7 @@
       </c>
     </row>
     <row r="103" spans="1:17">
-      <c r="B103" s="45" t="s">
+      <c r="B103" s="42" t="s">
         <v>212</v>
       </c>
       <c r="C103">
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="104" spans="1:17">
-      <c r="B104" s="45"/>
+      <c r="B104" s="42"/>
       <c r="C104">
         <v>101</v>
       </c>
@@ -7813,6 +7813,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -7820,17 +7831,6 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:M3">
     <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">

--- a/trunk/insert parte II (karem).xlsx
+++ b/trunk/insert parte II (karem).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DirectorOquesta" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Director" sheetId="5" r:id="rId4"/>
     <sheet name="Escenografo" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="465">
   <si>
     <t>idDirector</t>
   </si>
@@ -1006,9 +1006,6 @@
     <t>25/09/1980</t>
   </si>
   <si>
-    <t>canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">timpania </t>
   </si>
   <si>
@@ -1018,18 +1015,9 @@
     <t>17/04/1965</t>
   </si>
   <si>
-    <t>amsterdan</t>
-  </si>
-  <si>
     <t>25/08/1978</t>
   </si>
   <si>
-    <t>españa</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
     <t>227 south 18th street</t>
   </si>
   <si>
@@ -1238,16 +1226,208 @@
   </si>
   <si>
     <t>DIRECTOR DE OBRA</t>
+  </si>
+  <si>
+    <t>Aldwych London WC2B 4DD</t>
+  </si>
+  <si>
+    <t>Greater London WC2R 1ES</t>
+  </si>
+  <si>
+    <t>Strand London WC2R 1DH</t>
+  </si>
+  <si>
+    <t>Portugal Street London, WC2A 2HD</t>
+  </si>
+  <si>
+    <t>Chancery Lane London WC2A 1LR</t>
+  </si>
+  <si>
+    <t>1-5 West Street London WC2H 9NQ</t>
+  </si>
+  <si>
+    <t>48 Doughty Street Camden Town</t>
+  </si>
+  <si>
+    <t>106 Bunhill Row London</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Change City of London, EC4M 9AF</t>
+  </si>
+  <si>
+    <t>Queen Victoria St</t>
+  </si>
+  <si>
+    <t>Prince's Street</t>
+  </si>
+  <si>
+    <t>Newgate Street</t>
+  </si>
+  <si>
+    <t>Carter Ln</t>
+  </si>
+  <si>
+    <t>London Cannon Street</t>
+  </si>
+  <si>
+    <t>Birchin L Street</t>
+  </si>
+  <si>
+    <t>Sun Steet</t>
+  </si>
+  <si>
+    <t>Worship Street</t>
+  </si>
+  <si>
+    <t>Cranwood Street</t>
+  </si>
+  <si>
+    <t>Bevenden Street</t>
+  </si>
+  <si>
+    <t>Gaiwai Street</t>
+  </si>
+  <si>
+    <t>Caplin System Ltd</t>
+  </si>
+  <si>
+    <t>Hanbury Street</t>
+  </si>
+  <si>
+    <t>Cobb street</t>
+  </si>
+  <si>
+    <t>Bigland Street Shadwell</t>
+  </si>
+  <si>
+    <t>Sutton Street City of London</t>
+  </si>
+  <si>
+    <t>Hardman Street</t>
+  </si>
+  <si>
+    <t>Quay Street</t>
+  </si>
+  <si>
+    <t>Water Street</t>
+  </si>
+  <si>
+    <t>Jackson's Road</t>
+  </si>
+  <si>
+    <t>Mulberry Street</t>
+  </si>
+  <si>
+    <t>Bootle Street</t>
+  </si>
+  <si>
+    <t>Lloyd Street</t>
+  </si>
+  <si>
+    <t>Atckinson Street</t>
+  </si>
+  <si>
+    <t>Great Bridgewater street</t>
+  </si>
+  <si>
+    <t>Wrendal house Street</t>
+  </si>
+  <si>
+    <t>Barton Street</t>
+  </si>
+  <si>
+    <t>Beaufort Street</t>
+  </si>
+  <si>
+    <t>Great Northen</t>
+  </si>
+  <si>
+    <t>St. Jhon Street</t>
+  </si>
+  <si>
+    <t>Chepstow Street</t>
+  </si>
+  <si>
+    <t>George Street</t>
+  </si>
+  <si>
+    <t>All Saint Street</t>
+  </si>
+  <si>
+    <t>Barnsbury Av</t>
+  </si>
+  <si>
+    <t>Bingfield Street</t>
+  </si>
+  <si>
+    <t>Copenhagen Street</t>
+  </si>
+  <si>
+    <t>Donegal Street</t>
+  </si>
+  <si>
+    <t>White Lion Street</t>
+  </si>
+  <si>
+    <t>Lofting Street</t>
+  </si>
+  <si>
+    <t>Offord Road</t>
+  </si>
+  <si>
+    <t>Park End Street</t>
+  </si>
+  <si>
+    <t>St. Thomas Street</t>
+  </si>
+  <si>
+    <t>George Street Mews</t>
+  </si>
+  <si>
+    <t>Beckett Street</t>
+  </si>
+  <si>
+    <t>Barret Street</t>
+  </si>
+  <si>
+    <t>Golden Croos Walk</t>
+  </si>
+  <si>
+    <t>St. Ebben Street</t>
+  </si>
+  <si>
+    <t>Paradise Street</t>
+  </si>
+  <si>
+    <t>Swan Street</t>
+  </si>
+  <si>
+    <t>South Street</t>
+  </si>
+  <si>
+    <t>Brigde Street</t>
+  </si>
+  <si>
+    <t>Speedwell Street</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>17/04/1966</t>
+  </si>
+  <si>
+    <t>17/04/1967</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1891,7 +2071,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1986,23 +2166,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="501">
@@ -2508,22 +2694,72 @@
     <cellStyle name="Hipervínculo visitado" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="52">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2576,20 +2812,20 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2622,17 +2858,17 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2681,92 +2917,62 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2780,7 +2986,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2821,23 +3027,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D3:R19" totalsRowShown="0">
   <autoFilter ref="D3:R19"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="idDirector" dataDxfId="46"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="48"/>
     <tableColumn id="2" name="primer nombre"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="45"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="47"/>
     <tableColumn id="4" name="primer apellido"/>
-    <tableColumn id="5" name="segundo apellido" dataDxfId="44"/>
-    <tableColumn id="6" name="telf1" dataDxfId="43">
+    <tableColumn id="5" name="segundo apellido" dataDxfId="46"/>
+    <tableColumn id="6" name="telf1" dataDxfId="45">
       <calculatedColumnFormula>RANDBETWEEN(1111111111,9999999999)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="telf2" dataDxfId="42"/>
-    <tableColumn id="8" name="telf3" dataDxfId="41"/>
-    <tableColumn id="11" name="sexo" dataDxfId="40"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="39"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="38"/>
-    <tableColumn id="14" name="foto" dataDxfId="37"/>
-    <tableColumn id="15" name="fkLugar" dataDxfId="36"/>
+    <tableColumn id="7" name="telf2" dataDxfId="44"/>
+    <tableColumn id="8" name="telf3" dataDxfId="43"/>
+    <tableColumn id="11" name="sexo" dataDxfId="42"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="41"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="40"/>
+    <tableColumn id="14" name="foto" dataDxfId="39"/>
+    <tableColumn id="15" name="fkLugar" dataDxfId="38"/>
     <tableColumn id="16" name="detalleDireccion"/>
-    <tableColumn id="9" name="invitado" dataDxfId="35"/>
+    <tableColumn id="9" name="invitado" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2847,8 +3053,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="D24:E42" totalsRowShown="0">
   <autoFilter ref="D24:E42"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="pkNacionalidad" dataDxfId="34"/>
-    <tableColumn id="2" name="pkDirOrq" dataDxfId="33"/>
+    <tableColumn id="1" name="pkNacionalidad" dataDxfId="36"/>
+    <tableColumn id="2" name="pkDirOrq" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2858,14 +3064,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="D47:G81" totalsRowShown="0">
   <autoFilter ref="D47:G81"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="pkOrquesta" dataDxfId="32">
+    <tableColumn id="1" name="pkOrquesta" dataDxfId="34">
       <calculatedColumnFormula>(Orquesta!C4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="31">
+    <tableColumn id="2" name="pkDirectorMusical" dataDxfId="33">
       <calculatedColumnFormula>(DirectorOquesta!D10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="fecha inicio" dataDxfId="30"/>
-    <tableColumn id="4" name="fecha fin" dataDxfId="29"/>
+    <tableColumn id="3" name="fecha inicio" dataDxfId="32"/>
+    <tableColumn id="4" name="fecha fin" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2887,17 +3093,17 @@
   <autoFilter ref="C3:P104"/>
   <tableColumns count="14">
     <tableColumn id="1" name="idDirector"/>
-    <tableColumn id="2" name="primer nombre" dataDxfId="24"/>
-    <tableColumn id="3" name="segundo nombre" dataDxfId="23"/>
-    <tableColumn id="4" name="primer apellido" dataDxfId="22"/>
+    <tableColumn id="2" name="primer nombre" dataDxfId="29"/>
+    <tableColumn id="3" name="segundo nombre" dataDxfId="28"/>
+    <tableColumn id="4" name="primer apellido" dataDxfId="27"/>
     <tableColumn id="5" name="segundo apellido"/>
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
-    <tableColumn id="11" name="sexo" dataDxfId="21"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="20"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="19"/>
-    <tableColumn id="14" name="foto" dataDxfId="18"/>
+    <tableColumn id="11" name="sexo" dataDxfId="26"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="25"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="24"/>
+    <tableColumn id="14" name="foto" dataDxfId="23"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2909,7 +3115,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="C3:P13" totalsRowShown="0">
   <autoFilter ref="C3:P13"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="idDirector" dataDxfId="14"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="19"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2917,10 +3123,10 @@
     <tableColumn id="6" name="telf1"/>
     <tableColumn id="7" name="telf2"/>
     <tableColumn id="8" name="telf3"/>
-    <tableColumn id="11" name="sexo" dataDxfId="13"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="12"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="11"/>
-    <tableColumn id="14" name="foto" dataDxfId="10"/>
+    <tableColumn id="11" name="sexo" dataDxfId="18"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="17"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="16"/>
+    <tableColumn id="14" name="foto" dataDxfId="15"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -2932,7 +3138,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="C3:R13" totalsRowShown="0">
   <autoFilter ref="C3:R13"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="idDirector" dataDxfId="4"/>
+    <tableColumn id="1" name="idDirector" dataDxfId="9"/>
     <tableColumn id="2" name="primer nombre"/>
     <tableColumn id="3" name="segundo nombre"/>
     <tableColumn id="4" name="primer apellido"/>
@@ -2942,10 +3148,10 @@
     <tableColumn id="8" name="telf3"/>
     <tableColumn id="9" name="telf4"/>
     <tableColumn id="10" name="telf5"/>
-    <tableColumn id="11" name="sexo" dataDxfId="3"/>
-    <tableColumn id="12" name="fechaNac" dataDxfId="2"/>
-    <tableColumn id="13" name="fallecimiento" dataDxfId="1"/>
-    <tableColumn id="14" name="foto" dataDxfId="0"/>
+    <tableColumn id="11" name="sexo" dataDxfId="8"/>
+    <tableColumn id="12" name="fechaNac" dataDxfId="7"/>
+    <tableColumn id="13" name="fallecimiento" dataDxfId="6"/>
+    <tableColumn id="14" name="foto" dataDxfId="5"/>
     <tableColumn id="15" name="fkLugar"/>
     <tableColumn id="16" name="detalleDireccion"/>
   </tableColumns>
@@ -3274,29 +3480,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="12" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="15" style="12" customWidth="1"/>
     <col min="9" max="11" width="12" style="12" customWidth="1"/>
     <col min="12" max="12" width="13" style="12" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
     <col min="15" max="16" width="13" style="12" customWidth="1"/>
-    <col min="17" max="17" width="29.83203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="12"/>
+    <col min="17" max="17" width="29.875" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
@@ -3361,15 +3567,15 @@
         <v>15</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>214</v>
@@ -3414,7 +3620,7 @@
         <v>187</v>
       </c>
       <c r="Q4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R4" s="12">
         <v>0</v>
@@ -3428,10 +3634,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="37">
@@ -3474,7 +3680,7 @@
         <v>187</v>
       </c>
       <c r="Q5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="R5" s="12">
         <v>0</v>
@@ -3488,10 +3694,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="37">
@@ -3534,7 +3740,7 @@
         <v>187</v>
       </c>
       <c r="Q6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R6" s="12">
         <v>0</v>
@@ -3548,10 +3754,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="37">
@@ -3594,7 +3800,7 @@
         <v>187</v>
       </c>
       <c r="Q7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="R7" s="12">
         <v>0</v>
@@ -3608,10 +3814,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="37">
@@ -3654,7 +3860,7 @@
         <v>187</v>
       </c>
       <c r="Q8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R8" s="12">
         <v>0</v>
@@ -3668,7 +3874,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
         <v>312</v>
@@ -3684,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>17</v>
@@ -3714,7 +3920,7 @@
         <v>187</v>
       </c>
       <c r="Q9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R9" s="12">
         <v>0</v>
@@ -3728,7 +3934,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>217</v>
@@ -3764,7 +3970,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>17</v>
@@ -3788,9 +3994,9 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="45">
+    <row r="11" spans="1:20" ht="47.25">
       <c r="A11" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>222</v>
@@ -3847,7 +4053,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B12" t="s">
         <v>224</v>
@@ -3902,9 +4108,9 @@
       </c>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="45">
+    <row r="13" spans="1:20" ht="47.25">
       <c r="A13" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>230</v>
@@ -3961,7 +4167,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
         <v>232</v>
@@ -4009,7 +4215,7 @@
         <v>240</v>
       </c>
       <c r="Q14" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="R14" s="12">
         <v>1</v>
@@ -4018,7 +4224,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
         <v>237</v>
@@ -4066,15 +4272,15 @@
         <v>242</v>
       </c>
       <c r="Q15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="R15" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30">
+    <row r="16" spans="1:20" ht="31.5">
       <c r="A16" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
         <v>239</v>
@@ -4122,7 +4328,7 @@
         <v>244</v>
       </c>
       <c r="Q16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="R16" s="12">
         <v>1</v>
@@ -4130,10 +4336,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
         <v>243</v>
@@ -4178,7 +4384,7 @@
         <v>245</v>
       </c>
       <c r="Q17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="R17" s="12">
         <v>1</v>
@@ -4186,7 +4392,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
         <v>248</v>
@@ -4234,7 +4440,7 @@
         <v>247</v>
       </c>
       <c r="Q18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="R18" s="12">
         <v>1</v>
@@ -4242,10 +4448,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
         <v>254</v>
@@ -4290,7 +4496,7 @@
         <v>249</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="R19" s="12">
         <v>1</v>
@@ -4298,42 +4504,42 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D25" s="12">
         <v>65</v>
@@ -4345,7 +4551,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D26" s="12">
         <v>250</v>
@@ -4357,7 +4563,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D27" s="12">
         <v>130</v>
@@ -4369,7 +4575,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D28" s="12">
         <v>65</v>
@@ -4381,7 +4587,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D29" s="12">
         <v>59</v>
@@ -4393,7 +4599,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D30" s="12">
         <v>65</v>
@@ -4405,7 +4611,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D31" s="12">
         <v>70</v>
@@ -4417,7 +4623,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D32" s="12">
         <v>6</v>
@@ -4429,7 +4635,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D33" s="12">
         <v>41</v>
@@ -4441,7 +4647,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D34" s="12">
         <v>39</v>
@@ -4453,7 +4659,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D35" s="12">
         <v>41</v>
@@ -4465,7 +4671,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D36" s="12">
         <v>17</v>
@@ -4477,7 +4683,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D37" s="12">
         <v>128</v>
@@ -4489,7 +4695,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D38" s="12">
         <v>130</v>
@@ -4501,7 +4707,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D39" s="12">
         <v>65</v>
@@ -4513,7 +4719,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D40" s="12">
         <v>78</v>
@@ -4525,7 +4731,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D41" s="12">
         <v>39</v>
@@ -4537,7 +4743,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D42" s="12">
         <v>69</v>
@@ -4549,31 +4755,31 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
@@ -4581,7 +4787,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>273</v>
@@ -4590,15 +4796,15 @@
         <v>274</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="12">
@@ -4612,13 +4818,13 @@
         <v>38446</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H48" s="29"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C49" s="24"/>
       <c r="D49" s="12">
@@ -4638,7 +4844,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C50" s="24"/>
       <c r="D50" s="12">
@@ -4658,7 +4864,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="12">
@@ -4669,7 +4875,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>17</v>
@@ -4678,7 +4884,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="12">
@@ -4698,7 +4904,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="12">
@@ -4718,7 +4924,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="21">
@@ -4728,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>17</v>
@@ -4737,7 +4943,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="21">
@@ -4760,7 +4966,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="21">
@@ -4783,7 +4989,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="21">
@@ -4806,7 +5012,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="21">
@@ -4829,7 +5035,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D59" s="21">
         <v>11</v>
@@ -4851,7 +5057,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D60" s="21">
         <v>12</v>
@@ -4873,7 +5079,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D61" s="21">
         <v>13</v>
@@ -4895,7 +5101,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D62" s="12">
         <v>14</v>
@@ -4904,7 +5110,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G62" s="14">
         <v>39334</v>
@@ -4917,7 +5123,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D63" s="21">
         <v>16</v>
@@ -4935,7 +5141,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D64" s="21">
         <v>15</v>
@@ -4953,7 +5159,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D65" s="21">
         <v>17</v>
@@ -4962,7 +5168,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G65" s="1">
         <v>38698</v>
@@ -4971,7 +5177,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D66" s="21">
         <v>18</v>
@@ -4980,16 +5186,16 @@
         <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D67" s="21">
         <v>19</v>
@@ -4998,7 +5204,7 @@
         <v>9</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G67" s="1">
         <v>38058</v>
@@ -5007,7 +5213,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D68" s="22">
         <v>20</v>
@@ -5025,7 +5231,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D69" s="21">
         <v>21</v>
@@ -5034,16 +5240,16 @@
         <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H69" s="30"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D70" s="21">
         <v>22</v>
@@ -5055,13 +5261,13 @@
         <v>37600</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H70" s="30"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D71" s="21">
         <v>23</v>
@@ -5073,13 +5279,13 @@
         <v>33857</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H71" s="30"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D72" s="22">
         <v>24</v>
@@ -5097,7 +5303,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D73" s="22">
         <v>25</v>
@@ -5106,16 +5312,16 @@
         <v>7</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H73" s="30"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D74" s="21">
         <v>21</v>
@@ -5127,13 +5333,13 @@
         <v>38811</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D75" s="21">
         <v>26</v>
@@ -5142,16 +5348,16 @@
         <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H75" s="30"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D76" s="21">
         <v>27</v>
@@ -5160,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G76" s="1">
         <v>33946</v>
@@ -5169,7 +5375,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D77" s="21">
         <v>26</v>
@@ -5187,7 +5393,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D78" s="21">
         <v>20</v>
@@ -5196,16 +5402,16 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H78" s="21"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D79" s="22">
         <v>27</v>
@@ -5217,13 +5423,13 @@
         <v>17137</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H79" s="21"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D80" s="21">
         <v>21</v>
@@ -5232,15 +5438,15 @@
         <v>2</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D81" s="21">
         <v>28</v>
@@ -5257,7 +5463,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -5266,7 +5472,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="35" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -5312,23 +5518,23 @@
     <mergeCell ref="F45:G45"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:N1048576 M1:M54">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M1048576">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D42">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="I4:I12 I13:I19 D48:D53 D54:E62 D63:E66 D67:E67 D68:E68 D69:E69 D71 E71:E73 D72:D73 D70:E70 D74:E74 D75:E75 D76:E76 D77:E77 D78:E79 D80:E81" calculatedColumn="1"/>
+    <ignoredError sqref="I5:I12 I13:I19 D48:D53 D54:E62 D63:E66 D67:E67 D68:E68 D69:E69 D71 E71:E73 D72:D73 D70:E70 D74:E74 D75:E75 D76:E76 D77:E77 D78:E79 D80:E81" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
@@ -5344,17 +5550,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -5466,7 +5672,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -5474,7 +5680,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -5482,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -5490,7 +5696,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -5499,7 +5705,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -5507,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -5515,7 +5721,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -5523,7 +5729,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -5531,7 +5737,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -5539,7 +5745,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -5547,7 +5753,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -5555,7 +5761,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -5563,7 +5769,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -5572,7 +5778,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -5580,7 +5786,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -5588,7 +5794,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -5596,7 +5802,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -5604,7 +5810,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -5616,7 +5822,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -5631,18 +5837,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95:L102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
     <col min="7" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="13" style="12" customWidth="1"/>
     <col min="12" max="12" width="13" style="18" customWidth="1"/>
@@ -5715,7 +5921,7 @@
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C4">
@@ -5724,241 +5930,504 @@
       <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1">
+        <v>27831</v>
+      </c>
       <c r="M4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O4">
+        <v>187</v>
+      </c>
+      <c r="P4" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="46"/>
+      <c r="B5" s="43"/>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>27832</v>
+      </c>
       <c r="M5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O5">
+        <v>187</v>
+      </c>
+      <c r="P5" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="46"/>
+      <c r="B6" s="43"/>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="1">
+        <v>27833</v>
+      </c>
       <c r="M6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O6">
+        <v>187</v>
+      </c>
+      <c r="P6" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="46"/>
+      <c r="B7" s="43"/>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="1">
+        <v>27834</v>
+      </c>
       <c r="M7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O7">
+        <v>187</v>
+      </c>
+      <c r="P7" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="46"/>
+      <c r="B8" s="43"/>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>27835</v>
+      </c>
       <c r="M8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O8">
+        <v>187</v>
+      </c>
+      <c r="P8" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="46"/>
+      <c r="B9" s="43"/>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="1">
+        <v>27836</v>
+      </c>
       <c r="M9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O9">
+        <v>187</v>
+      </c>
+      <c r="P9" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="46"/>
+      <c r="B10" s="43"/>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>27837</v>
+      </c>
       <c r="M10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O10">
+        <v>187</v>
+      </c>
+      <c r="P10" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="46"/>
+      <c r="B11" s="43"/>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>27838</v>
+      </c>
       <c r="M11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O11">
+        <v>189</v>
+      </c>
+      <c r="P11" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="46"/>
+      <c r="B12" s="43"/>
       <c r="C12">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1">
+        <v>27839</v>
+      </c>
       <c r="M12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O12">
+        <v>189</v>
+      </c>
+      <c r="P12" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="B13" s="46"/>
+      <c r="B13" s="43"/>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1">
+        <v>27840</v>
+      </c>
       <c r="M13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O13">
+        <v>189</v>
+      </c>
+      <c r="P13" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="46"/>
+      <c r="B14" s="43"/>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="1"/>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1">
+        <v>27841</v>
+      </c>
       <c r="M14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14">
+        <v>189</v>
+      </c>
+      <c r="P14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="46"/>
+      <c r="B15" s="43"/>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="1">
+        <v>27842</v>
+      </c>
       <c r="M15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O15">
+        <v>189</v>
+      </c>
+      <c r="P15" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="46"/>
+      <c r="B16" s="43"/>
       <c r="C16">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1">
+        <v>27843</v>
+      </c>
       <c r="M16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16">
+        <v>189</v>
+      </c>
+      <c r="P16" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="46"/>
+      <c r="B17" s="43"/>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1">
+        <v>27844</v>
+      </c>
       <c r="M17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O17">
+        <v>189</v>
+      </c>
+      <c r="P17" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C18">
@@ -5967,253 +6436,480 @@
       <c r="D18" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="1">
+        <v>27845</v>
+      </c>
       <c r="M18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="12"/>
+      <c r="N18" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O18">
+        <v>189</v>
+      </c>
+      <c r="P18" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="47"/>
+      <c r="B19" s="44"/>
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="1">
+        <v>27846</v>
+      </c>
       <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O19">
+        <v>189</v>
+      </c>
+      <c r="P19" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1">
+        <v>27847</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O20">
+        <v>189</v>
+      </c>
+      <c r="P20" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="47"/>
+      <c r="B21" s="44"/>
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>27848</v>
+      </c>
       <c r="M21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O21">
+        <v>189</v>
+      </c>
+      <c r="P21" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="47"/>
+      <c r="B22" s="44"/>
       <c r="C22">
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="1">
+        <v>28579</v>
+      </c>
       <c r="M22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="12"/>
+      <c r="N22" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O22">
+        <v>189</v>
+      </c>
+      <c r="P22" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="47"/>
+      <c r="B23" s="44"/>
       <c r="C23">
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="1">
+        <v>28580</v>
+      </c>
       <c r="M23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O23">
+        <v>189</v>
+      </c>
+      <c r="P23" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="47"/>
+      <c r="B24" s="44"/>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1">
+        <v>28581</v>
+      </c>
       <c r="M24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24">
+        <v>189</v>
+      </c>
+      <c r="P24" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="47"/>
+      <c r="B25" s="44"/>
       <c r="C25">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
+      <c r="K25" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="1">
+        <v>28582</v>
+      </c>
       <c r="M25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O25">
+        <v>189</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="47"/>
+      <c r="B26" s="44"/>
       <c r="C26">
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="1">
+        <v>28583</v>
+      </c>
       <c r="M26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="47"/>
+      <c r="N26" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O26">
+        <v>189</v>
+      </c>
+      <c r="P26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="31.5">
+      <c r="B27" s="44"/>
       <c r="C27">
         <v>24</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="1">
+        <v>28584</v>
+      </c>
       <c r="M27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="47"/>
+      <c r="N27" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O27">
+        <v>189</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="31.5">
+      <c r="B28" s="44"/>
       <c r="C28">
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
+      <c r="K28" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="1">
+        <v>28585</v>
+      </c>
       <c r="M28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="N28" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O28">
+        <v>189</v>
+      </c>
+      <c r="P28" s="49" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="47"/>
+      <c r="B29" s="44"/>
       <c r="C29">
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
+      <c r="K29" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="1">
+        <v>28586</v>
+      </c>
       <c r="M29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="N29" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O29">
+        <v>189</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="47"/>
+      <c r="B30" s="44"/>
       <c r="C30">
         <v>27</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
+      <c r="K30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="1">
+        <v>27857</v>
+      </c>
       <c r="M30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="N30" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O30" s="2">
+        <v>191</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>109</v>
       </c>
       <c r="C31">
@@ -6222,204 +6918,432 @@
       <c r="D31" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L31" s="1"/>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="1">
+        <v>27858</v>
+      </c>
       <c r="M31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="12"/>
+      <c r="N31" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O31" s="2">
+        <v>191</v>
+      </c>
+      <c r="P31" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="43"/>
+      <c r="B32" s="42"/>
       <c r="C32">
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L32" s="1"/>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" s="1">
+        <v>27859</v>
+      </c>
       <c r="M32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="43"/>
+      <c r="N32" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O32" s="2">
+        <v>191</v>
+      </c>
+      <c r="P32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="42"/>
       <c r="C33">
         <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="1"/>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="1">
+        <v>27860</v>
+      </c>
       <c r="M33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="43"/>
+      <c r="N33" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" s="2">
+        <v>191</v>
+      </c>
+      <c r="P33" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="42"/>
       <c r="C34">
         <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
       <c r="F34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L34" s="1"/>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="1">
+        <v>27861</v>
+      </c>
       <c r="M34" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="43"/>
+      <c r="N34" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O34" s="2">
+        <v>191</v>
+      </c>
+      <c r="P34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="42"/>
       <c r="C35">
         <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="1">
+        <v>27862</v>
+      </c>
       <c r="M35" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="43"/>
+      <c r="N35" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O35" s="2">
+        <v>191</v>
+      </c>
+      <c r="P35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="42"/>
       <c r="C36">
         <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L36" s="1"/>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="1">
+        <v>27863</v>
+      </c>
       <c r="M36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="43"/>
+      <c r="N36" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" s="2">
+        <v>191</v>
+      </c>
+      <c r="P36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="42"/>
       <c r="C37">
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L37" s="1"/>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" s="1">
+        <v>27864</v>
+      </c>
       <c r="M37" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="43"/>
+      <c r="N37" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O37" s="2">
+        <v>191</v>
+      </c>
+      <c r="P37" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="42"/>
       <c r="C38">
         <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L38" s="1"/>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L38" s="1">
+        <v>27865</v>
+      </c>
       <c r="M38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="43"/>
+      <c r="N38" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O38" s="2">
+        <v>191</v>
+      </c>
+      <c r="P38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="42"/>
       <c r="C39">
         <v>36</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L39" s="1"/>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="1">
+        <v>27866</v>
+      </c>
       <c r="M39" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="43"/>
+      <c r="N39" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O39" s="2">
+        <v>191</v>
+      </c>
+      <c r="P39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="42"/>
       <c r="C40">
         <v>37</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L40" s="1"/>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="1">
+        <v>27867</v>
+      </c>
       <c r="M40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="43"/>
+      <c r="N40" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O40" s="2">
+        <v>191</v>
+      </c>
+      <c r="P40" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="42"/>
       <c r="C41">
         <v>38</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
       <c r="F41" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L41" s="1"/>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L41" s="1">
+        <v>27868</v>
+      </c>
       <c r="M41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="43"/>
+      <c r="N41" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O41" s="2">
+        <v>191</v>
+      </c>
+      <c r="P41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="42"/>
       <c r="C42">
         <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L42" s="1"/>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L42" s="1">
+        <v>27869</v>
+      </c>
       <c r="M42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="42" t="s">
+      <c r="N42" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O42" s="2">
+        <v>191</v>
+      </c>
+      <c r="P42" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="45" t="s">
         <v>125</v>
       </c>
       <c r="C43">
@@ -6428,178 +7352,363 @@
       <c r="D43" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="1"/>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="1">
+        <v>27870</v>
+      </c>
       <c r="M43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="42"/>
+      <c r="N43" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O43" s="2">
+        <v>191</v>
+      </c>
+      <c r="P43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="B44" s="45"/>
       <c r="C44">
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L44" s="1"/>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="1">
+        <v>27871</v>
+      </c>
       <c r="M44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="42"/>
+      <c r="N44" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O44" s="2">
+        <v>191</v>
+      </c>
+      <c r="P44" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="45"/>
       <c r="C45">
         <v>42</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L45" s="1"/>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="1">
+        <v>27872</v>
+      </c>
       <c r="M45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="42"/>
+      <c r="N45" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O45" s="2">
+        <v>191</v>
+      </c>
+      <c r="P45" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="45"/>
       <c r="C46">
         <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L46" s="1">
+        <v>27873</v>
+      </c>
       <c r="M46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="42"/>
+      <c r="N46" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O46" s="2">
+        <v>191</v>
+      </c>
+      <c r="P46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="45"/>
       <c r="C47">
         <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L47" s="1"/>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="1">
+        <v>27874</v>
+      </c>
       <c r="M47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="42"/>
+      <c r="N47" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O47" s="2">
+        <v>191</v>
+      </c>
+      <c r="P47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="45"/>
       <c r="C48">
         <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L48" s="1">
+        <v>27875</v>
+      </c>
       <c r="M48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="12"/>
+      <c r="N48" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O48" s="2">
+        <v>191</v>
+      </c>
+      <c r="P48" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="B49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49">
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
       <c r="F49" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="1">
+        <v>27876</v>
+      </c>
       <c r="M49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N49" s="12"/>
+      <c r="N49" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O49" s="2">
+        <v>191</v>
+      </c>
+      <c r="P49" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="B50" s="42"/>
+      <c r="B50" s="45"/>
       <c r="C50">
         <v>47</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>120</v>
       </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
       <c r="F50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="1"/>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="1">
+        <v>27877</v>
+      </c>
       <c r="M50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="12"/>
+      <c r="N50" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O50" s="2">
+        <v>191</v>
+      </c>
+      <c r="P50" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="B51" s="42"/>
+      <c r="B51" s="45"/>
       <c r="C51">
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L51" s="1"/>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="1">
+        <v>27878</v>
+      </c>
       <c r="M51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N51" s="12"/>
+      <c r="N51" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O51" s="2">
+        <v>191</v>
+      </c>
+      <c r="P51" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="B52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52">
         <v>49</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
       <c r="F52" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="14"/>
+      <c r="K52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="1">
+        <v>26448</v>
+      </c>
       <c r="M52" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N52" s="13"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="N52" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O52" s="2">
+        <v>191</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>138</v>
       </c>
       <c r="C53">
@@ -6608,136 +7717,288 @@
       <c r="D53" s="3" t="s">
         <v>126</v>
       </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L53" s="1"/>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="1">
+        <v>26449</v>
+      </c>
       <c r="M53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N53" s="12"/>
+      <c r="N53" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O53" s="2">
+        <v>191</v>
+      </c>
+      <c r="P53" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="B54" s="43"/>
+      <c r="B54" s="42"/>
       <c r="C54">
         <v>51</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
       <c r="F54" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L54" s="1"/>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="1">
+        <v>26450</v>
+      </c>
       <c r="M54" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N54" s="12"/>
+      <c r="N54" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O54" s="2">
+        <v>191</v>
+      </c>
+      <c r="P54" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="B55" s="43"/>
+      <c r="B55" s="42"/>
       <c r="C55">
         <v>52</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="1"/>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L55" s="1">
+        <v>26451</v>
+      </c>
       <c r="M55" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="12"/>
+      <c r="N55" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" s="2">
+        <v>191</v>
+      </c>
+      <c r="P55" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="43"/>
+      <c r="B56" s="42"/>
       <c r="C56">
         <v>53</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L56" s="1"/>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="1">
+        <v>26452</v>
+      </c>
       <c r="M56" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N56" s="12"/>
+      <c r="N56" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O56" s="2">
+        <v>191</v>
+      </c>
+      <c r="P56" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="B57" s="43"/>
+      <c r="B57" s="42"/>
       <c r="C57">
         <v>54</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L57" s="1"/>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="1">
+        <v>26453</v>
+      </c>
       <c r="M57" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N57" s="12"/>
+      <c r="N57" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O57">
+        <v>187</v>
+      </c>
+      <c r="P57" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="B58" s="43"/>
+      <c r="B58" s="42"/>
       <c r="C58">
         <v>55</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
       <c r="F58" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L58" s="1"/>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="1">
+        <v>26454</v>
+      </c>
       <c r="M58" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N58" s="12"/>
+      <c r="N58" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O58">
+        <v>187</v>
+      </c>
+      <c r="P58" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="43"/>
+      <c r="B59" s="42"/>
       <c r="C59">
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L59" s="1"/>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="1">
+        <v>26455</v>
+      </c>
       <c r="M59" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N59" s="12"/>
+      <c r="N59" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O59">
+        <v>187</v>
+      </c>
+      <c r="P59" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="B60" s="43"/>
+      <c r="B60" s="42"/>
       <c r="C60">
         <v>57</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L60" s="1"/>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="1">
+        <v>26456</v>
+      </c>
       <c r="M60" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N60" s="12"/>
+      <c r="N60" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O60">
+        <v>187</v>
+      </c>
+      <c r="P60" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="45" t="s">
         <v>145</v>
       </c>
       <c r="C61">
@@ -6746,97 +8007,187 @@
       <c r="D61" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="L61" s="1"/>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L61" s="1">
+        <v>26457</v>
+      </c>
       <c r="M61" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N61" s="12"/>
+      <c r="N61" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O61">
+        <v>187</v>
+      </c>
+      <c r="P61" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="62" spans="1:16">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62">
         <v>59</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L62" s="1"/>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L62" s="1">
+        <v>26458</v>
+      </c>
       <c r="M62" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N62" s="12"/>
+      <c r="N62" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O62">
+        <v>187</v>
+      </c>
+      <c r="P62" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="B63" s="42"/>
+      <c r="B63" s="45"/>
       <c r="C63">
         <v>60</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
       <c r="F63" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="L63" s="1"/>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="1">
+        <v>26459</v>
+      </c>
       <c r="M63" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N63" s="12"/>
+      <c r="N63" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O63">
+        <v>187</v>
+      </c>
+      <c r="P63" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="42"/>
+      <c r="B64" s="45"/>
       <c r="C64">
         <v>61</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
       <c r="F64" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L64" s="1"/>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="1">
+        <v>26460</v>
+      </c>
       <c r="M64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N64" s="12"/>
+      <c r="N64" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O64">
+        <v>187</v>
+      </c>
+      <c r="P64" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="45"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="45"/>
       <c r="C65">
         <v>62</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
       <c r="F65" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="14"/>
+      <c r="K65" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L65" s="1">
+        <v>26461</v>
+      </c>
       <c r="M65" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N65" s="13"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="N65" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O65">
+        <v>187</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="42" t="s">
         <v>154</v>
       </c>
       <c r="C66">
@@ -6845,96 +8196,186 @@
       <c r="D66" s="3" t="s">
         <v>147</v>
       </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L66" s="1"/>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="1">
+        <v>26462</v>
+      </c>
       <c r="M66" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N66" s="12"/>
+      <c r="N66" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O66">
+        <v>187</v>
+      </c>
+      <c r="P66" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="B67" s="43"/>
+      <c r="B67" s="42"/>
       <c r="C67">
         <v>64</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L67" s="1"/>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="1">
+        <v>26463</v>
+      </c>
       <c r="M67" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N67" s="12"/>
+      <c r="N67" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O67">
+        <v>187</v>
+      </c>
+      <c r="P67" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="B68" s="43"/>
+      <c r="B68" s="42"/>
       <c r="C68">
         <v>65</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
       <c r="F68" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="14"/>
+      <c r="K68" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L68" s="1">
+        <v>27895</v>
+      </c>
       <c r="M68" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N68" s="13"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
+      <c r="N68" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O68">
+        <v>187</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="B69" s="43"/>
+      <c r="B69" s="42"/>
       <c r="C69">
         <v>66</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
       <c r="F69" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L69" s="1"/>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="1">
+        <v>27896</v>
+      </c>
       <c r="M69" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N69" s="12"/>
+      <c r="N69" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O69">
+        <v>187</v>
+      </c>
+      <c r="P69" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="42"/>
       <c r="C70">
         <v>67</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
       <c r="F70" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L70" s="1"/>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="1">
+        <v>27897</v>
+      </c>
       <c r="M70" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N70" s="12"/>
+      <c r="N70" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O70">
+        <v>187</v>
+      </c>
+      <c r="P70" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="45" t="s">
         <v>163</v>
       </c>
       <c r="C71">
@@ -6943,79 +8384,150 @@
       <c r="D71" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
       <c r="F71" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L71" s="1"/>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="1">
+        <v>27898</v>
+      </c>
       <c r="M71" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N71" s="12"/>
+      <c r="N71" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O71">
+        <v>187</v>
+      </c>
+      <c r="P71" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="B72" s="42"/>
+      <c r="B72" s="45"/>
       <c r="C72">
         <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
       <c r="F72" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L72" s="1"/>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="1">
+        <v>27899</v>
+      </c>
       <c r="M72" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N72" s="12"/>
+      <c r="N72" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O72">
+        <v>187</v>
+      </c>
+      <c r="P72" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="B73" s="42"/>
+      <c r="B73" s="45"/>
       <c r="C73">
         <v>70</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
       <c r="F73" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G73" s="2"/>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="14"/>
+      <c r="K73" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="L73" s="1">
+        <v>27900</v>
+      </c>
       <c r="M73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N73" s="13"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+      <c r="N73" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O73">
+        <v>187</v>
+      </c>
+      <c r="P73" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="42"/>
+      <c r="B74" s="45"/>
       <c r="C74">
         <v>71</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>161</v>
       </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
       <c r="F74" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L74" s="1"/>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L74" s="1">
+        <v>27901</v>
+      </c>
       <c r="M74" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N74" s="12"/>
+      <c r="N74" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O74">
+        <v>187</v>
+      </c>
+      <c r="P74" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="42" t="s">
         <v>171</v>
       </c>
       <c r="C75">
@@ -7024,79 +8536,150 @@
       <c r="D75" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
       <c r="F75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L75" s="1">
+        <v>27902</v>
+      </c>
       <c r="M75" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N75" s="12"/>
+      <c r="N75" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O75">
+        <v>187</v>
+      </c>
+      <c r="P75" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="B76" s="43"/>
+      <c r="B76" s="42"/>
       <c r="C76">
         <v>73</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
       <c r="F76" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L76" s="1"/>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="L76" s="1">
+        <v>27903</v>
+      </c>
       <c r="M76" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N76" s="12"/>
+      <c r="N76" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O76">
+        <v>187</v>
+      </c>
+      <c r="P76" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="B77" s="43"/>
+      <c r="B77" s="42"/>
       <c r="C77">
         <v>74</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
       <c r="F77" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L77" s="1"/>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="1">
+        <v>27904</v>
+      </c>
       <c r="M77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N77" s="12"/>
+      <c r="N77" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O77">
+        <v>187</v>
+      </c>
+      <c r="P77" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="43"/>
+      <c r="B78" s="42"/>
       <c r="C78">
         <v>75</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
       <c r="F78" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G78" s="2"/>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="14"/>
+      <c r="K78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="1">
+        <v>27905</v>
+      </c>
       <c r="M78" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N78" s="13"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
+      <c r="N78" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="O78">
+        <v>187</v>
+      </c>
+      <c r="P78" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="45" t="s">
         <v>181</v>
       </c>
       <c r="C79">
@@ -7105,119 +8688,252 @@
       <c r="D79" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
       <c r="F79" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L79" s="1"/>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="1">
+        <v>27906</v>
+      </c>
       <c r="M79" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N79" s="12"/>
+      <c r="N79" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O79">
+        <v>187</v>
+      </c>
+      <c r="P79" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="B80" s="42"/>
+      <c r="B80" s="45"/>
       <c r="C80">
         <v>77</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
       <c r="F80" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="L80" s="1"/>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="1">
+        <v>27907</v>
+      </c>
       <c r="M80" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N80" s="12"/>
-    </row>
-    <row r="81" spans="2:17">
-      <c r="B81" s="42"/>
+      <c r="N80" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O80">
+        <v>193</v>
+      </c>
+      <c r="P80" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="45"/>
       <c r="C81">
         <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
       <c r="F81" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L81" s="1"/>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="1">
+        <v>27908</v>
+      </c>
       <c r="M81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N81" s="12"/>
-    </row>
-    <row r="82" spans="2:17">
-      <c r="B82" s="42"/>
+      <c r="N81" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O81">
+        <v>193</v>
+      </c>
+      <c r="P81" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="45"/>
       <c r="C82">
         <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
       <c r="F82" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L82" s="1"/>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="1">
+        <v>27909</v>
+      </c>
       <c r="M82" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N82" s="12"/>
-    </row>
-    <row r="83" spans="2:17">
-      <c r="B83" s="42"/>
+      <c r="N82" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O82">
+        <v>193</v>
+      </c>
+      <c r="P82" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="45"/>
       <c r="C83">
         <v>80</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
       <c r="F83" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L83" s="1"/>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="1">
+        <v>27910</v>
+      </c>
       <c r="M83" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N83" s="12"/>
-    </row>
-    <row r="84" spans="2:17">
-      <c r="B84" s="42"/>
+      <c r="N83" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O83">
+        <v>193</v>
+      </c>
+      <c r="P83" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="45"/>
       <c r="C84">
         <v>81</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
       <c r="F84" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L84" s="1"/>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="1">
+        <v>27911</v>
+      </c>
       <c r="M84" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N84" s="12"/>
-    </row>
-    <row r="85" spans="2:17">
-      <c r="B85" s="42"/>
+      <c r="N84" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O84">
+        <v>193</v>
+      </c>
+      <c r="P84" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" s="45"/>
       <c r="C85">
         <v>82</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
       <c r="F85" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="L85" s="1"/>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="1">
+        <v>27912</v>
+      </c>
       <c r="M85" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N85" s="12"/>
-    </row>
-    <row r="86" spans="2:17">
-      <c r="B86" s="43" t="s">
+      <c r="N85" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O85">
+        <v>193</v>
+      </c>
+      <c r="P85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" s="42" t="s">
         <v>186</v>
       </c>
       <c r="C86">
@@ -7226,59 +8942,111 @@
       <c r="D86" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E86" s="4"/>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
       <c r="F86" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="14"/>
+      <c r="K86" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="1">
+        <v>27913</v>
+      </c>
       <c r="M86" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N86" s="13"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="2:17">
-      <c r="B87" s="43"/>
+      <c r="N86" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O86">
+        <v>193</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="42"/>
       <c r="C87">
         <v>84</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L87" s="1"/>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="1">
+        <v>27914</v>
+      </c>
       <c r="M87" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N87" s="12"/>
-    </row>
-    <row r="88" spans="2:17">
-      <c r="B88" s="43"/>
+      <c r="N87" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O87">
+        <v>193</v>
+      </c>
+      <c r="P87" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="42"/>
       <c r="C88">
         <v>85</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L88" s="1"/>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="1">
+        <v>27915</v>
+      </c>
       <c r="M88" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N88" s="12"/>
-    </row>
-    <row r="89" spans="2:17">
-      <c r="B89" s="43"/>
+      <c r="N88" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O88">
+        <v>193</v>
+      </c>
+      <c r="P88" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="42"/>
       <c r="C89">
         <v>86</v>
       </c>
@@ -7297,18 +9065,24 @@
       <c r="K89" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>309</v>
+      <c r="L89" s="1">
+        <v>28775</v>
       </c>
       <c r="M89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17">
-      <c r="B90" s="43"/>
+        <v>462</v>
+      </c>
+      <c r="O89">
+        <v>193</v>
+      </c>
+      <c r="P89" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="42"/>
       <c r="C90">
         <v>87</v>
       </c>
@@ -7339,11 +9113,15 @@
       <c r="N90" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="2:17">
-      <c r="B91" s="42" t="s">
+      <c r="O90">
+        <v>193</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="45" t="s">
         <v>194</v>
       </c>
       <c r="C91">
@@ -7373,12 +9151,15 @@
       <c r="N91" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Q91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="2:17">
-      <c r="B92" s="42"/>
+      <c r="O91">
+        <v>193</v>
+      </c>
+      <c r="P91" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="45"/>
       <c r="C92">
         <v>89</v>
       </c>
@@ -7406,12 +9187,15 @@
       <c r="N92" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Q92" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="93" spans="2:17">
-      <c r="B93" s="42"/>
+      <c r="O92">
+        <v>187</v>
+      </c>
+      <c r="P92" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="45"/>
       <c r="C93">
         <v>90</v>
       </c>
@@ -7431,7 +9215,7 @@
         <v>19</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M93" s="12" t="s">
         <v>17</v>
@@ -7439,9 +9223,15 @@
       <c r="N93" s="12" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="94" spans="2:17">
-      <c r="B94" s="42"/>
+      <c r="O93">
+        <v>187</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="45"/>
       <c r="C94">
         <v>91</v>
       </c>
@@ -7460,18 +9250,24 @@
       <c r="K94" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>309</v>
+      <c r="L94" s="1">
+        <v>25583</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="95" spans="2:17">
-      <c r="B95" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="O94">
+        <v>187</v>
+      </c>
+      <c r="P94" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="47" t="s">
         <v>198</v>
       </c>
       <c r="C95">
@@ -7493,7 +9289,7 @@
         <v>19</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M95" s="12" t="s">
         <v>17</v>
@@ -7501,12 +9297,15 @@
       <c r="N95" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="Q95" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="96" spans="2:17">
-      <c r="B96" s="44"/>
+      <c r="O95">
+        <v>187</v>
+      </c>
+      <c r="P95" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="47"/>
       <c r="C96">
         <v>93</v>
       </c>
@@ -7516,7 +9315,7 @@
       <c r="E96" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" t="s">
         <v>197</v>
       </c>
       <c r="G96" t="s">
@@ -7525,8 +9324,8 @@
       <c r="K96" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>309</v>
+      <c r="L96" s="1">
+        <v>29026</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>17</v>
@@ -7534,9 +9333,15 @@
       <c r="N96" s="12" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="B97" s="42" t="s">
+      <c r="O96">
+        <v>187</v>
+      </c>
+      <c r="P96" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="B97" s="45" t="s">
         <v>203</v>
       </c>
       <c r="C97">
@@ -7557,18 +9362,24 @@
       <c r="K97" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>309</v>
+      <c r="L97" s="1">
+        <v>27829</v>
       </c>
       <c r="M97" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="B98" s="42"/>
+        <v>462</v>
+      </c>
+      <c r="O97">
+        <v>187</v>
+      </c>
+      <c r="P97" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="B98" s="45"/>
       <c r="C98">
         <v>95</v>
       </c>
@@ -7588,20 +9399,26 @@
         <v>19</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>309</v>
+        <v>463</v>
       </c>
       <c r="M98" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+        <v>462</v>
+      </c>
+      <c r="O98">
+        <v>187</v>
+      </c>
+      <c r="P98" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99">
         <v>96</v>
       </c>
@@ -7620,18 +9437,24 @@
       <c r="K99" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>309</v>
+      <c r="L99" s="1">
+        <v>26632</v>
       </c>
       <c r="M99" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="B100" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="O99">
+        <v>187</v>
+      </c>
+      <c r="P99" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="B100" s="42" t="s">
         <v>208</v>
       </c>
       <c r="C100">
@@ -7652,18 +9475,24 @@
       <c r="K100" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="L100" s="1" t="s">
-        <v>309</v>
+      <c r="L100" s="1">
+        <v>25435</v>
       </c>
       <c r="M100" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="B101" s="43"/>
+        <v>462</v>
+      </c>
+      <c r="O100">
+        <v>187</v>
+      </c>
+      <c r="P100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="B101" s="42"/>
       <c r="C101">
         <v>98</v>
       </c>
@@ -7671,7 +9500,7 @@
         <v>102</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>206</v>
@@ -7683,20 +9512,26 @@
         <v>19</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>309</v>
+        <v>464</v>
       </c>
       <c r="M101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>462</v>
+      </c>
+      <c r="O101">
+        <v>187</v>
+      </c>
+      <c r="P101" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B102" s="43"/>
+        <v>327</v>
+      </c>
+      <c r="B102" s="42"/>
       <c r="C102">
         <v>99</v>
       </c>
@@ -7715,8 +9550,8 @@
       <c r="K102" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>309</v>
+      <c r="L102" s="1">
+        <v>24238</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>17</v>
@@ -7724,9 +9559,15 @@
       <c r="N102" s="12" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="B103" s="42" t="s">
+      <c r="O102">
+        <v>187</v>
+      </c>
+      <c r="P102" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="B103" s="45" t="s">
         <v>212</v>
       </c>
       <c r="C103">
@@ -7759,14 +9600,15 @@
       <c r="N103" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="B104" s="42"/>
+      <c r="O103">
+        <v>187</v>
+      </c>
+      <c r="P103" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="B104" s="45"/>
       <c r="C104">
         <v>101</v>
       </c>
@@ -7793,6 +9635,12 @@
       </c>
       <c r="N104" s="12" t="s">
         <v>255</v>
+      </c>
+      <c r="O104">
+        <v>187</v>
+      </c>
+      <c r="P104" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="4:17">
@@ -7813,17 +9661,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="B4:B17"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="B31:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
     <mergeCell ref="B103:B104"/>
     <mergeCell ref="B79:B85"/>
     <mergeCell ref="B86:B90"/>
@@ -7831,19 +9668,20 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C2:P2"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B52"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:M3">
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N104">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
-      <formula>"?"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L104">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+  <conditionalFormatting sqref="L2:M3 N4:N104 L4:L104">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7860,14 +9698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" customWidth="1"/>
@@ -7880,7 +9718,7 @@
   <sheetData>
     <row r="2" spans="1:16">
       <c r="C2" s="39" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D2" s="39"/>
       <c r="E2" s="39"/>
@@ -8259,17 +10097,17 @@
     <mergeCell ref="C2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1 L3:L1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8286,14 +10124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4:P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="12" style="12" customWidth="1"/>
     <col min="4" max="7" width="12" customWidth="1"/>
@@ -8668,27 +10506,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O3 N9:N1048576 N7">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N6">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"?"</formula>
     </cfRule>
   </conditionalFormatting>
